--- a/blog/data for charts.xlsx
+++ b/blog/data for charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Luis\Business folder\tepuy_site\blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FFD84D1-A032-4870-AA45-A374895CF5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29AFFE2-EFDC-4F20-8127-C0E69DADC892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B159E2E-8423-4A54-869A-CB7D220BCCE4}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/blog/data for charts.xlsx
+++ b/blog/data for charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Luis\Business folder\tepuy_site\blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03302A74-012B-4981-9F9E-5360AC6B1F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B345E1-F4DB-4EFE-8319-12688B80840D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B159E2E-8423-4A54-869A-CB7D220BCCE4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Year</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>USD/AUD Exchange Rate</t>
+  </si>
+  <si>
+    <t>Median House Price growth (%)(AUD)</t>
   </si>
 </sst>
 </file>
@@ -205,17 +208,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -249,10 +254,14 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -584,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA479CF-F01B-46D5-BB9B-5EE2BF069812}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K52"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,53 +604,69 @@
     <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q1" s="5" t="str">
+        <f>+A1</f>
+        <v>Year</v>
+      </c>
+      <c r="R1" s="5" t="str">
+        <f>+C1</f>
+        <v>Cash Rate (%)</v>
+      </c>
+      <c r="S1" s="16" t="str">
+        <f>+E1</f>
+        <v>Median House Price growth (%)(AUD)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1975</v>
       </c>
@@ -655,33 +680,48 @@
         <v>25000</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>10000</v>
       </c>
-      <c r="F2" s="8">
+      <c r="G2" s="9">
         <v>90</v>
       </c>
-      <c r="G2" s="8">
+      <c r="H2" s="9">
         <v>0.77</v>
       </c>
-      <c r="H2" s="3">
-        <f>+F2*G2</f>
+      <c r="I2" s="3">
+        <f>+G2*H2</f>
         <v>69.3</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <f>SUM($B$2:B2)/$B$2</f>
         <v>1</v>
       </c>
-      <c r="J2" s="3">
-        <v>100</v>
-      </c>
       <c r="K2" s="3">
         <v>100</v>
       </c>
       <c r="L2" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <f>+A2</f>
+        <v>1975</v>
+      </c>
+      <c r="R2" s="4">
+        <f>+C2/100</f>
+        <v>0.08</v>
+      </c>
+      <c r="S2" s="4">
+        <f>+E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1976</v>
       </c>
@@ -694,37 +734,53 @@
       <c r="D3">
         <v>27000</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
+        <f>+D3/D2-1</f>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="F3">
         <v>11000</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G3" s="9">
         <v>107</v>
       </c>
-      <c r="G3" s="8">
+      <c r="H3" s="9">
         <v>0.82</v>
       </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:H52" si="0">+F3*G3</f>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I52" si="0">+G3*H3</f>
         <v>87.74</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <f>SUM($B$2:B3)/$B$2</f>
         <v>2.4</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <f>D3/$D$2*100</f>
         <v>108</v>
       </c>
-      <c r="K3" s="3">
-        <f>E3/$E$2*100</f>
+      <c r="L3" s="3">
+        <f>F3/$F$2*100</f>
         <v>110.00000000000001</v>
       </c>
-      <c r="L3" s="3">
-        <f>H3/$H$2*100</f>
+      <c r="M3" s="3">
+        <f>I3/$I$2*100</f>
         <v>126.60894660894661</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q52" si="1">+A3</f>
+        <v>1976</v>
+      </c>
+      <c r="R3" s="4">
+        <f t="shared" ref="R3:R52" si="2">+C3/100</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S3" s="4">
+        <f t="shared" ref="S3:S52" si="3">+E3</f>
+        <v>8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1977</v>
       </c>
@@ -737,37 +793,53 @@
       <c r="D4">
         <v>29000</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:E52" si="4">+D4/D3-1</f>
+        <v>7.4074074074074181E-2</v>
+      </c>
+      <c r="F4">
         <v>12000</v>
       </c>
-      <c r="F4" s="8">
+      <c r="G4" s="9">
         <v>95</v>
       </c>
-      <c r="G4" s="8">
+      <c r="H4" s="9">
         <v>0.9</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>85.5</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <f>SUM($B$2:B4)/$B$2</f>
         <v>4</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <f>D4/$D$2*100</f>
         <v>115.99999999999999</v>
       </c>
-      <c r="K4" s="3">
-        <f>E4/$E$2*100</f>
+      <c r="L4" s="3">
+        <f>F4/$F$2*100</f>
         <v>120</v>
       </c>
-      <c r="L4" s="3">
-        <f t="shared" ref="L4:L52" si="1">H4/$H$2*100</f>
+      <c r="M4" s="3">
+        <f t="shared" ref="M4:M52" si="5">I4/$I$2*100</f>
         <v>123.37662337662339</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>1977</v>
+      </c>
+      <c r="R4" s="4">
+        <f t="shared" si="2"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="shared" si="3"/>
+        <v>7.4074074074074181E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1978</v>
       </c>
@@ -780,37 +852,53 @@
       <c r="D5">
         <v>32000</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
+        <f t="shared" si="4"/>
+        <v>0.10344827586206895</v>
+      </c>
+      <c r="F5">
         <v>13000</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="9">
         <v>97</v>
       </c>
-      <c r="G5" s="8">
+      <c r="H5" s="9">
         <v>0.87</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <f t="shared" si="0"/>
         <v>84.39</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <f>SUM($B$2:B5)/$B$2</f>
         <v>5.4</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <f>D5/$D$2*100</f>
         <v>128</v>
       </c>
-      <c r="K5" s="3">
-        <f>E5/$E$2*100</f>
+      <c r="L5" s="3">
+        <f>F5/$F$2*100</f>
         <v>130</v>
       </c>
-      <c r="L5" s="3">
-        <f t="shared" si="1"/>
+      <c r="M5" s="3">
+        <f t="shared" si="5"/>
         <v>121.77489177489178</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>1978</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" si="3"/>
+        <v>0.10344827586206895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1979</v>
       </c>
@@ -823,37 +911,53 @@
       <c r="D6">
         <v>36000</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="F6">
         <v>14000</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G6" s="9">
         <v>108</v>
       </c>
-      <c r="G6" s="8">
+      <c r="H6" s="9">
         <v>0.89</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <f t="shared" si="0"/>
         <v>96.12</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <f>SUM($B$2:B6)/$B$2</f>
         <v>7</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <f>D6/$D$2*100</f>
         <v>144</v>
       </c>
-      <c r="K6" s="3">
-        <f>E6/$E$2*100</f>
+      <c r="L6" s="3">
+        <f>F6/$F$2*100</f>
         <v>140</v>
       </c>
-      <c r="L6" s="3">
-        <f t="shared" si="1"/>
+      <c r="M6" s="3">
+        <f t="shared" si="5"/>
         <v>138.7012987012987</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>1979</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.09</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1980</v>
       </c>
@@ -866,37 +970,53 @@
       <c r="D7">
         <v>45000</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="F7">
         <v>15000</v>
       </c>
-      <c r="F7" s="8">
+      <c r="G7" s="9">
         <v>136</v>
       </c>
-      <c r="G7" s="8">
+      <c r="H7" s="9">
         <v>0.88</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <f t="shared" si="0"/>
         <v>119.68</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <f>SUM($B$2:B7)/$B$2</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <f>D7/$D$2*100</f>
         <v>180</v>
       </c>
-      <c r="K7" s="3">
-        <f>E7/$E$2*100</f>
+      <c r="L7" s="3">
+        <f>F7/$F$2*100</f>
         <v>150</v>
       </c>
-      <c r="L7" s="3">
-        <f t="shared" si="1"/>
+      <c r="M7" s="3">
+        <f t="shared" si="5"/>
         <v>172.69841269841271</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>1980</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1981</v>
       </c>
@@ -909,37 +1029,53 @@
       <c r="D8">
         <v>50000</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
+        <f t="shared" si="4"/>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="F8">
         <v>17000</v>
       </c>
-      <c r="F8" s="8">
+      <c r="G8" s="9">
         <v>122</v>
       </c>
-      <c r="G8" s="8">
+      <c r="H8" s="9">
         <v>0.87</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>106.14</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <f>SUM($B$2:B8)/$B$2</f>
         <v>11.6</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <f>D8/$D$2*100</f>
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <f>E8/$E$2*100</f>
+      <c r="L8" s="3">
+        <f>F8/$F$2*100</f>
         <v>170</v>
       </c>
-      <c r="L8" s="3">
-        <f t="shared" si="1"/>
+      <c r="M8" s="3">
+        <f t="shared" si="5"/>
         <v>153.16017316017317</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>1981</v>
+      </c>
+      <c r="R8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.115</v>
+      </c>
+      <c r="S8" s="4">
+        <f t="shared" si="3"/>
+        <v>0.11111111111111116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1982</v>
       </c>
@@ -952,37 +1088,53 @@
       <c r="D9">
         <v>55000</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
+        <f t="shared" si="4"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="F9">
         <v>18000</v>
       </c>
-      <c r="F9" s="8">
+      <c r="G9" s="9">
         <v>140</v>
       </c>
-      <c r="G9" s="8">
+      <c r="H9" s="9">
         <v>0.99</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
         <v>138.6</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <f>SUM($B$2:B9)/$B$2</f>
         <v>13.4</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <f>D9/$D$2*100</f>
         <v>220.00000000000003</v>
       </c>
-      <c r="K9" s="3">
-        <f>E9/$E$2*100</f>
+      <c r="L9" s="3">
+        <f>F9/$F$2*100</f>
         <v>180</v>
       </c>
-      <c r="L9" s="3">
-        <f t="shared" si="1"/>
+      <c r="M9" s="3">
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>1982</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="2"/>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="S9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1983</v>
       </c>
@@ -995,37 +1147,53 @@
       <c r="D10">
         <v>60000</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090828E-2</v>
+      </c>
+      <c r="F10">
         <v>20000</v>
       </c>
-      <c r="F10" s="8">
+      <c r="G10" s="9">
         <v>165</v>
       </c>
-      <c r="G10" s="8">
+      <c r="H10" s="9">
         <v>1.1100000000000001</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>183.15</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <f>SUM($B$2:B10)/$B$2</f>
         <v>14.8</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <f>D10/$D$2*100</f>
         <v>240</v>
       </c>
-      <c r="K10" s="3">
-        <f>E10/$E$2*100</f>
+      <c r="L10" s="3">
+        <f>F10/$F$2*100</f>
         <v>200</v>
       </c>
-      <c r="L10" s="3">
-        <f t="shared" si="1"/>
+      <c r="M10" s="3">
+        <f t="shared" si="5"/>
         <v>264.28571428571433</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>1983</v>
+      </c>
+      <c r="R10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.11</v>
+      </c>
+      <c r="S10" s="4">
+        <f t="shared" si="3"/>
+        <v>9.0909090909090828E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1984</v>
       </c>
@@ -1038,37 +1206,53 @@
       <c r="D11">
         <v>62000</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
+        <f t="shared" si="4"/>
+        <v>3.3333333333333437E-2</v>
+      </c>
+      <c r="F11">
         <v>21000</v>
       </c>
-      <c r="F11" s="8">
+      <c r="G11" s="9">
         <v>167</v>
       </c>
-      <c r="G11" s="8">
+      <c r="H11" s="9">
         <v>1.19</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <f t="shared" si="0"/>
         <v>198.73</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <f>SUM($B$2:B11)/$B$2</f>
         <v>16.399999999999999</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <f>D11/$D$2*100</f>
         <v>248</v>
       </c>
-      <c r="K11" s="3">
-        <f>E11/$E$2*100</f>
+      <c r="L11" s="3">
+        <f>F11/$F$2*100</f>
         <v>210</v>
       </c>
-      <c r="L11" s="3">
-        <f t="shared" si="1"/>
+      <c r="M11" s="3">
+        <f t="shared" si="5"/>
         <v>286.76767676767679</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>1984</v>
+      </c>
+      <c r="R11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.105</v>
+      </c>
+      <c r="S11" s="4">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333437E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1985</v>
       </c>
@@ -1081,37 +1265,53 @@
       <c r="D12">
         <v>65000</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
+        <f t="shared" si="4"/>
+        <v>4.8387096774193505E-2</v>
+      </c>
+      <c r="F12">
         <v>22000</v>
       </c>
-      <c r="F12" s="8">
+      <c r="G12" s="9">
         <v>211</v>
       </c>
-      <c r="G12" s="8">
+      <c r="H12" s="9">
         <v>1.43</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <f t="shared" si="0"/>
         <v>301.72999999999996</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <f>SUM($B$2:B12)/$B$2</f>
         <v>18.2</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <f>D12/$D$2*100</f>
         <v>260</v>
       </c>
-      <c r="K12" s="3">
-        <f>E12/$E$2*100</f>
+      <c r="L12" s="3">
+        <f>F12/$F$2*100</f>
         <v>220.00000000000003</v>
       </c>
-      <c r="L12" s="3">
-        <f t="shared" si="1"/>
+      <c r="M12" s="3">
+        <f t="shared" si="5"/>
         <v>435.39682539682536</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>1985</v>
+      </c>
+      <c r="R12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="S12" s="4">
+        <f t="shared" si="3"/>
+        <v>4.8387096774193505E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1986</v>
       </c>
@@ -1124,37 +1324,53 @@
       <c r="D13">
         <v>70000</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076872E-2</v>
+      </c>
+      <c r="F13">
         <v>24000</v>
       </c>
-      <c r="F13" s="8">
+      <c r="G13" s="9">
         <v>243</v>
       </c>
-      <c r="G13" s="8">
+      <c r="H13" s="9">
         <v>1.49</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>362.07</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <f>SUM($B$2:B13)/$B$2</f>
         <v>20.399999999999999</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <f>D13/$D$2*100</f>
         <v>280</v>
       </c>
-      <c r="K13" s="3">
-        <f>E13/$E$2*100</f>
+      <c r="L13" s="3">
+        <f>F13/$F$2*100</f>
         <v>240</v>
       </c>
-      <c r="L13" s="3">
-        <f t="shared" si="1"/>
+      <c r="M13" s="3">
+        <f t="shared" si="5"/>
         <v>522.46753246753246</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>1986</v>
+      </c>
+      <c r="R13" s="4">
+        <f t="shared" si="2"/>
+        <v>0.13</v>
+      </c>
+      <c r="S13" s="4">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076872E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1987</v>
       </c>
@@ -1167,37 +1383,53 @@
       <c r="D14">
         <v>80000</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714279</v>
+      </c>
+      <c r="F14">
         <v>25000</v>
       </c>
-      <c r="F14" s="8">
+      <c r="G14" s="9">
         <v>247</v>
       </c>
-      <c r="G14" s="8">
+      <c r="H14" s="9">
         <v>1.43</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <f t="shared" si="0"/>
         <v>353.21</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <f>SUM($B$2:B14)/$B$2</f>
         <v>23.2</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <f>D14/$D$2*100</f>
         <v>320</v>
       </c>
-      <c r="K14" s="3">
-        <f>E14/$E$2*100</f>
+      <c r="L14" s="3">
+        <f>F14/$F$2*100</f>
         <v>250</v>
       </c>
-      <c r="L14" s="3">
-        <f t="shared" si="1"/>
+      <c r="M14" s="3">
+        <f t="shared" si="5"/>
         <v>509.68253968253964</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>1987</v>
+      </c>
+      <c r="R14" s="4">
+        <f t="shared" si="2"/>
+        <v>0.115</v>
+      </c>
+      <c r="S14" s="4">
+        <f t="shared" si="3"/>
+        <v>0.14285714285714279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1988</v>
       </c>
@@ -1210,37 +1442,53 @@
       <c r="D15">
         <v>90000</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="F15">
         <v>27000</v>
       </c>
-      <c r="F15" s="8">
+      <c r="G15" s="9">
         <v>277</v>
       </c>
-      <c r="G15" s="8">
+      <c r="H15" s="9">
         <v>1.26</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <f t="shared" si="0"/>
         <v>349.02</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <f>SUM($B$2:B15)/$B$2</f>
         <v>26.6</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <f>D15/$D$2*100</f>
         <v>360</v>
       </c>
-      <c r="K15" s="3">
-        <f>E15/$E$2*100</f>
+      <c r="L15" s="3">
+        <f>F15/$F$2*100</f>
         <v>270</v>
       </c>
-      <c r="L15" s="3">
-        <f t="shared" si="1"/>
+      <c r="M15" s="3">
+        <f t="shared" si="5"/>
         <v>503.63636363636363</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>1988</v>
+      </c>
+      <c r="R15" s="4">
+        <f t="shared" si="2"/>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="S15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1989</v>
       </c>
@@ -1253,37 +1501,53 @@
       <c r="D16">
         <v>100000</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
+        <f t="shared" si="4"/>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="F16">
         <v>29000</v>
       </c>
-      <c r="F16" s="8">
+      <c r="G16" s="9">
         <v>353</v>
       </c>
-      <c r="G16" s="8">
+      <c r="H16" s="9">
         <v>1.27</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <f t="shared" si="0"/>
         <v>448.31</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <f>SUM($B$2:B16)/$B$2</f>
         <v>29.2</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <f>D16/$D$2*100</f>
         <v>400</v>
       </c>
-      <c r="K16" s="3">
-        <f>E16/$E$2*100</f>
+      <c r="L16" s="3">
+        <f>F16/$F$2*100</f>
         <v>290</v>
       </c>
-      <c r="L16" s="3">
-        <f t="shared" si="1"/>
+      <c r="M16" s="3">
+        <f t="shared" si="5"/>
         <v>646.91197691197692</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>1989</v>
+      </c>
+      <c r="R16" s="4">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="S16" s="4">
+        <f t="shared" si="3"/>
+        <v>0.11111111111111116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1990</v>
       </c>
@@ -1296,37 +1560,53 @@
       <c r="D17">
         <v>110000</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
+        <f t="shared" si="4"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="F17">
         <v>31000</v>
       </c>
-      <c r="F17" s="8">
+      <c r="G17" s="9">
         <v>330</v>
       </c>
-      <c r="G17" s="8">
+      <c r="H17" s="9">
         <v>1.28</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <f t="shared" si="0"/>
         <v>422.40000000000003</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <f>SUM($B$2:B17)/$B$2</f>
         <v>31.2</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <f>D17/$D$2*100</f>
         <v>440.00000000000006</v>
       </c>
-      <c r="K17" s="3">
-        <f>E17/$E$2*100</f>
+      <c r="L17" s="3">
+        <f>F17/$F$2*100</f>
         <v>310</v>
       </c>
-      <c r="L17" s="3">
-        <f t="shared" si="1"/>
+      <c r="M17" s="3">
+        <f t="shared" si="5"/>
         <v>609.52380952380963</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>1990</v>
+      </c>
+      <c r="R17" s="4">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="S17" s="4">
+        <f t="shared" si="3"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1991</v>
       </c>
@@ -1339,37 +1619,53 @@
       <c r="D18">
         <v>115000</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
+        <f t="shared" si="4"/>
+        <v>4.5454545454545414E-2</v>
+      </c>
+      <c r="F18">
         <v>32000</v>
       </c>
-      <c r="F18" s="8">
+      <c r="G18" s="9">
         <v>417</v>
       </c>
-      <c r="G18" s="8">
+      <c r="H18" s="9">
         <v>1.3</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <f t="shared" si="0"/>
         <v>542.1</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <f>SUM($B$2:B18)/$B$2</f>
         <v>33</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <f>D18/$D$2*100</f>
         <v>459.99999999999994</v>
       </c>
-      <c r="K18" s="3">
-        <f>E18/$E$2*100</f>
+      <c r="L18" s="3">
+        <f>F18/$F$2*100</f>
         <v>320</v>
       </c>
-      <c r="L18" s="3">
-        <f t="shared" si="1"/>
+      <c r="M18" s="3">
+        <f t="shared" si="5"/>
         <v>782.25108225108238</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>1991</v>
+      </c>
+      <c r="R18" s="4">
+        <f t="shared" si="2"/>
+        <v>0.11</v>
+      </c>
+      <c r="S18" s="4">
+        <f t="shared" si="3"/>
+        <v>4.5454545454545414E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1992</v>
       </c>
@@ -1382,37 +1678,53 @@
       <c r="D19">
         <v>120000</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
+        <f t="shared" si="4"/>
+        <v>4.3478260869565188E-2</v>
+      </c>
+      <c r="F19">
         <v>33000</v>
       </c>
-      <c r="F19" s="8">
+      <c r="G19" s="9">
         <v>436</v>
       </c>
-      <c r="G19" s="8">
+      <c r="H19" s="9">
         <v>1.36</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <f t="shared" si="0"/>
         <v>592.96</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="2">
         <f>SUM($B$2:B19)/$B$2</f>
         <v>33.6</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
         <f>D19/$D$2*100</f>
         <v>480</v>
       </c>
-      <c r="K19" s="3">
-        <f>E19/$E$2*100</f>
+      <c r="L19" s="3">
+        <f>F19/$F$2*100</f>
         <v>330</v>
       </c>
-      <c r="L19" s="3">
-        <f t="shared" si="1"/>
+      <c r="M19" s="3">
+        <f t="shared" si="5"/>
         <v>855.64213564213571</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>1992</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="S19" s="4">
+        <f t="shared" si="3"/>
+        <v>4.3478260869565188E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1993</v>
       </c>
@@ -1425,37 +1737,53 @@
       <c r="D20">
         <v>125000</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
+        <f t="shared" si="4"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="F20">
         <v>34000</v>
       </c>
-      <c r="F20" s="8">
+      <c r="G20" s="9">
         <v>466</v>
       </c>
-      <c r="G20" s="8">
+      <c r="H20" s="9">
         <v>1.47</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <f t="shared" si="0"/>
         <v>685.02</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <f>SUM($B$2:B20)/$B$2</f>
         <v>34.54</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <f>D20/$D$2*100</f>
         <v>500</v>
       </c>
-      <c r="K20" s="3">
-        <f>E20/$E$2*100</f>
+      <c r="L20" s="3">
+        <f>F20/$F$2*100</f>
         <v>340</v>
       </c>
-      <c r="L20" s="3">
-        <f t="shared" si="1"/>
+      <c r="M20" s="3">
+        <f t="shared" si="5"/>
         <v>988.4848484848485</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>1993</v>
+      </c>
+      <c r="R20" s="4">
+        <f t="shared" si="2"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" si="3"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1994</v>
       </c>
@@ -1468,37 +1796,53 @@
       <c r="D21">
         <v>130000</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
+        <f t="shared" si="4"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="F21">
         <v>35000</v>
       </c>
-      <c r="F21" s="8">
+      <c r="G21" s="9">
         <v>459</v>
       </c>
-      <c r="G21" s="8">
+      <c r="H21" s="9">
         <v>1.29</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <f t="shared" si="0"/>
         <v>592.11</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <f>SUM($B$2:B21)/$B$2</f>
         <v>36.14</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <f>D21/$D$2*100</f>
         <v>520</v>
       </c>
-      <c r="K21" s="3">
-        <f>E21/$E$2*100</f>
+      <c r="L21" s="3">
+        <f>F21/$F$2*100</f>
         <v>350</v>
       </c>
-      <c r="L21" s="3">
-        <f t="shared" si="1"/>
+      <c r="M21" s="3">
+        <f t="shared" si="5"/>
         <v>854.41558441558436</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>1994</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" si="2"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1995</v>
       </c>
@@ -1511,37 +1855,53 @@
       <c r="D22">
         <v>130000</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>36000</v>
       </c>
-      <c r="F22" s="8">
+      <c r="G22" s="9">
         <v>615</v>
       </c>
-      <c r="G22" s="8">
+      <c r="H22" s="9">
         <v>1.35</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <f t="shared" si="0"/>
         <v>830.25</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <f>SUM($B$2:B22)/$B$2</f>
         <v>38.14</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <f>D22/$D$2*100</f>
         <v>520</v>
       </c>
-      <c r="K22" s="3">
-        <f>E22/$E$2*100</f>
+      <c r="L22" s="3">
+        <f>F22/$F$2*100</f>
         <v>360</v>
       </c>
-      <c r="L22" s="3">
-        <f t="shared" si="1"/>
+      <c r="M22" s="3">
+        <f t="shared" si="5"/>
         <v>1198.0519480519481</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>1995</v>
+      </c>
+      <c r="R22" s="4">
+        <f t="shared" si="2"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="S22" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1996</v>
       </c>
@@ -1554,37 +1914,53 @@
       <c r="D23">
         <v>140000</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076872E-2</v>
+      </c>
+      <c r="F23">
         <v>38000</v>
       </c>
-      <c r="F23" s="8">
+      <c r="G23" s="9">
         <v>741</v>
       </c>
-      <c r="G23" s="8">
+      <c r="H23" s="9">
         <v>1.26</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <f t="shared" si="0"/>
         <v>933.66</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
         <f>SUM($B$2:B23)/$B$2</f>
         <v>39.94</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <f>D23/$D$2*100</f>
         <v>560</v>
       </c>
-      <c r="K23" s="3">
-        <f>E23/$E$2*100</f>
+      <c r="L23" s="3">
+        <f>F23/$F$2*100</f>
         <v>380</v>
       </c>
-      <c r="L23" s="3">
-        <f t="shared" si="1"/>
+      <c r="M23" s="3">
+        <f t="shared" si="5"/>
         <v>1347.2727272727273</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>1996</v>
+      </c>
+      <c r="R23" s="4">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S23" s="4">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076872E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1997</v>
       </c>
@@ -1597,37 +1973,53 @@
       <c r="D24">
         <v>150000</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
+        <f t="shared" si="4"/>
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="F24">
         <v>39000</v>
       </c>
-      <c r="F24" s="8">
+      <c r="G24" s="9">
         <v>970</v>
       </c>
-      <c r="G24" s="8">
+      <c r="H24" s="9">
         <v>1.34</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <f t="shared" si="0"/>
         <v>1299.8000000000002</v>
       </c>
-      <c r="I24" s="2">
+      <c r="J24" s="2">
         <f>SUM($B$2:B24)/$B$2</f>
         <v>41.54</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <f>D24/$D$2*100</f>
         <v>600</v>
       </c>
-      <c r="K24" s="3">
-        <f>E24/$E$2*100</f>
+      <c r="L24" s="3">
+        <f>F24/$F$2*100</f>
         <v>390</v>
       </c>
-      <c r="L24" s="3">
-        <f t="shared" si="1"/>
+      <c r="M24" s="3">
+        <f t="shared" si="5"/>
         <v>1875.6132756132761</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>1997</v>
+      </c>
+      <c r="R24" s="4">
+        <f t="shared" si="2"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="S24" s="4">
+        <f t="shared" si="3"/>
+        <v>7.1428571428571397E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1998</v>
       </c>
@@ -1640,37 +2032,53 @@
       <c r="D25">
         <v>155000</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
+        <f t="shared" si="4"/>
+        <v>3.3333333333333437E-2</v>
+      </c>
+      <c r="F25">
         <v>40000</v>
       </c>
-      <c r="F25" s="9">
+      <c r="G25" s="10">
         <v>1229</v>
       </c>
-      <c r="G25" s="8">
+      <c r="H25" s="9">
         <v>1.59</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <f t="shared" si="0"/>
         <v>1954.1100000000001</v>
       </c>
-      <c r="I25" s="2">
+      <c r="J25" s="2">
         <f>SUM($B$2:B25)/$B$2</f>
         <v>43.34</v>
       </c>
-      <c r="J25" s="3">
+      <c r="K25" s="3">
         <f>D25/$D$2*100</f>
         <v>620</v>
       </c>
-      <c r="K25" s="3">
-        <f>E25/$E$2*100</f>
+      <c r="L25" s="3">
+        <f>F25/$F$2*100</f>
         <v>400</v>
       </c>
-      <c r="L25" s="3">
-        <f t="shared" si="1"/>
+      <c r="M25" s="3">
+        <f t="shared" si="5"/>
         <v>2819.7835497835504</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>1998</v>
+      </c>
+      <c r="R25" s="4">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="S25" s="4">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333437E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1999</v>
       </c>
@@ -1683,37 +2091,53 @@
       <c r="D26">
         <v>160000</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
+        <f t="shared" si="4"/>
+        <v>3.2258064516129004E-2</v>
+      </c>
+      <c r="F26">
         <v>42000</v>
       </c>
-      <c r="F26" s="9">
+      <c r="G26" s="10">
         <v>1469</v>
       </c>
-      <c r="G26" s="8">
+      <c r="H26" s="9">
         <v>1.55</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <f t="shared" si="0"/>
         <v>2276.9500000000003</v>
       </c>
-      <c r="I26" s="2">
+      <c r="J26" s="2">
         <f>SUM($B$2:B26)/$B$2</f>
         <v>45.34</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <f>D26/$D$2*100</f>
         <v>640</v>
       </c>
-      <c r="K26" s="3">
-        <f>E26/$E$2*100</f>
+      <c r="L26" s="3">
+        <f>F26/$F$2*100</f>
         <v>420</v>
       </c>
-      <c r="L26" s="3">
-        <f t="shared" si="1"/>
+      <c r="M26" s="3">
+        <f t="shared" si="5"/>
         <v>3285.6421356421365</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>1999</v>
+      </c>
+      <c r="R26" s="4">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="S26" s="4">
+        <f t="shared" si="3"/>
+        <v>3.2258064516129004E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2000</v>
       </c>
@@ -1726,37 +2150,53 @@
       <c r="D27">
         <v>170000</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F27">
         <v>44000</v>
       </c>
-      <c r="F27" s="9">
+      <c r="G27" s="10">
         <v>1320</v>
       </c>
-      <c r="G27" s="8">
+      <c r="H27" s="9">
         <v>1.72</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <f t="shared" si="0"/>
         <v>2270.4</v>
       </c>
-      <c r="I27" s="2">
+      <c r="J27" s="2">
         <f>SUM($B$2:B27)/$B$2</f>
         <v>47.54</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <f>D27/$D$2*100</f>
         <v>680</v>
       </c>
-      <c r="K27" s="3">
-        <f>E27/$E$2*100</f>
+      <c r="L27" s="3">
+        <f>F27/$F$2*100</f>
         <v>440.00000000000006</v>
       </c>
-      <c r="L27" s="3">
-        <f t="shared" si="1"/>
+      <c r="M27" s="3">
+        <f t="shared" si="5"/>
         <v>3276.1904761904766</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="R27" s="4">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" si="3"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2001</v>
       </c>
@@ -1769,37 +2209,53 @@
       <c r="D28">
         <v>180000</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
+        <f t="shared" si="4"/>
+        <v>5.8823529411764719E-2</v>
+      </c>
+      <c r="F28">
         <v>46000</v>
       </c>
-      <c r="F28" s="9">
+      <c r="G28" s="10">
         <v>1148</v>
       </c>
-      <c r="G28" s="8">
+      <c r="H28" s="9">
         <v>1.93</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="3">
         <f t="shared" si="0"/>
         <v>2215.64</v>
       </c>
-      <c r="I28" s="2">
+      <c r="J28" s="2">
         <f>SUM($B$2:B28)/$B$2</f>
         <v>49.94</v>
       </c>
-      <c r="J28" s="3">
+      <c r="K28" s="3">
         <f>D28/$D$2*100</f>
         <v>720</v>
       </c>
-      <c r="K28" s="3">
-        <f>E28/$E$2*100</f>
+      <c r="L28" s="3">
+        <f>F28/$F$2*100</f>
         <v>459.99999999999994</v>
       </c>
-      <c r="L28" s="3">
-        <f t="shared" si="1"/>
+      <c r="M28" s="3">
+        <f t="shared" si="5"/>
         <v>3197.1717171717169</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>2001</v>
+      </c>
+      <c r="R28" s="4">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="S28" s="4">
+        <f t="shared" si="3"/>
+        <v>5.8823529411764719E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2002</v>
       </c>
@@ -1812,37 +2268,53 @@
       <c r="D29">
         <v>200000</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
+        <f t="shared" si="4"/>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="F29">
         <v>48000</v>
       </c>
-      <c r="F29" s="8">
+      <c r="G29" s="9">
         <v>880</v>
       </c>
-      <c r="G29" s="8">
+      <c r="H29" s="9">
         <v>1.84</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <f t="shared" si="0"/>
         <v>1619.2</v>
       </c>
-      <c r="I29" s="2">
+      <c r="J29" s="2">
         <f>SUM($B$2:B29)/$B$2</f>
         <v>52.54</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <f>D29/$D$2*100</f>
         <v>800</v>
       </c>
-      <c r="K29" s="3">
-        <f>E29/$E$2*100</f>
+      <c r="L29" s="3">
+        <f>F29/$F$2*100</f>
         <v>480</v>
       </c>
-      <c r="L29" s="3">
-        <f t="shared" si="1"/>
+      <c r="M29" s="3">
+        <f t="shared" si="5"/>
         <v>2336.5079365079368</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>2002</v>
+      </c>
+      <c r="R29" s="4">
+        <f t="shared" si="2"/>
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="S29" s="4">
+        <f t="shared" si="3"/>
+        <v>0.11111111111111116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2003</v>
       </c>
@@ -1855,37 +2327,53 @@
       <c r="D30">
         <v>230000</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="4">
+        <f t="shared" si="4"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="F30">
         <v>50000</v>
       </c>
-      <c r="F30" s="9">
+      <c r="G30" s="10">
         <v>1112</v>
       </c>
-      <c r="G30" s="8">
+      <c r="H30" s="9">
         <v>1.5</v>
       </c>
-      <c r="H30" s="3">
+      <c r="I30" s="3">
         <f t="shared" si="0"/>
         <v>1668</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J30" s="2">
         <f>SUM($B$2:B30)/$B$2</f>
         <v>55.34</v>
       </c>
-      <c r="J30" s="3">
+      <c r="K30" s="3">
         <f>D30/$D$2*100</f>
         <v>919.99999999999989</v>
       </c>
-      <c r="K30" s="3">
-        <f>E30/$E$2*100</f>
+      <c r="L30" s="3">
+        <f>F30/$F$2*100</f>
         <v>500</v>
       </c>
-      <c r="L30" s="3">
-        <f t="shared" si="1"/>
+      <c r="M30" s="3">
+        <f t="shared" si="5"/>
         <v>2406.9264069264068</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>2003</v>
+      </c>
+      <c r="R30" s="4">
+        <f t="shared" si="2"/>
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="S30" s="4">
+        <f t="shared" si="3"/>
+        <v>0.14999999999999991</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2004</v>
       </c>
@@ -1898,37 +2386,53 @@
       <c r="D31">
         <v>250000</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>8.6956521739130377E-2</v>
+      </c>
+      <c r="F31">
         <v>52000</v>
       </c>
-      <c r="F31" s="9">
+      <c r="G31" s="10">
         <v>1212</v>
       </c>
-      <c r="G31" s="8">
+      <c r="H31" s="9">
         <v>1.36</v>
       </c>
-      <c r="H31" s="3">
+      <c r="I31" s="3">
         <f t="shared" si="0"/>
         <v>1648.3200000000002</v>
       </c>
-      <c r="I31" s="2">
+      <c r="J31" s="2">
         <f>SUM($B$2:B31)/$B$2</f>
         <v>58.34</v>
       </c>
-      <c r="J31" s="3">
+      <c r="K31" s="3">
         <f>D31/$D$2*100</f>
         <v>1000</v>
       </c>
-      <c r="K31" s="3">
-        <f>E31/$E$2*100</f>
+      <c r="L31" s="3">
+        <f>F31/$F$2*100</f>
         <v>520</v>
       </c>
-      <c r="L31" s="3">
-        <f t="shared" si="1"/>
+      <c r="M31" s="3">
+        <f t="shared" si="5"/>
         <v>2378.5281385281392</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>2004</v>
+      </c>
+      <c r="R31" s="4">
+        <f t="shared" si="2"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="S31" s="4">
+        <f t="shared" si="3"/>
+        <v>8.6956521739130377E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2005</v>
       </c>
@@ -1941,37 +2445,53 @@
       <c r="D32">
         <v>260000</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="4">
+        <f t="shared" si="4"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="F32">
         <v>55000</v>
       </c>
-      <c r="F32" s="9">
+      <c r="G32" s="10">
         <v>1248</v>
       </c>
-      <c r="G32" s="8">
+      <c r="H32" s="9">
         <v>1.33</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <f t="shared" si="0"/>
         <v>1659.8400000000001</v>
       </c>
-      <c r="I32" s="2">
+      <c r="J32" s="2">
         <f>SUM($B$2:B32)/$B$2</f>
         <v>61.54</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <f>D32/$D$2*100</f>
         <v>1040</v>
       </c>
-      <c r="K32" s="3">
-        <f>E32/$E$2*100</f>
+      <c r="L32" s="3">
+        <f>F32/$F$2*100</f>
         <v>550</v>
       </c>
-      <c r="L32" s="3">
-        <f t="shared" si="1"/>
+      <c r="M32" s="3">
+        <f t="shared" si="5"/>
         <v>2395.1515151515155</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>2005</v>
+      </c>
+      <c r="R32" s="4">
+        <f t="shared" si="2"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="S32" s="4">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2006</v>
       </c>
@@ -1984,37 +2504,53 @@
       <c r="D33">
         <v>300000</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="4">
+        <f t="shared" si="4"/>
+        <v>0.15384615384615374</v>
+      </c>
+      <c r="F33">
         <v>58000</v>
       </c>
-      <c r="F33" s="9">
+      <c r="G33" s="10">
         <v>1418</v>
       </c>
-      <c r="G33" s="8">
+      <c r="H33" s="9">
         <v>1.33</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <f t="shared" si="0"/>
         <v>1885.94</v>
       </c>
-      <c r="I33" s="2">
+      <c r="J33" s="2">
         <f>SUM($B$2:B33)/$B$2</f>
         <v>65.14</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <f>D33/$D$2*100</f>
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
-        <f>E33/$E$2*100</f>
+      <c r="L33" s="3">
+        <f>F33/$F$2*100</f>
         <v>580</v>
       </c>
-      <c r="L33" s="3">
-        <f t="shared" si="1"/>
+      <c r="M33" s="3">
+        <f t="shared" si="5"/>
         <v>2721.4141414141418</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>2006</v>
+      </c>
+      <c r="R33" s="4">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="S33" s="4">
+        <f t="shared" si="3"/>
+        <v>0.15384615384615374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2007</v>
       </c>
@@ -2027,37 +2563,53 @@
       <c r="D34">
         <v>350000</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="4">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="F34">
         <v>61000</v>
       </c>
-      <c r="F34" s="9">
+      <c r="G34" s="10">
         <v>1468</v>
       </c>
-      <c r="G34" s="8">
+      <c r="H34" s="9">
         <v>1.2</v>
       </c>
-      <c r="H34" s="3">
+      <c r="I34" s="3">
         <f t="shared" si="0"/>
         <v>1761.6</v>
       </c>
-      <c r="I34" s="2">
+      <c r="J34" s="2">
         <f>SUM($B$2:B34)/$B$2</f>
         <v>69.14</v>
       </c>
-      <c r="J34" s="3">
+      <c r="K34" s="3">
         <f>D34/$D$2*100</f>
         <v>1400</v>
       </c>
-      <c r="K34" s="3">
-        <f>E34/$E$2*100</f>
+      <c r="L34" s="3">
+        <f>F34/$F$2*100</f>
         <v>610</v>
       </c>
-      <c r="L34" s="3">
-        <f t="shared" si="1"/>
+      <c r="M34" s="3">
+        <f t="shared" si="5"/>
         <v>2541.9913419913419</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>2007</v>
+      </c>
+      <c r="R34" s="4">
+        <f t="shared" si="2"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="S34" s="4">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666674</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2008</v>
       </c>
@@ -2070,37 +2622,53 @@
       <c r="D35">
         <v>380000</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="4">
+        <f t="shared" si="4"/>
+        <v>8.5714285714285632E-2</v>
+      </c>
+      <c r="F35">
         <v>65000</v>
       </c>
-      <c r="F35" s="8">
+      <c r="G35" s="9">
         <v>903</v>
       </c>
-      <c r="G35" s="8">
+      <c r="H35" s="9">
         <v>1.44</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <f t="shared" si="0"/>
         <v>1300.32</v>
       </c>
-      <c r="I35" s="2">
+      <c r="J35" s="2">
         <f>SUM($B$2:B35)/$B$2</f>
         <v>73.739999999999995</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <f>D35/$D$2*100</f>
         <v>1520</v>
       </c>
-      <c r="K35" s="3">
-        <f>E35/$E$2*100</f>
+      <c r="L35" s="3">
+        <f>F35/$F$2*100</f>
         <v>650</v>
       </c>
-      <c r="L35" s="3">
-        <f t="shared" si="1"/>
+      <c r="M35" s="3">
+        <f t="shared" si="5"/>
         <v>1876.3636363636363</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
+      <c r="R35" s="4">
+        <f t="shared" si="2"/>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="S35" s="4">
+        <f t="shared" si="3"/>
+        <v>8.5714285714285632E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2009</v>
       </c>
@@ -2113,37 +2681,53 @@
       <c r="D36">
         <v>400000</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="4">
+        <f t="shared" si="4"/>
+        <v>5.2631578947368363E-2</v>
+      </c>
+      <c r="F36">
         <v>68000</v>
       </c>
-      <c r="F36" s="9">
+      <c r="G36" s="10">
         <v>1115</v>
       </c>
-      <c r="G36" s="8">
+      <c r="H36" s="9">
         <v>1.26</v>
       </c>
-      <c r="H36" s="3">
+      <c r="I36" s="3">
         <f t="shared" si="0"/>
         <v>1404.9</v>
       </c>
-      <c r="I36" s="2">
+      <c r="J36" s="2">
         <f>SUM($B$2:B36)/$B$2</f>
         <v>77.739999999999995</v>
       </c>
-      <c r="J36" s="3">
+      <c r="K36" s="3">
         <f>D36/$D$2*100</f>
         <v>1600</v>
       </c>
-      <c r="K36" s="3">
-        <f>E36/$E$2*100</f>
+      <c r="L36" s="3">
+        <f>F36/$F$2*100</f>
         <v>680</v>
       </c>
-      <c r="L36" s="3">
-        <f t="shared" si="1"/>
+      <c r="M36" s="3">
+        <f t="shared" si="5"/>
         <v>2027.2727272727273</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q36">
+        <f t="shared" si="1"/>
+        <v>2009</v>
+      </c>
+      <c r="R36" s="4">
+        <f t="shared" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="S36" s="4">
+        <f t="shared" si="3"/>
+        <v>5.2631578947368363E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2010</v>
       </c>
@@ -2156,37 +2740,53 @@
       <c r="D37">
         <v>420000</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="4">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="F37">
         <v>71000</v>
       </c>
-      <c r="F37" s="9">
+      <c r="G37" s="10">
         <v>1258</v>
       </c>
-      <c r="G37" s="8">
+      <c r="H37" s="9">
         <v>1.02</v>
       </c>
-      <c r="H37" s="3">
+      <c r="I37" s="3">
         <f t="shared" si="0"/>
         <v>1283.1600000000001</v>
       </c>
-      <c r="I37" s="2">
+      <c r="J37" s="2">
         <f>SUM($B$2:B37)/$B$2</f>
         <v>81.34</v>
       </c>
-      <c r="J37" s="3">
+      <c r="K37" s="3">
         <f>D37/$D$2*100</f>
         <v>1680</v>
       </c>
-      <c r="K37" s="3">
-        <f>E37/$E$2*100</f>
+      <c r="L37" s="3">
+        <f>F37/$F$2*100</f>
         <v>710</v>
       </c>
-      <c r="L37" s="3">
-        <f t="shared" si="1"/>
+      <c r="M37" s="3">
+        <f t="shared" si="5"/>
         <v>1851.6017316017319</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q37">
+        <f t="shared" si="1"/>
+        <v>2010</v>
+      </c>
+      <c r="R37" s="4">
+        <f t="shared" si="2"/>
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="S37" s="4">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2011</v>
       </c>
@@ -2199,37 +2799,53 @@
       <c r="D38">
         <v>430000</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="4">
+        <f t="shared" si="4"/>
+        <v>2.3809523809523725E-2</v>
+      </c>
+      <c r="F38">
         <v>74000</v>
       </c>
-      <c r="F38" s="9">
+      <c r="G38" s="10">
         <v>1258</v>
       </c>
-      <c r="G38" s="8">
+      <c r="H38" s="9">
         <v>1.03</v>
       </c>
-      <c r="H38" s="3">
+      <c r="I38" s="3">
         <f t="shared" si="0"/>
         <v>1295.74</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <f>SUM($B$2:B38)/$B$2</f>
         <v>85.14</v>
       </c>
-      <c r="J38" s="3">
+      <c r="K38" s="3">
         <f>D38/$D$2*100</f>
         <v>1720</v>
       </c>
-      <c r="K38" s="3">
-        <f>E38/$E$2*100</f>
+      <c r="L38" s="3">
+        <f>F38/$F$2*100</f>
         <v>740</v>
       </c>
-      <c r="L38" s="3">
-        <f t="shared" si="1"/>
+      <c r="M38" s="3">
+        <f t="shared" si="5"/>
         <v>1869.7546897546899</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q38">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+      <c r="R38" s="4">
+        <f t="shared" si="2"/>
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="S38" s="4">
+        <f t="shared" si="3"/>
+        <v>2.3809523809523725E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2012</v>
       </c>
@@ -2242,37 +2858,53 @@
       <c r="D39">
         <v>450000</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="4">
+        <f t="shared" si="4"/>
+        <v>4.6511627906976827E-2</v>
+      </c>
+      <c r="F39">
         <v>77000</v>
       </c>
-      <c r="F39" s="9">
+      <c r="G39" s="10">
         <v>1426</v>
       </c>
-      <c r="G39" s="8">
+      <c r="H39" s="9">
         <v>0.97</v>
       </c>
-      <c r="H39" s="3">
+      <c r="I39" s="3">
         <f t="shared" si="0"/>
         <v>1383.22</v>
       </c>
-      <c r="I39" s="2">
+      <c r="J39" s="2">
         <f>SUM($B$2:B39)/$B$2</f>
         <v>89.14</v>
       </c>
-      <c r="J39" s="3">
+      <c r="K39" s="3">
         <f>D39/$D$2*100</f>
         <v>1800</v>
       </c>
-      <c r="K39" s="3">
-        <f>E39/$E$2*100</f>
+      <c r="L39" s="3">
+        <f>F39/$F$2*100</f>
         <v>770</v>
       </c>
-      <c r="L39" s="3">
-        <f t="shared" si="1"/>
+      <c r="M39" s="3">
+        <f t="shared" si="5"/>
         <v>1995.9884559884561</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q39">
+        <f t="shared" si="1"/>
+        <v>2012</v>
+      </c>
+      <c r="R39" s="4">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="S39" s="4">
+        <f t="shared" si="3"/>
+        <v>4.6511627906976827E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2013</v>
       </c>
@@ -2285,37 +2917,53 @@
       <c r="D40">
         <v>480000</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="4">
+        <f t="shared" si="4"/>
+        <v>6.6666666666666652E-2</v>
+      </c>
+      <c r="F40">
         <v>80000</v>
       </c>
-      <c r="F40" s="9">
+      <c r="G40" s="10">
         <v>1848</v>
       </c>
-      <c r="G40" s="8">
+      <c r="H40" s="9">
         <v>1.04</v>
       </c>
-      <c r="H40" s="3">
+      <c r="I40" s="3">
         <f t="shared" si="0"/>
         <v>1921.92</v>
       </c>
-      <c r="I40" s="2">
+      <c r="J40" s="2">
         <f>SUM($B$2:B40)/$B$2</f>
         <v>92.94</v>
       </c>
-      <c r="J40" s="3">
+      <c r="K40" s="3">
         <f>D40/$D$2*100</f>
         <v>1920</v>
       </c>
-      <c r="K40" s="3">
-        <f>E40/$E$2*100</f>
+      <c r="L40" s="3">
+        <f>F40/$F$2*100</f>
         <v>800</v>
       </c>
-      <c r="L40" s="3">
-        <f t="shared" si="1"/>
+      <c r="M40" s="3">
+        <f t="shared" si="5"/>
         <v>2773.3333333333335</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q40">
+        <f t="shared" si="1"/>
+        <v>2013</v>
+      </c>
+      <c r="R40" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S40" s="4">
+        <f t="shared" si="3"/>
+        <v>6.6666666666666652E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2014</v>
       </c>
@@ -2328,37 +2976,53 @@
       <c r="D41">
         <v>510000</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="4">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F41">
         <v>83000</v>
       </c>
-      <c r="F41" s="9">
+      <c r="G41" s="10">
         <v>2059</v>
       </c>
-      <c r="G41" s="8">
+      <c r="H41" s="9">
         <v>1.1100000000000001</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <f t="shared" si="0"/>
         <v>2285.4900000000002</v>
       </c>
-      <c r="I41" s="2">
+      <c r="J41" s="2">
         <f>SUM($B$2:B41)/$B$2</f>
         <v>96.54</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <f>D41/$D$2*100</f>
         <v>2039.9999999999998</v>
       </c>
-      <c r="K41" s="3">
-        <f>E41/$E$2*100</f>
+      <c r="L41" s="3">
+        <f>F41/$F$2*100</f>
         <v>830.00000000000011</v>
       </c>
-      <c r="L41" s="3">
-        <f t="shared" si="1"/>
+      <c r="M41" s="3">
+        <f t="shared" si="5"/>
         <v>3297.9653679653688</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q41">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="R41" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S41" s="4">
+        <f t="shared" si="3"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2015</v>
       </c>
@@ -2371,37 +3035,53 @@
       <c r="D42">
         <v>550000</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="4">
+        <f t="shared" si="4"/>
+        <v>7.8431372549019551E-2</v>
+      </c>
+      <c r="F42">
         <v>85000</v>
       </c>
-      <c r="F42" s="9">
+      <c r="G42" s="10">
         <v>2044</v>
       </c>
-      <c r="G42" s="8">
+      <c r="H42" s="9">
         <v>1.33</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <f t="shared" si="0"/>
         <v>2718.52</v>
       </c>
-      <c r="I42" s="2">
+      <c r="J42" s="2">
         <f>SUM($B$2:B42)/$B$2</f>
         <v>100.12</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <f>D42/$D$2*100</f>
         <v>2200</v>
       </c>
-      <c r="K42" s="3">
-        <f>E42/$E$2*100</f>
+      <c r="L42" s="3">
+        <f>F42/$F$2*100</f>
         <v>850</v>
       </c>
-      <c r="L42" s="3">
-        <f t="shared" si="1"/>
+      <c r="M42" s="3">
+        <f t="shared" si="5"/>
         <v>3922.8282828282827</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q42">
+        <f t="shared" si="1"/>
+        <v>2015</v>
+      </c>
+      <c r="R42" s="4">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="S42" s="4">
+        <f t="shared" si="3"/>
+        <v>7.8431372549019551E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2016</v>
       </c>
@@ -2414,37 +3094,53 @@
       <c r="D43">
         <v>580000</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="4">
+        <f t="shared" si="4"/>
+        <v>5.4545454545454453E-2</v>
+      </c>
+      <c r="F43">
         <v>87000</v>
       </c>
-      <c r="F43" s="9">
+      <c r="G43" s="10">
         <v>2239</v>
       </c>
-      <c r="G43" s="8">
+      <c r="H43" s="9">
         <v>1.35</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <f t="shared" si="0"/>
         <v>3022.65</v>
       </c>
-      <c r="I43" s="2">
+      <c r="J43" s="2">
         <f>SUM($B$2:B43)/$B$2</f>
         <v>103.92</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <f>D43/$D$2*100</f>
         <v>2320</v>
       </c>
-      <c r="K43" s="3">
-        <f>E43/$E$2*100</f>
+      <c r="L43" s="3">
+        <f>F43/$F$2*100</f>
         <v>869.99999999999989</v>
       </c>
-      <c r="L43" s="3">
-        <f t="shared" si="1"/>
+      <c r="M43" s="3">
+        <f t="shared" si="5"/>
         <v>4361.6883116883128</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q43">
+        <f t="shared" si="1"/>
+        <v>2016</v>
+      </c>
+      <c r="R43" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S43" s="4">
+        <f t="shared" si="3"/>
+        <v>5.4545454545454453E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2017</v>
       </c>
@@ -2457,37 +3153,53 @@
       <c r="D44">
         <v>620000</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="4">
+        <f t="shared" si="4"/>
+        <v>6.8965517241379226E-2</v>
+      </c>
+      <c r="F44">
         <v>89000</v>
       </c>
-      <c r="F44" s="9">
+      <c r="G44" s="10">
         <v>2674</v>
       </c>
-      <c r="G44" s="8">
+      <c r="H44" s="9">
         <v>1.3</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <f t="shared" si="0"/>
         <v>3476.2000000000003</v>
       </c>
-      <c r="I44" s="2">
+      <c r="J44" s="2">
         <f>SUM($B$2:B44)/$B$2</f>
         <v>107.92</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <f>D44/$D$2*100</f>
         <v>2480</v>
       </c>
-      <c r="K44" s="3">
-        <f>E44/$E$2*100</f>
+      <c r="L44" s="3">
+        <f>F44/$F$2*100</f>
         <v>890</v>
       </c>
-      <c r="L44" s="3">
-        <f t="shared" si="1"/>
+      <c r="M44" s="3">
+        <f t="shared" si="5"/>
         <v>5016.1616161616166</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q44">
+        <f t="shared" si="1"/>
+        <v>2017</v>
+      </c>
+      <c r="R44" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S44" s="4">
+        <f t="shared" si="3"/>
+        <v>6.8965517241379226E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2018</v>
       </c>
@@ -2500,37 +3212,53 @@
       <c r="D45">
         <v>610000</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="4">
+        <f t="shared" si="4"/>
+        <v>-1.6129032258064502E-2</v>
+      </c>
+      <c r="F45">
         <v>91000</v>
       </c>
-      <c r="F45" s="9">
+      <c r="G45" s="10">
         <v>2507</v>
       </c>
-      <c r="G45" s="8">
+      <c r="H45" s="9">
         <v>1.34</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <f t="shared" si="0"/>
         <v>3359.38</v>
       </c>
-      <c r="I45" s="2">
+      <c r="J45" s="2">
         <f>SUM($B$2:B45)/$B$2</f>
         <v>112.12</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <f>D45/$D$2*100</f>
         <v>2440</v>
       </c>
-      <c r="K45" s="3">
-        <f>E45/$E$2*100</f>
+      <c r="L45" s="3">
+        <f>F45/$F$2*100</f>
         <v>910</v>
       </c>
-      <c r="L45" s="3">
-        <f t="shared" si="1"/>
+      <c r="M45" s="3">
+        <f t="shared" si="5"/>
         <v>4847.5901875901882</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q45">
+        <f t="shared" si="1"/>
+        <v>2018</v>
+      </c>
+      <c r="R45" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S45" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.6129032258064502E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2019</v>
       </c>
@@ -2543,37 +3271,53 @@
       <c r="D46">
         <v>600000</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="4">
+        <f t="shared" si="4"/>
+        <v>-1.6393442622950838E-2</v>
+      </c>
+      <c r="F46">
         <v>93000</v>
       </c>
-      <c r="F46" s="9">
+      <c r="G46" s="10">
         <v>3231</v>
       </c>
-      <c r="G46" s="8">
+      <c r="H46" s="9">
         <v>1.44</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <f t="shared" si="0"/>
         <v>4652.6399999999994</v>
       </c>
-      <c r="I46" s="2">
+      <c r="J46" s="2">
         <f>SUM($B$2:B46)/$B$2</f>
         <v>116</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <f>D46/$D$2*100</f>
         <v>2400</v>
       </c>
-      <c r="K46" s="3">
-        <f>E46/$E$2*100</f>
+      <c r="L46" s="3">
+        <f>F46/$F$2*100</f>
         <v>930.00000000000011</v>
       </c>
-      <c r="L46" s="3">
-        <f t="shared" si="1"/>
+      <c r="M46" s="3">
+        <f t="shared" si="5"/>
         <v>6713.7662337662332</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q46">
+        <f t="shared" si="1"/>
+        <v>2019</v>
+      </c>
+      <c r="R46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="S46" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.6393442622950838E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2020</v>
       </c>
@@ -2586,37 +3330,53 @@
       <c r="D47">
         <v>650000</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="4">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="F47">
         <v>95000</v>
       </c>
-      <c r="F47" s="9">
+      <c r="G47" s="10">
         <v>3756</v>
       </c>
-      <c r="G47" s="8">
+      <c r="H47" s="9">
         <v>1.45</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <f t="shared" si="0"/>
         <v>5446.2</v>
       </c>
-      <c r="I47" s="2">
+      <c r="J47" s="2">
         <f>SUM($B$2:B47)/$B$2</f>
         <v>114.3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <f>D47/$D$2*100</f>
         <v>2600</v>
       </c>
-      <c r="K47" s="3">
-        <f>E47/$E$2*100</f>
+      <c r="L47" s="3">
+        <f>F47/$F$2*100</f>
         <v>950</v>
       </c>
-      <c r="L47" s="3">
-        <f t="shared" si="1"/>
+      <c r="M47" s="3">
+        <f t="shared" si="5"/>
         <v>7858.8744588744594</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q47">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="R47" s="4">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S47" s="4">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>2021</v>
       </c>
@@ -2629,37 +3389,53 @@
       <c r="D48">
         <v>750000</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="4">
+        <f t="shared" si="4"/>
+        <v>0.15384615384615374</v>
+      </c>
+      <c r="F48">
         <v>97000</v>
       </c>
-      <c r="F48" s="9">
+      <c r="G48" s="10">
         <v>4766</v>
       </c>
-      <c r="G48" s="8">
+      <c r="H48" s="9">
         <v>1.33</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <f t="shared" si="0"/>
         <v>6338.7800000000007</v>
       </c>
-      <c r="I48" s="2">
+      <c r="J48" s="2">
         <f>SUM($B$2:B48)/$B$2</f>
         <v>117.72</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <f>D48/$D$2*100</f>
         <v>3000</v>
       </c>
-      <c r="K48" s="3">
-        <f>E48/$E$2*100</f>
+      <c r="L48" s="3">
+        <f>F48/$F$2*100</f>
         <v>969.99999999999989</v>
       </c>
-      <c r="L48" s="3">
-        <f t="shared" si="1"/>
+      <c r="M48" s="3">
+        <f t="shared" si="5"/>
         <v>9146.8686868686891</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q48">
+        <f t="shared" si="1"/>
+        <v>2021</v>
+      </c>
+      <c r="R48" s="4">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S48" s="4">
+        <f t="shared" si="3"/>
+        <v>0.15384615384615374</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2022</v>
       </c>
@@ -2672,37 +3448,53 @@
       <c r="D49">
         <v>800000</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="4">
+        <f t="shared" si="4"/>
+        <v>6.6666666666666652E-2</v>
+      </c>
+      <c r="F49">
         <v>99000</v>
       </c>
-      <c r="F49" s="9">
+      <c r="G49" s="10">
         <v>3839</v>
       </c>
-      <c r="G49" s="8">
+      <c r="H49" s="9">
         <v>1.45</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <f t="shared" si="0"/>
         <v>5566.55</v>
       </c>
-      <c r="I49" s="2">
+      <c r="J49" s="2">
         <f>SUM($B$2:B49)/$B$2</f>
         <v>128.44</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <f>D49/$D$2*100</f>
         <v>3200</v>
       </c>
-      <c r="K49" s="3">
-        <f>E49/$E$2*100</f>
+      <c r="L49" s="3">
+        <f>F49/$F$2*100</f>
         <v>990</v>
       </c>
-      <c r="L49" s="3">
-        <f t="shared" si="1"/>
+      <c r="M49" s="3">
+        <f t="shared" si="5"/>
         <v>8032.5396825396838</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q49">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+      <c r="R49" s="4">
+        <f t="shared" si="2"/>
+        <v>2.35E-2</v>
+      </c>
+      <c r="S49" s="4">
+        <f t="shared" si="3"/>
+        <v>6.6666666666666652E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>2023</v>
       </c>
@@ -2715,37 +3507,53 @@
       <c r="D50">
         <v>850000</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="4">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F50">
         <v>100000</v>
       </c>
-      <c r="F50" s="9">
+      <c r="G50" s="10">
         <v>4770</v>
       </c>
-      <c r="G50" s="8">
+      <c r="H50" s="9">
         <v>1.5</v>
       </c>
-      <c r="H50" s="3">
+      <c r="I50" s="3">
         <f t="shared" si="0"/>
         <v>7155</v>
       </c>
-      <c r="I50" s="2">
+      <c r="J50" s="2">
         <f>SUM($B$2:B50)/$B$2</f>
         <v>137.36000000000001</v>
       </c>
-      <c r="J50" s="3">
+      <c r="K50" s="3">
         <f>D50/$D$2*100</f>
         <v>3400</v>
       </c>
-      <c r="K50" s="3">
-        <f>E50/$E$2*100</f>
+      <c r="L50" s="3">
+        <f>F50/$F$2*100</f>
         <v>1000</v>
       </c>
-      <c r="L50" s="3">
-        <f t="shared" si="1"/>
+      <c r="M50" s="3">
+        <f t="shared" si="5"/>
         <v>10324.675324675325</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q50">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="R50" s="4">
+        <f t="shared" si="2"/>
+        <v>4.0999999999999995E-2</v>
+      </c>
+      <c r="S50" s="4">
+        <f t="shared" si="3"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>2024</v>
       </c>
@@ -2758,37 +3566,53 @@
       <c r="D51">
         <v>918000</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="F51">
         <v>103000</v>
       </c>
-      <c r="F51" s="9">
+      <c r="G51" s="10">
         <v>6051</v>
       </c>
-      <c r="G51" s="8">
+      <c r="H51" s="9">
         <v>1.5</v>
       </c>
-      <c r="H51" s="3">
+      <c r="I51" s="3">
         <f t="shared" si="0"/>
         <v>9076.5</v>
       </c>
-      <c r="I51" s="2">
+      <c r="J51" s="2">
         <f>SUM($B$2:B51)/$B$2</f>
         <v>146.28</v>
       </c>
-      <c r="J51" s="3">
+      <c r="K51" s="3">
         <f>D51/$D$2*100</f>
         <v>3672</v>
       </c>
-      <c r="K51" s="3">
-        <f>E51/$E$2*100</f>
+      <c r="L51" s="3">
+        <f>F51/$F$2*100</f>
         <v>1030</v>
       </c>
-      <c r="L51" s="3">
-        <f t="shared" si="1"/>
+      <c r="M51" s="3">
+        <f t="shared" si="5"/>
         <v>13097.402597402597</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q51">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+      <c r="R51" s="4">
+        <f t="shared" si="2"/>
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="S51" s="4">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>2025</v>
       </c>
@@ -2801,34 +3625,50 @@
       <c r="D52">
         <v>1199000</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="4">
+        <f t="shared" si="4"/>
+        <v>0.3061002178649237</v>
+      </c>
+      <c r="F52">
         <v>105000</v>
       </c>
-      <c r="F52" s="9">
+      <c r="G52" s="10">
         <v>6260</v>
       </c>
-      <c r="G52" s="8">
+      <c r="H52" s="9">
         <v>1.48</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <f t="shared" si="0"/>
         <v>9264.7999999999993</v>
       </c>
-      <c r="I52" s="2">
+      <c r="J52" s="2">
         <f>SUM($B$2:B52)/$B$2</f>
         <v>146.28</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <f>D52/$D$2*100</f>
         <v>4796</v>
       </c>
-      <c r="K52" s="3">
-        <f>E52/$E$2*100</f>
+      <c r="L52" s="3">
+        <f>F52/$F$2*100</f>
         <v>1050</v>
       </c>
-      <c r="L52" s="3">
-        <f t="shared" si="1"/>
+      <c r="M52" s="3">
+        <f t="shared" si="5"/>
         <v>13369.119769119769</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+      <c r="R52" s="4">
+        <f t="shared" si="2"/>
+        <v>3.85E-2</v>
+      </c>
+      <c r="S52" s="4">
+        <f t="shared" si="3"/>
+        <v>0.3061002178649237</v>
       </c>
     </row>
   </sheetData>
@@ -2847,27 +3687,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>1975</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="9">
         <v>90</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="9">
         <v>0.77</v>
       </c>
       <c r="D2">
@@ -2876,13 +3716,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>1976</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>107</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>0.82</v>
       </c>
       <c r="D3">
@@ -2891,13 +3731,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>1977</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>95</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>0.9</v>
       </c>
       <c r="D4">
@@ -2906,13 +3746,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>1978</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>97</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>0.87</v>
       </c>
       <c r="D5">
@@ -2921,13 +3761,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>1979</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>108</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>0.89</v>
       </c>
       <c r="D6">
@@ -2936,13 +3776,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
         <v>1980</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>136</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>0.88</v>
       </c>
       <c r="D7">
@@ -2951,13 +3791,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="8">
         <v>1981</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>122</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>0.87</v>
       </c>
       <c r="D8">
@@ -2966,13 +3806,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="8">
         <v>1982</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>140</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>0.99</v>
       </c>
       <c r="D9">
@@ -2981,13 +3821,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="8">
         <v>1983</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>165</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>1.1100000000000001</v>
       </c>
       <c r="D10">
@@ -2996,13 +3836,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="8">
         <v>1984</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>167</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="9">
         <v>1.19</v>
       </c>
       <c r="D11">
@@ -3011,13 +3851,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>1985</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>211</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
         <v>1.43</v>
       </c>
       <c r="D12">
@@ -3026,13 +3866,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="A13" s="8">
         <v>1986</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <v>243</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="9">
         <v>1.49</v>
       </c>
       <c r="D13">
@@ -3041,13 +3881,13 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="8">
         <v>1987</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>247</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <v>1.43</v>
       </c>
       <c r="D14">
@@ -3056,13 +3896,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
         <v>1988</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="9">
         <v>277</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="9">
         <v>1.26</v>
       </c>
       <c r="D15">
@@ -3071,13 +3911,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="A16" s="8">
         <v>1989</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="9">
         <v>353</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>1.27</v>
       </c>
       <c r="D16">
@@ -3086,13 +3926,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="8">
         <v>1990</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="9">
         <v>330</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="9">
         <v>1.28</v>
       </c>
       <c r="D17">
@@ -3101,13 +3941,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="A18" s="8">
         <v>1991</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="9">
         <v>417</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="9">
         <v>1.3</v>
       </c>
       <c r="D18">
@@ -3116,13 +3956,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="A19" s="8">
         <v>1992</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="9">
         <v>436</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="9">
         <v>1.36</v>
       </c>
       <c r="D19">
@@ -3131,13 +3971,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="8">
         <v>1993</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="9">
         <v>466</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="9">
         <v>1.47</v>
       </c>
       <c r="D20">
@@ -3146,13 +3986,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="A21" s="8">
         <v>1994</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="9">
         <v>459</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="9">
         <v>1.29</v>
       </c>
       <c r="D21">
@@ -3161,13 +4001,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+      <c r="A22" s="8">
         <v>1995</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="9">
         <v>615</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="9">
         <v>1.35</v>
       </c>
       <c r="D22">
@@ -3176,13 +4016,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+      <c r="A23" s="8">
         <v>1996</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="9">
         <v>741</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="9">
         <v>1.26</v>
       </c>
       <c r="D23">
@@ -3191,13 +4031,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+      <c r="A24" s="8">
         <v>1997</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="9">
         <v>970</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="9">
         <v>1.34</v>
       </c>
       <c r="D24">
@@ -3206,13 +4046,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+      <c r="A25" s="8">
         <v>1998</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="10">
         <v>1229</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="9">
         <v>1.59</v>
       </c>
       <c r="D25">
@@ -3221,13 +4061,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+      <c r="A26" s="8">
         <v>1999</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="10">
         <v>1469</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="9">
         <v>1.55</v>
       </c>
       <c r="D26">
@@ -3236,13 +4076,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+      <c r="A27" s="8">
         <v>2000</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="10">
         <v>1320</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="9">
         <v>1.72</v>
       </c>
       <c r="D27">
@@ -3251,13 +4091,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+      <c r="A28" s="8">
         <v>2001</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="10">
         <v>1148</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="9">
         <v>1.93</v>
       </c>
       <c r="D28">
@@ -3266,13 +4106,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+      <c r="A29" s="8">
         <v>2002</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="9">
         <v>880</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="9">
         <v>1.84</v>
       </c>
       <c r="D29">
@@ -3281,13 +4121,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+      <c r="A30" s="8">
         <v>2003</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="10">
         <v>1112</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="9">
         <v>1.5</v>
       </c>
       <c r="D30">
@@ -3296,13 +4136,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+      <c r="A31" s="8">
         <v>2004</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="10">
         <v>1212</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="9">
         <v>1.36</v>
       </c>
       <c r="D31">
@@ -3311,13 +4151,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+      <c r="A32" s="8">
         <v>2005</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="10">
         <v>1248</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="9">
         <v>1.33</v>
       </c>
       <c r="D32">
@@ -3326,13 +4166,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+      <c r="A33" s="8">
         <v>2006</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="10">
         <v>1418</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="9">
         <v>1.33</v>
       </c>
       <c r="D33">
@@ -3341,13 +4181,13 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
+      <c r="A34" s="8">
         <v>2007</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="10">
         <v>1468</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="9">
         <v>1.2</v>
       </c>
       <c r="D34">
@@ -3356,13 +4196,13 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+      <c r="A35" s="8">
         <v>2008</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="9">
         <v>903</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="9">
         <v>1.44</v>
       </c>
       <c r="D35">
@@ -3371,13 +4211,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+      <c r="A36" s="8">
         <v>2009</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="10">
         <v>1115</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="9">
         <v>1.26</v>
       </c>
       <c r="D36">
@@ -3386,13 +4226,13 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+      <c r="A37" s="8">
         <v>2010</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="10">
         <v>1258</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="9">
         <v>1.02</v>
       </c>
       <c r="D37">
@@ -3401,13 +4241,13 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+      <c r="A38" s="8">
         <v>2011</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="10">
         <v>1258</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="9">
         <v>1.03</v>
       </c>
       <c r="D38">
@@ -3416,13 +4256,13 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+      <c r="A39" s="8">
         <v>2012</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="10">
         <v>1426</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="9">
         <v>0.97</v>
       </c>
       <c r="D39">
@@ -3431,13 +4271,13 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+      <c r="A40" s="8">
         <v>2013</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="10">
         <v>1848</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="9">
         <v>1.04</v>
       </c>
       <c r="D40">
@@ -3446,13 +4286,13 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+      <c r="A41" s="8">
         <v>2014</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="10">
         <v>2059</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="9">
         <v>1.1100000000000001</v>
       </c>
       <c r="D41">
@@ -3461,13 +4301,13 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+      <c r="A42" s="8">
         <v>2015</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="10">
         <v>2044</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="9">
         <v>1.33</v>
       </c>
       <c r="D42">
@@ -3476,13 +4316,13 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
+      <c r="A43" s="8">
         <v>2016</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="10">
         <v>2239</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="9">
         <v>1.35</v>
       </c>
       <c r="D43">
@@ -3491,13 +4331,13 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+      <c r="A44" s="8">
         <v>2017</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="10">
         <v>2674</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="9">
         <v>1.3</v>
       </c>
       <c r="D44">
@@ -3506,13 +4346,13 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
+      <c r="A45" s="8">
         <v>2018</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="10">
         <v>2507</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="9">
         <v>1.34</v>
       </c>
       <c r="D45">
@@ -3521,13 +4361,13 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
+      <c r="A46" s="8">
         <v>2019</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="10">
         <v>3231</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="9">
         <v>1.44</v>
       </c>
       <c r="D46">
@@ -3536,13 +4376,13 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
+      <c r="A47" s="8">
         <v>2020</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="10">
         <v>3756</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="9">
         <v>1.45</v>
       </c>
       <c r="D47">
@@ -3551,13 +4391,13 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
+      <c r="A48" s="8">
         <v>2021</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="10">
         <v>4766</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="9">
         <v>1.33</v>
       </c>
       <c r="D48">
@@ -3566,13 +4406,13 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
+      <c r="A49" s="8">
         <v>2022</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="10">
         <v>3839</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="9">
         <v>1.45</v>
       </c>
       <c r="D49">
@@ -3581,13 +4421,13 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
+      <c r="A50" s="8">
         <v>2023</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="10">
         <v>4770</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="9">
         <v>1.5</v>
       </c>
       <c r="D50">
@@ -3596,13 +4436,13 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
+      <c r="A51" s="8">
         <v>2024</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="10">
         <v>6051</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="9">
         <v>1.5</v>
       </c>
       <c r="D51">
@@ -3611,13 +4451,13 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
+      <c r="A52" s="8">
         <v>2025</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="10">
         <v>6260</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="9">
         <v>1.48</v>
       </c>
       <c r="D52">

--- a/blog/data for charts.xlsx
+++ b/blog/data for charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Luis\Business folder\tepuy_site\blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563ABB24-05F0-4F64-A255-56D321A35B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568B8981-CE44-4B62-B9A4-44BFA49C8D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B159E2E-8423-4A54-869A-CB7D220BCCE4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Year</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Median House Price growth (%)(AUD)</t>
   </si>
   <si>
-    <t>Fig 1, Annual Housing Price Growth vs. Wage Growth</t>
-  </si>
-  <si>
     <t>Average Annual Wage (AUD) base 1</t>
   </si>
   <si>
@@ -93,10 +90,13 @@
     <t>Average Annual Wage Growth (%)</t>
   </si>
   <si>
-    <t>Fig 2, Annual Housing Price Growth vs. Wage Growth indexed to Base 1</t>
+    <t>Median House Annual Price Growth (%)</t>
   </si>
   <si>
-    <t>Median House Annual Price Growth (%)</t>
+    <t>Fig 2,  Indexed Median House Price vs. Wage Growth since 1975. Source: ABS.</t>
+  </si>
+  <si>
+    <t>Figure 1: Annual Growth Rates for Housing and Wages in Australia (1990–2024). Source: ABS.</t>
   </si>
 </sst>
 </file>
@@ -627,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA479CF-F01B-46D5-BB9B-5EE2BF069812}">
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:P6"/>
+      <selection activeCell="O1" sqref="O1:Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,20 +645,22 @@
     <col min="10" max="10" width="15" style="3" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="17"/>
-    <col min="16" max="16" width="9.140625" style="18"/>
-    <col min="17" max="18" width="9.140625" style="2"/>
+    <col min="15" max="15" width="12.5703125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="17"/>
+    <col min="17" max="17" width="9.140625" style="18"/>
+    <col min="18" max="18" width="12.5703125" style="3" customWidth="1"/>
+    <col min="19" max="20" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O1" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="5" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="5" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -678,7 +680,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>11</v>
@@ -701,33 +703,39 @@
       <c r="N2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="19" t="str">
+      <c r="O2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="19" t="str">
         <f>+G2</f>
         <v>Average Annual Wage Growth (%)</v>
       </c>
-      <c r="P2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="5" t="str">
+      <c r="V2" s="5" t="str">
         <f>+A2</f>
         <v>Year</v>
       </c>
-      <c r="U2" s="5" t="str">
+      <c r="W2" s="5" t="str">
         <f>+C2</f>
         <v>Cash Rate (%)</v>
       </c>
-      <c r="V2" s="16" t="str">
+      <c r="X2" s="16" t="str">
         <f>+E2</f>
         <v>Median House Price growth (%)(AUD)</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1975</v>
       </c>
@@ -769,28 +777,34 @@
       <c r="N3" s="3">
         <v>100</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="2">
+      <c r="O3" s="3">
+        <v>1975</v>
+      </c>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="3">
+        <v>1975</v>
+      </c>
+      <c r="S3" s="2">
         <v>1</v>
       </c>
-      <c r="R3" s="2">
+      <c r="T3" s="2">
         <f>+L3/100</f>
         <v>1</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <f>+A3</f>
         <v>1975</v>
       </c>
-      <c r="U3" s="4">
+      <c r="W3" s="4">
         <f>+C3/100</f>
         <v>0.08</v>
       </c>
-      <c r="V3" s="4">
+      <c r="X3" s="4">
         <f>+E3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1976</v>
       </c>
@@ -840,36 +854,42 @@
         <f>J4/$J$3*100</f>
         <v>126.60894660894661</v>
       </c>
-      <c r="O4" s="17">
-        <f t="shared" ref="O4:O53" si="3">+G4</f>
+      <c r="O4" s="3">
+        <v>1976</v>
+      </c>
+      <c r="P4" s="17">
+        <f t="shared" ref="P4:P53" si="3">+G4</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="P4" s="17">
+      <c r="Q4" s="17">
         <f>+D4/D3-1</f>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="3">
+        <v>1976</v>
+      </c>
+      <c r="S4" s="2">
         <f>F4/$F$3*1</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="R4" s="2">
-        <f t="shared" ref="R4:R53" si="4">+L4/100</f>
+      <c r="T4" s="2">
+        <f t="shared" ref="T4:T53" si="4">+L4/100</f>
         <v>1.08</v>
       </c>
-      <c r="T4">
-        <f t="shared" ref="T4:T53" si="5">+A4</f>
+      <c r="V4">
+        <f t="shared" ref="V4:V53" si="5">+A4</f>
         <v>1976</v>
       </c>
-      <c r="U4" s="4">
-        <f t="shared" ref="U4:U53" si="6">+C4/100</f>
+      <c r="W4" s="4">
+        <f t="shared" ref="W4:W53" si="6">+C4/100</f>
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="V4" s="4">
-        <f t="shared" ref="V4:V53" si="7">+E4</f>
+      <c r="X4" s="4">
+        <f t="shared" ref="X4:X53" si="7">+E4</f>
         <v>8.0000000000000071E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1977</v>
       </c>
@@ -919,36 +939,42 @@
         <f t="shared" ref="N5:N53" si="10">J5/$J$3*100</f>
         <v>123.37662337662339</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="3">
+        <v>1977</v>
+      </c>
+      <c r="P5" s="17">
         <f t="shared" si="3"/>
         <v>9.0909090909090828E-2</v>
       </c>
-      <c r="P5" s="17">
-        <f t="shared" ref="P5:P53" si="11">+D5/D4-1</f>
+      <c r="Q5" s="17">
+        <f t="shared" ref="Q5:Q53" si="11">+D5/D4-1</f>
         <v>7.4074074074074181E-2</v>
       </c>
-      <c r="Q5" s="2">
-        <f t="shared" ref="Q5:Q53" si="12">F5/$F$3*1</f>
+      <c r="R5" s="3">
+        <v>1977</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" ref="S5:S53" si="12">F5/$F$3*1</f>
         <v>1.2</v>
       </c>
-      <c r="R5" s="2">
+      <c r="T5" s="2">
         <f t="shared" si="4"/>
         <v>1.1599999999999999</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <f t="shared" si="5"/>
         <v>1977</v>
       </c>
-      <c r="U5" s="4">
+      <c r="W5" s="4">
         <f t="shared" si="6"/>
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="V5" s="4">
+      <c r="X5" s="4">
         <f t="shared" si="7"/>
         <v>7.4074074074074181E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1978</v>
       </c>
@@ -998,36 +1024,42 @@
         <f t="shared" si="10"/>
         <v>121.77489177489178</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="3">
+        <v>1978</v>
+      </c>
+      <c r="P6" s="17">
         <f t="shared" si="3"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="P6" s="17">
+      <c r="Q6" s="17">
         <f t="shared" si="11"/>
         <v>0.10344827586206895</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="3">
+        <v>1978</v>
+      </c>
+      <c r="S6" s="2">
         <f t="shared" si="12"/>
         <v>1.3</v>
       </c>
-      <c r="R6" s="2">
+      <c r="T6" s="2">
         <f t="shared" si="4"/>
         <v>1.28</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <f t="shared" si="5"/>
         <v>1978</v>
       </c>
-      <c r="U6" s="4">
+      <c r="W6" s="4">
         <f t="shared" si="6"/>
         <v>0.08</v>
       </c>
-      <c r="V6" s="4">
+      <c r="X6" s="4">
         <f t="shared" si="7"/>
         <v>0.10344827586206895</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1979</v>
       </c>
@@ -1077,36 +1109,42 @@
         <f t="shared" si="10"/>
         <v>138.7012987012987</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="3">
+        <v>1979</v>
+      </c>
+      <c r="P7" s="17">
         <f t="shared" si="3"/>
         <v>7.6923076923076872E-2</v>
       </c>
-      <c r="P7" s="17">
+      <c r="Q7" s="17">
         <f t="shared" si="11"/>
         <v>0.125</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="3">
+        <v>1979</v>
+      </c>
+      <c r="S7" s="2">
         <f t="shared" si="12"/>
         <v>1.4</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <f t="shared" si="4"/>
         <v>1.44</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <f t="shared" si="5"/>
         <v>1979</v>
       </c>
-      <c r="U7" s="4">
+      <c r="W7" s="4">
         <f t="shared" si="6"/>
         <v>0.09</v>
       </c>
-      <c r="V7" s="4">
+      <c r="X7" s="4">
         <f t="shared" si="7"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1980</v>
       </c>
@@ -1156,36 +1194,42 @@
         <f t="shared" si="10"/>
         <v>172.69841269841271</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="3">
+        <v>1980</v>
+      </c>
+      <c r="P8" s="17">
         <f t="shared" si="3"/>
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="P8" s="17">
+      <c r="Q8" s="17">
         <f t="shared" si="11"/>
         <v>0.25</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="R8" s="3">
+        <v>1980</v>
+      </c>
+      <c r="S8" s="2">
         <f t="shared" si="12"/>
         <v>1.5</v>
       </c>
-      <c r="R8" s="2">
+      <c r="T8" s="2">
         <f t="shared" si="4"/>
         <v>1.8</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <f t="shared" si="5"/>
         <v>1980</v>
       </c>
-      <c r="U8" s="4">
+      <c r="W8" s="4">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="V8" s="4">
+      <c r="X8" s="4">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1981</v>
       </c>
@@ -1235,36 +1279,42 @@
         <f t="shared" si="10"/>
         <v>153.16017316017317</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="3">
+        <v>1981</v>
+      </c>
+      <c r="P9" s="17">
         <f t="shared" si="3"/>
         <v>0.1333333333333333</v>
       </c>
-      <c r="P9" s="17">
+      <c r="Q9" s="17">
         <f t="shared" si="11"/>
         <v>0.11111111111111116</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="R9" s="3">
+        <v>1981</v>
+      </c>
+      <c r="S9" s="2">
         <f t="shared" si="12"/>
         <v>1.7</v>
       </c>
-      <c r="R9" s="2">
+      <c r="T9" s="2">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <f t="shared" si="5"/>
         <v>1981</v>
       </c>
-      <c r="U9" s="4">
+      <c r="W9" s="4">
         <f t="shared" si="6"/>
         <v>0.115</v>
       </c>
-      <c r="V9" s="4">
+      <c r="X9" s="4">
         <f t="shared" si="7"/>
         <v>0.11111111111111116</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1982</v>
       </c>
@@ -1314,36 +1364,42 @@
         <f t="shared" si="10"/>
         <v>200</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="3">
+        <v>1982</v>
+      </c>
+      <c r="P10" s="17">
         <f t="shared" si="3"/>
         <v>5.8823529411764719E-2</v>
       </c>
-      <c r="P10" s="17">
+      <c r="Q10" s="17">
         <f t="shared" si="11"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="3">
+        <v>1982</v>
+      </c>
+      <c r="S10" s="2">
         <f t="shared" si="12"/>
         <v>1.8</v>
       </c>
-      <c r="R10" s="2">
+      <c r="T10" s="2">
         <f t="shared" si="4"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <f t="shared" si="5"/>
         <v>1982</v>
       </c>
-      <c r="U10" s="4">
+      <c r="W10" s="4">
         <f t="shared" si="6"/>
         <v>0.13500000000000001</v>
       </c>
-      <c r="V10" s="4">
+      <c r="X10" s="4">
         <f t="shared" si="7"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1983</v>
       </c>
@@ -1393,36 +1449,42 @@
         <f t="shared" si="10"/>
         <v>264.28571428571433</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="3">
+        <v>1983</v>
+      </c>
+      <c r="P11" s="17">
         <f t="shared" si="3"/>
         <v>0.11111111111111116</v>
       </c>
-      <c r="P11" s="17">
+      <c r="Q11" s="17">
         <f t="shared" si="11"/>
         <v>9.0909090909090828E-2</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="R11" s="3">
+        <v>1983</v>
+      </c>
+      <c r="S11" s="2">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="R11" s="2">
+      <c r="T11" s="2">
         <f t="shared" si="4"/>
         <v>2.4</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <f t="shared" si="5"/>
         <v>1983</v>
       </c>
-      <c r="U11" s="4">
+      <c r="W11" s="4">
         <f t="shared" si="6"/>
         <v>0.11</v>
       </c>
-      <c r="V11" s="4">
+      <c r="X11" s="4">
         <f t="shared" si="7"/>
         <v>9.0909090909090828E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1984</v>
       </c>
@@ -1472,36 +1534,42 @@
         <f t="shared" si="10"/>
         <v>286.76767676767679</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="3">
+        <v>1984</v>
+      </c>
+      <c r="P12" s="17">
         <f t="shared" si="3"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="P12" s="17">
+      <c r="Q12" s="17">
         <f t="shared" si="11"/>
         <v>3.3333333333333437E-2</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="R12" s="3">
+        <v>1984</v>
+      </c>
+      <c r="S12" s="2">
         <f t="shared" si="12"/>
         <v>2.1</v>
       </c>
-      <c r="R12" s="2">
+      <c r="T12" s="2">
         <f t="shared" si="4"/>
         <v>2.48</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <f t="shared" si="5"/>
         <v>1984</v>
       </c>
-      <c r="U12" s="4">
+      <c r="W12" s="4">
         <f t="shared" si="6"/>
         <v>0.105</v>
       </c>
-      <c r="V12" s="4">
+      <c r="X12" s="4">
         <f t="shared" si="7"/>
         <v>3.3333333333333437E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1985</v>
       </c>
@@ -1551,36 +1619,42 @@
         <f t="shared" si="10"/>
         <v>435.39682539682536</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O13" s="3">
+        <v>1985</v>
+      </c>
+      <c r="P13" s="17">
         <f t="shared" si="3"/>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="P13" s="17">
+      <c r="Q13" s="17">
         <f t="shared" si="11"/>
         <v>4.8387096774193505E-2</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="R13" s="3">
+        <v>1985</v>
+      </c>
+      <c r="S13" s="2">
         <f t="shared" si="12"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="R13" s="2">
+      <c r="T13" s="2">
         <f t="shared" si="4"/>
         <v>2.6</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <f t="shared" si="5"/>
         <v>1985</v>
       </c>
-      <c r="U13" s="4">
+      <c r="W13" s="4">
         <f t="shared" si="6"/>
         <v>0.12</v>
       </c>
-      <c r="V13" s="4">
+      <c r="X13" s="4">
         <f t="shared" si="7"/>
         <v>4.8387096774193505E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1986</v>
       </c>
@@ -1630,36 +1704,42 @@
         <f t="shared" si="10"/>
         <v>522.46753246753246</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="3">
+        <v>1986</v>
+      </c>
+      <c r="P14" s="17">
         <f t="shared" si="3"/>
         <v>9.0909090909090828E-2</v>
       </c>
-      <c r="P14" s="17">
+      <c r="Q14" s="17">
         <f t="shared" si="11"/>
         <v>7.6923076923076872E-2</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="R14" s="3">
+        <v>1986</v>
+      </c>
+      <c r="S14" s="2">
         <f t="shared" si="12"/>
         <v>2.4</v>
       </c>
-      <c r="R14" s="2">
+      <c r="T14" s="2">
         <f t="shared" si="4"/>
         <v>2.8</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <f t="shared" si="5"/>
         <v>1986</v>
       </c>
-      <c r="U14" s="4">
+      <c r="W14" s="4">
         <f t="shared" si="6"/>
         <v>0.13</v>
       </c>
-      <c r="V14" s="4">
+      <c r="X14" s="4">
         <f t="shared" si="7"/>
         <v>7.6923076923076872E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1987</v>
       </c>
@@ -1709,36 +1789,42 @@
         <f t="shared" si="10"/>
         <v>509.68253968253964</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O15" s="3">
+        <v>1987</v>
+      </c>
+      <c r="P15" s="17">
         <f t="shared" si="3"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="P15" s="17">
+      <c r="Q15" s="17">
         <f t="shared" si="11"/>
         <v>0.14285714285714279</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="R15" s="3">
+        <v>1987</v>
+      </c>
+      <c r="S15" s="2">
         <f t="shared" si="12"/>
         <v>2.5</v>
       </c>
-      <c r="R15" s="2">
+      <c r="T15" s="2">
         <f t="shared" si="4"/>
         <v>3.2</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <f t="shared" si="5"/>
         <v>1987</v>
       </c>
-      <c r="U15" s="4">
+      <c r="W15" s="4">
         <f t="shared" si="6"/>
         <v>0.115</v>
       </c>
-      <c r="V15" s="4">
+      <c r="X15" s="4">
         <f t="shared" si="7"/>
         <v>0.14285714285714279</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1988</v>
       </c>
@@ -1788,36 +1874,42 @@
         <f t="shared" si="10"/>
         <v>503.63636363636363</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="3">
+        <v>1988</v>
+      </c>
+      <c r="P16" s="17">
         <f t="shared" si="3"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="P16" s="17">
+      <c r="Q16" s="17">
         <f t="shared" si="11"/>
         <v>0.125</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="R16" s="3">
+        <v>1988</v>
+      </c>
+      <c r="S16" s="2">
         <f t="shared" si="12"/>
         <v>2.7</v>
       </c>
-      <c r="R16" s="2">
+      <c r="T16" s="2">
         <f t="shared" si="4"/>
         <v>3.6</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <f t="shared" si="5"/>
         <v>1988</v>
       </c>
-      <c r="U16" s="4">
+      <c r="W16" s="4">
         <f t="shared" si="6"/>
         <v>0.13500000000000001</v>
       </c>
-      <c r="V16" s="4">
+      <c r="X16" s="4">
         <f t="shared" si="7"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1989</v>
       </c>
@@ -1867,36 +1959,42 @@
         <f t="shared" si="10"/>
         <v>646.91197691197692</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="3">
+        <v>1989</v>
+      </c>
+      <c r="P17" s="17">
         <f t="shared" si="3"/>
         <v>7.4074074074074181E-2</v>
       </c>
-      <c r="P17" s="17">
+      <c r="Q17" s="17">
         <f t="shared" si="11"/>
         <v>0.11111111111111116</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="R17" s="3">
+        <v>1989</v>
+      </c>
+      <c r="S17" s="2">
         <f t="shared" si="12"/>
         <v>2.9</v>
       </c>
-      <c r="R17" s="2">
+      <c r="T17" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <f t="shared" si="5"/>
         <v>1989</v>
       </c>
-      <c r="U17" s="4">
+      <c r="W17" s="4">
         <f t="shared" si="6"/>
         <v>0.17</v>
       </c>
-      <c r="V17" s="4">
+      <c r="X17" s="4">
         <f t="shared" si="7"/>
         <v>0.11111111111111116</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1990</v>
       </c>
@@ -1946,36 +2044,42 @@
         <f t="shared" si="10"/>
         <v>609.52380952380963</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O18" s="3">
+        <v>1990</v>
+      </c>
+      <c r="P18" s="17">
         <f t="shared" si="3"/>
         <v>6.8965517241379226E-2</v>
       </c>
-      <c r="P18" s="17">
+      <c r="Q18" s="17">
         <f t="shared" si="11"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="R18" s="3">
+        <v>1990</v>
+      </c>
+      <c r="S18" s="2">
         <f t="shared" si="12"/>
         <v>3.1</v>
       </c>
-      <c r="R18" s="2">
+      <c r="T18" s="2">
         <f t="shared" si="4"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <f t="shared" si="5"/>
         <v>1990</v>
       </c>
-      <c r="U18" s="4">
+      <c r="W18" s="4">
         <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
-      <c r="V18" s="4">
+      <c r="X18" s="4">
         <f t="shared" si="7"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1991</v>
       </c>
@@ -2025,36 +2129,42 @@
         <f t="shared" si="10"/>
         <v>782.25108225108238</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O19" s="3">
+        <v>1991</v>
+      </c>
+      <c r="P19" s="17">
         <f t="shared" si="3"/>
         <v>3.2258064516129004E-2</v>
       </c>
-      <c r="P19" s="17">
+      <c r="Q19" s="17">
         <f t="shared" si="11"/>
         <v>4.5454545454545414E-2</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="R19" s="3">
+        <v>1991</v>
+      </c>
+      <c r="S19" s="2">
         <f t="shared" si="12"/>
         <v>3.2</v>
       </c>
-      <c r="R19" s="2">
+      <c r="T19" s="2">
         <f t="shared" si="4"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <f t="shared" si="5"/>
         <v>1991</v>
       </c>
-      <c r="U19" s="4">
+      <c r="W19" s="4">
         <f t="shared" si="6"/>
         <v>0.11</v>
       </c>
-      <c r="V19" s="4">
+      <c r="X19" s="4">
         <f t="shared" si="7"/>
         <v>4.5454545454545414E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1992</v>
       </c>
@@ -2104,36 +2214,42 @@
         <f t="shared" si="10"/>
         <v>855.64213564213571</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="3">
+        <v>1992</v>
+      </c>
+      <c r="P20" s="17">
         <f t="shared" si="3"/>
         <v>3.125E-2</v>
       </c>
-      <c r="P20" s="17">
+      <c r="Q20" s="17">
         <f t="shared" si="11"/>
         <v>4.3478260869565188E-2</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="R20" s="3">
+        <v>1992</v>
+      </c>
+      <c r="S20" s="2">
         <f t="shared" si="12"/>
         <v>3.3</v>
       </c>
-      <c r="R20" s="2">
+      <c r="T20" s="2">
         <f t="shared" si="4"/>
         <v>4.8</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <f t="shared" si="5"/>
         <v>1992</v>
       </c>
-      <c r="U20" s="4">
+      <c r="W20" s="4">
         <f t="shared" si="6"/>
         <v>0.08</v>
       </c>
-      <c r="V20" s="4">
+      <c r="X20" s="4">
         <f t="shared" si="7"/>
         <v>4.3478260869565188E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1993</v>
       </c>
@@ -2183,36 +2299,42 @@
         <f t="shared" si="10"/>
         <v>988.4848484848485</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="3">
+        <v>1993</v>
+      </c>
+      <c r="P21" s="17">
         <f t="shared" si="3"/>
         <v>3.0303030303030276E-2</v>
       </c>
-      <c r="P21" s="17">
+      <c r="Q21" s="17">
         <f t="shared" si="11"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="R21" s="3">
+        <v>1993</v>
+      </c>
+      <c r="S21" s="2">
         <f t="shared" si="12"/>
         <v>3.4</v>
       </c>
-      <c r="R21" s="2">
+      <c r="T21" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <f t="shared" si="5"/>
         <v>1993</v>
       </c>
-      <c r="U21" s="4">
+      <c r="W21" s="4">
         <f t="shared" si="6"/>
         <v>5.5E-2</v>
       </c>
-      <c r="V21" s="4">
+      <c r="X21" s="4">
         <f t="shared" si="7"/>
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1994</v>
       </c>
@@ -2262,36 +2384,42 @@
         <f t="shared" si="10"/>
         <v>854.41558441558436</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O22" s="3">
+        <v>1994</v>
+      </c>
+      <c r="P22" s="17">
         <f t="shared" si="3"/>
         <v>2.9411764705882248E-2</v>
       </c>
-      <c r="P22" s="17">
+      <c r="Q22" s="17">
         <f t="shared" si="11"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="R22" s="3">
+        <v>1994</v>
+      </c>
+      <c r="S22" s="2">
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="R22" s="2">
+      <c r="T22" s="2">
         <f t="shared" si="4"/>
         <v>5.2</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <f t="shared" si="5"/>
         <v>1994</v>
       </c>
-      <c r="U22" s="4">
+      <c r="W22" s="4">
         <f t="shared" si="6"/>
         <v>5.5E-2</v>
       </c>
-      <c r="V22" s="4">
+      <c r="X22" s="4">
         <f t="shared" si="7"/>
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1995</v>
       </c>
@@ -2341,36 +2469,42 @@
         <f t="shared" si="10"/>
         <v>1198.0519480519481</v>
       </c>
-      <c r="O23" s="17">
+      <c r="O23" s="3">
+        <v>1995</v>
+      </c>
+      <c r="P23" s="17">
         <f t="shared" si="3"/>
         <v>2.857142857142847E-2</v>
       </c>
-      <c r="P23" s="17">
+      <c r="Q23" s="17">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="R23" s="3">
+        <v>1995</v>
+      </c>
+      <c r="S23" s="2">
         <f t="shared" si="12"/>
         <v>3.6</v>
       </c>
-      <c r="R23" s="2">
+      <c r="T23" s="2">
         <f t="shared" si="4"/>
         <v>5.2</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <f t="shared" si="5"/>
         <v>1995</v>
       </c>
-      <c r="U23" s="4">
+      <c r="W23" s="4">
         <f t="shared" si="6"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="V23" s="4">
+      <c r="X23" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1996</v>
       </c>
@@ -2420,36 +2554,42 @@
         <f t="shared" si="10"/>
         <v>1347.2727272727273</v>
       </c>
-      <c r="O24" s="17">
+      <c r="O24" s="3">
+        <v>1996</v>
+      </c>
+      <c r="P24" s="17">
         <f t="shared" si="3"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="P24" s="17">
+      <c r="Q24" s="17">
         <f t="shared" si="11"/>
         <v>7.6923076923076872E-2</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="R24" s="3">
+        <v>1996</v>
+      </c>
+      <c r="S24" s="2">
         <f t="shared" si="12"/>
         <v>3.8</v>
       </c>
-      <c r="R24" s="2">
+      <c r="T24" s="2">
         <f t="shared" si="4"/>
         <v>5.6</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <f t="shared" si="5"/>
         <v>1996</v>
       </c>
-      <c r="U24" s="4">
+      <c r="W24" s="4">
         <f t="shared" si="6"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V24" s="4">
+      <c r="X24" s="4">
         <f t="shared" si="7"/>
         <v>7.6923076923076872E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1997</v>
       </c>
@@ -2499,36 +2639,42 @@
         <f t="shared" si="10"/>
         <v>1875.6132756132761</v>
       </c>
-      <c r="O25" s="17">
+      <c r="O25" s="3">
+        <v>1997</v>
+      </c>
+      <c r="P25" s="17">
         <f t="shared" si="3"/>
         <v>2.6315789473684292E-2</v>
       </c>
-      <c r="P25" s="17">
+      <c r="Q25" s="17">
         <f t="shared" si="11"/>
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="R25" s="3">
+        <v>1997</v>
+      </c>
+      <c r="S25" s="2">
         <f t="shared" si="12"/>
         <v>3.9</v>
       </c>
-      <c r="R25" s="2">
+      <c r="T25" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <f t="shared" si="5"/>
         <v>1997</v>
       </c>
-      <c r="U25" s="4">
+      <c r="W25" s="4">
         <f t="shared" si="6"/>
         <v>5.5E-2</v>
       </c>
-      <c r="V25" s="4">
+      <c r="X25" s="4">
         <f t="shared" si="7"/>
         <v>7.1428571428571397E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1998</v>
       </c>
@@ -2578,36 +2724,42 @@
         <f t="shared" si="10"/>
         <v>2819.7835497835504</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O26" s="3">
+        <v>1998</v>
+      </c>
+      <c r="P26" s="17">
         <f t="shared" si="3"/>
         <v>2.564102564102555E-2</v>
       </c>
-      <c r="P26" s="17">
+      <c r="Q26" s="17">
         <f t="shared" si="11"/>
         <v>3.3333333333333437E-2</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="R26" s="3">
+        <v>1998</v>
+      </c>
+      <c r="S26" s="2">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="R26" s="2">
+      <c r="T26" s="2">
         <f t="shared" si="4"/>
         <v>6.2</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <f t="shared" si="5"/>
         <v>1998</v>
       </c>
-      <c r="U26" s="4">
+      <c r="W26" s="4">
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="V26" s="4">
+      <c r="X26" s="4">
         <f t="shared" si="7"/>
         <v>3.3333333333333437E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1999</v>
       </c>
@@ -2657,36 +2809,42 @@
         <f t="shared" si="10"/>
         <v>3285.6421356421365</v>
       </c>
-      <c r="O27" s="17">
+      <c r="O27" s="3">
+        <v>1999</v>
+      </c>
+      <c r="P27" s="17">
         <f t="shared" si="3"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="P27" s="17">
+      <c r="Q27" s="17">
         <f t="shared" si="11"/>
         <v>3.2258064516129004E-2</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="R27" s="3">
+        <v>1999</v>
+      </c>
+      <c r="S27" s="2">
         <f t="shared" si="12"/>
         <v>4.2</v>
       </c>
-      <c r="R27" s="2">
+      <c r="T27" s="2">
         <f t="shared" si="4"/>
         <v>6.4</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <f t="shared" si="5"/>
         <v>1999</v>
       </c>
-      <c r="U27" s="4">
+      <c r="W27" s="4">
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="V27" s="4">
+      <c r="X27" s="4">
         <f t="shared" si="7"/>
         <v>3.2258064516129004E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2000</v>
       </c>
@@ -2736,36 +2894,42 @@
         <f t="shared" si="10"/>
         <v>3276.1904761904766</v>
       </c>
-      <c r="O28" s="17">
+      <c r="O28" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P28" s="17">
         <f t="shared" si="3"/>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="P28" s="17">
+      <c r="Q28" s="17">
         <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="R28" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S28" s="2">
         <f t="shared" si="12"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="R28" s="2">
+      <c r="T28" s="2">
         <f t="shared" si="4"/>
         <v>6.8</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="U28" s="4">
+      <c r="W28" s="4">
         <f t="shared" si="6"/>
         <v>0.06</v>
       </c>
-      <c r="V28" s="4">
+      <c r="X28" s="4">
         <f t="shared" si="7"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2001</v>
       </c>
@@ -2815,36 +2979,42 @@
         <f t="shared" si="10"/>
         <v>3197.1717171717169</v>
       </c>
-      <c r="O29" s="17">
+      <c r="O29" s="3">
+        <v>2001</v>
+      </c>
+      <c r="P29" s="17">
         <f t="shared" si="3"/>
         <v>4.5454545454545414E-2</v>
       </c>
-      <c r="P29" s="17">
+      <c r="Q29" s="17">
         <f t="shared" si="11"/>
         <v>5.8823529411764719E-2</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="R29" s="3">
+        <v>2001</v>
+      </c>
+      <c r="S29" s="2">
         <f t="shared" si="12"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="R29" s="2">
+      <c r="T29" s="2">
         <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <f t="shared" si="5"/>
         <v>2001</v>
       </c>
-      <c r="U29" s="4">
+      <c r="W29" s="4">
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="V29" s="4">
+      <c r="X29" s="4">
         <f t="shared" si="7"/>
         <v>5.8823529411764719E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2002</v>
       </c>
@@ -2894,36 +3064,42 @@
         <f t="shared" si="10"/>
         <v>2336.5079365079368</v>
       </c>
-      <c r="O30" s="17">
+      <c r="O30" s="3">
+        <v>2002</v>
+      </c>
+      <c r="P30" s="17">
         <f t="shared" si="3"/>
         <v>4.3478260869565188E-2</v>
       </c>
-      <c r="P30" s="17">
+      <c r="Q30" s="17">
         <f t="shared" si="11"/>
         <v>0.11111111111111116</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="R30" s="3">
+        <v>2002</v>
+      </c>
+      <c r="S30" s="2">
         <f t="shared" si="12"/>
         <v>4.8</v>
       </c>
-      <c r="R30" s="2">
+      <c r="T30" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <f t="shared" si="5"/>
         <v>2002</v>
       </c>
-      <c r="U30" s="4">
+      <c r="W30" s="4">
         <f t="shared" si="6"/>
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="V30" s="4">
+      <c r="X30" s="4">
         <f t="shared" si="7"/>
         <v>0.11111111111111116</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2003</v>
       </c>
@@ -2973,36 +3149,42 @@
         <f t="shared" si="10"/>
         <v>2406.9264069264068</v>
       </c>
-      <c r="O31" s="17">
+      <c r="O31" s="3">
+        <v>2003</v>
+      </c>
+      <c r="P31" s="17">
         <f t="shared" si="3"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="P31" s="17">
+      <c r="Q31" s="17">
         <f t="shared" si="11"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="R31" s="3">
+        <v>2003</v>
+      </c>
+      <c r="S31" s="2">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="R31" s="2">
+      <c r="T31" s="2">
         <f t="shared" si="4"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <f t="shared" si="5"/>
         <v>2003</v>
       </c>
-      <c r="U31" s="4">
+      <c r="W31" s="4">
         <f t="shared" si="6"/>
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="V31" s="4">
+      <c r="X31" s="4">
         <f t="shared" si="7"/>
         <v>0.14999999999999991</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2004</v>
       </c>
@@ -3052,36 +3234,42 @@
         <f t="shared" si="10"/>
         <v>2378.5281385281392</v>
       </c>
-      <c r="O32" s="17">
+      <c r="O32" s="3">
+        <v>2004</v>
+      </c>
+      <c r="P32" s="17">
         <f t="shared" si="3"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="P32" s="17">
+      <c r="Q32" s="17">
         <f t="shared" si="11"/>
         <v>8.6956521739130377E-2</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="R32" s="3">
+        <v>2004</v>
+      </c>
+      <c r="S32" s="2">
         <f t="shared" si="12"/>
         <v>5.2</v>
       </c>
-      <c r="R32" s="2">
+      <c r="T32" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <f t="shared" si="5"/>
         <v>2004</v>
       </c>
-      <c r="U32" s="4">
+      <c r="W32" s="4">
         <f t="shared" si="6"/>
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="V32" s="4">
+      <c r="X32" s="4">
         <f t="shared" si="7"/>
         <v>8.6956521739130377E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2005</v>
       </c>
@@ -3131,36 +3319,42 @@
         <f t="shared" si="10"/>
         <v>2395.1515151515155</v>
       </c>
-      <c r="O33" s="17">
+      <c r="O33" s="3">
+        <v>2005</v>
+      </c>
+      <c r="P33" s="17">
         <f t="shared" si="3"/>
         <v>5.7692307692307709E-2</v>
       </c>
-      <c r="P33" s="17">
+      <c r="Q33" s="17">
         <f t="shared" si="11"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="R33" s="3">
+        <v>2005</v>
+      </c>
+      <c r="S33" s="2">
         <f t="shared" si="12"/>
         <v>5.5</v>
       </c>
-      <c r="R33" s="2">
+      <c r="T33" s="2">
         <f t="shared" si="4"/>
         <v>10.4</v>
       </c>
-      <c r="T33">
+      <c r="V33">
         <f t="shared" si="5"/>
         <v>2005</v>
       </c>
-      <c r="U33" s="4">
+      <c r="W33" s="4">
         <f t="shared" si="6"/>
         <v>5.5E-2</v>
       </c>
-      <c r="V33" s="4">
+      <c r="X33" s="4">
         <f t="shared" si="7"/>
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2006</v>
       </c>
@@ -3210,36 +3404,42 @@
         <f t="shared" si="10"/>
         <v>2721.4141414141418</v>
       </c>
-      <c r="O34" s="17">
+      <c r="O34" s="3">
+        <v>2006</v>
+      </c>
+      <c r="P34" s="17">
         <f t="shared" si="3"/>
         <v>5.4545454545454453E-2</v>
       </c>
-      <c r="P34" s="17">
+      <c r="Q34" s="17">
         <f t="shared" si="11"/>
         <v>0.15384615384615374</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="R34" s="3">
+        <v>2006</v>
+      </c>
+      <c r="S34" s="2">
         <f t="shared" si="12"/>
         <v>5.8</v>
       </c>
-      <c r="R34" s="2">
+      <c r="T34" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="T34">
+      <c r="V34">
         <f t="shared" si="5"/>
         <v>2006</v>
       </c>
-      <c r="U34" s="4">
+      <c r="W34" s="4">
         <f t="shared" si="6"/>
         <v>0.06</v>
       </c>
-      <c r="V34" s="4">
+      <c r="X34" s="4">
         <f t="shared" si="7"/>
         <v>0.15384615384615374</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2007</v>
       </c>
@@ -3289,36 +3489,42 @@
         <f t="shared" si="10"/>
         <v>2541.9913419913419</v>
       </c>
-      <c r="O35" s="17">
+      <c r="O35" s="3">
+        <v>2007</v>
+      </c>
+      <c r="P35" s="17">
         <f t="shared" si="3"/>
         <v>5.1724137931034475E-2</v>
       </c>
-      <c r="P35" s="17">
+      <c r="Q35" s="17">
         <f t="shared" si="11"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="R35" s="3">
+        <v>2007</v>
+      </c>
+      <c r="S35" s="2">
         <f t="shared" si="12"/>
         <v>6.1</v>
       </c>
-      <c r="R35" s="2">
+      <c r="T35" s="2">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="T35">
+      <c r="V35">
         <f t="shared" si="5"/>
         <v>2007</v>
       </c>
-      <c r="U35" s="4">
+      <c r="W35" s="4">
         <f t="shared" si="6"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="V35" s="4">
+      <c r="X35" s="4">
         <f t="shared" si="7"/>
         <v>0.16666666666666674</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2008</v>
       </c>
@@ -3368,36 +3574,42 @@
         <f t="shared" si="10"/>
         <v>1876.3636363636363</v>
       </c>
-      <c r="O36" s="17">
+      <c r="O36" s="3">
+        <v>2008</v>
+      </c>
+      <c r="P36" s="17">
         <f t="shared" si="3"/>
         <v>6.5573770491803351E-2</v>
       </c>
-      <c r="P36" s="17">
+      <c r="Q36" s="17">
         <f t="shared" si="11"/>
         <v>8.5714285714285632E-2</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="R36" s="3">
+        <v>2008</v>
+      </c>
+      <c r="S36" s="2">
         <f t="shared" si="12"/>
         <v>6.5</v>
       </c>
-      <c r="R36" s="2">
+      <c r="T36" s="2">
         <f t="shared" si="4"/>
         <v>15.2</v>
       </c>
-      <c r="T36">
+      <c r="V36">
         <f t="shared" si="5"/>
         <v>2008</v>
       </c>
-      <c r="U36" s="4">
+      <c r="W36" s="4">
         <f t="shared" si="6"/>
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="V36" s="4">
+      <c r="X36" s="4">
         <f t="shared" si="7"/>
         <v>8.5714285714285632E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2009</v>
       </c>
@@ -3447,36 +3659,42 @@
         <f t="shared" si="10"/>
         <v>2027.2727272727273</v>
       </c>
-      <c r="O37" s="17">
+      <c r="O37" s="3">
+        <v>2009</v>
+      </c>
+      <c r="P37" s="17">
         <f t="shared" si="3"/>
         <v>4.6153846153846212E-2</v>
       </c>
-      <c r="P37" s="17">
+      <c r="Q37" s="17">
         <f t="shared" si="11"/>
         <v>5.2631578947368363E-2</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="R37" s="3">
+        <v>2009</v>
+      </c>
+      <c r="S37" s="2">
         <f t="shared" si="12"/>
         <v>6.8</v>
       </c>
-      <c r="R37" s="2">
+      <c r="T37" s="2">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="T37">
+      <c r="V37">
         <f t="shared" si="5"/>
         <v>2009</v>
       </c>
-      <c r="U37" s="4">
+      <c r="W37" s="4">
         <f t="shared" si="6"/>
         <v>0.03</v>
       </c>
-      <c r="V37" s="4">
+      <c r="X37" s="4">
         <f t="shared" si="7"/>
         <v>5.2631578947368363E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2010</v>
       </c>
@@ -3526,36 +3744,42 @@
         <f t="shared" si="10"/>
         <v>1851.6017316017319</v>
       </c>
-      <c r="O38" s="17">
+      <c r="O38" s="3">
+        <v>2010</v>
+      </c>
+      <c r="P38" s="17">
         <f t="shared" si="3"/>
         <v>4.4117647058823595E-2</v>
       </c>
-      <c r="P38" s="17">
+      <c r="Q38" s="17">
         <f t="shared" si="11"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="3">
+        <v>2010</v>
+      </c>
+      <c r="S38" s="2">
         <f t="shared" si="12"/>
         <v>7.1</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <f t="shared" si="4"/>
         <v>16.8</v>
       </c>
-      <c r="T38">
+      <c r="V38">
         <f t="shared" si="5"/>
         <v>2010</v>
       </c>
-      <c r="U38" s="4">
+      <c r="W38" s="4">
         <f t="shared" si="6"/>
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="V38" s="4">
+      <c r="X38" s="4">
         <f t="shared" si="7"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2011</v>
       </c>
@@ -3605,36 +3829,42 @@
         <f t="shared" si="10"/>
         <v>1869.7546897546899</v>
       </c>
-      <c r="O39" s="17">
+      <c r="O39" s="3">
+        <v>2011</v>
+      </c>
+      <c r="P39" s="17">
         <f t="shared" si="3"/>
         <v>4.2253521126760507E-2</v>
       </c>
-      <c r="P39" s="17">
+      <c r="Q39" s="17">
         <f t="shared" si="11"/>
         <v>2.3809523809523725E-2</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="R39" s="3">
+        <v>2011</v>
+      </c>
+      <c r="S39" s="2">
         <f t="shared" si="12"/>
         <v>7.4</v>
       </c>
-      <c r="R39" s="2">
+      <c r="T39" s="2">
         <f t="shared" si="4"/>
         <v>17.2</v>
       </c>
-      <c r="T39">
+      <c r="V39">
         <f t="shared" si="5"/>
         <v>2011</v>
       </c>
-      <c r="U39" s="4">
+      <c r="W39" s="4">
         <f t="shared" si="6"/>
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="V39" s="4">
+      <c r="X39" s="4">
         <f t="shared" si="7"/>
         <v>2.3809523809523725E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2012</v>
       </c>
@@ -3684,36 +3914,42 @@
         <f t="shared" si="10"/>
         <v>1995.9884559884561</v>
       </c>
-      <c r="O40" s="17">
+      <c r="O40" s="3">
+        <v>2012</v>
+      </c>
+      <c r="P40" s="17">
         <f t="shared" si="3"/>
         <v>4.0540540540540571E-2</v>
       </c>
-      <c r="P40" s="17">
+      <c r="Q40" s="17">
         <f t="shared" si="11"/>
         <v>4.6511627906976827E-2</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="R40" s="3">
+        <v>2012</v>
+      </c>
+      <c r="S40" s="2">
         <f t="shared" si="12"/>
         <v>7.7</v>
       </c>
-      <c r="R40" s="2">
+      <c r="T40" s="2">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="T40">
+      <c r="V40">
         <f t="shared" si="5"/>
         <v>2012</v>
       </c>
-      <c r="U40" s="4">
+      <c r="W40" s="4">
         <f t="shared" si="6"/>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V40" s="4">
+      <c r="X40" s="4">
         <f t="shared" si="7"/>
         <v>4.6511627906976827E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2013</v>
       </c>
@@ -3763,36 +3999,42 @@
         <f t="shared" si="10"/>
         <v>2773.3333333333335</v>
       </c>
-      <c r="O41" s="17">
+      <c r="O41" s="3">
+        <v>2013</v>
+      </c>
+      <c r="P41" s="17">
         <f t="shared" si="3"/>
         <v>3.8961038961038863E-2</v>
       </c>
-      <c r="P41" s="17">
+      <c r="Q41" s="17">
         <f t="shared" si="11"/>
         <v>6.6666666666666652E-2</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="R41" s="3">
+        <v>2013</v>
+      </c>
+      <c r="S41" s="2">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="R41" s="2">
+      <c r="T41" s="2">
         <f t="shared" si="4"/>
         <v>19.2</v>
       </c>
-      <c r="T41">
+      <c r="V41">
         <f t="shared" si="5"/>
         <v>2013</v>
       </c>
-      <c r="U41" s="4">
+      <c r="W41" s="4">
         <f t="shared" si="6"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="V41" s="4">
+      <c r="X41" s="4">
         <f t="shared" si="7"/>
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2014</v>
       </c>
@@ -3842,36 +4084,42 @@
         <f t="shared" si="10"/>
         <v>3297.9653679653688</v>
       </c>
-      <c r="O42" s="17">
+      <c r="O42" s="3">
+        <v>2014</v>
+      </c>
+      <c r="P42" s="17">
         <f t="shared" si="3"/>
         <v>3.7500000000000089E-2</v>
       </c>
-      <c r="P42" s="17">
+      <c r="Q42" s="17">
         <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="R42" s="3">
+        <v>2014</v>
+      </c>
+      <c r="S42" s="2">
         <f t="shared" si="12"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="R42" s="2">
+      <c r="T42" s="2">
         <f t="shared" si="4"/>
         <v>20.399999999999999</v>
       </c>
-      <c r="T42">
+      <c r="V42">
         <f t="shared" si="5"/>
         <v>2014</v>
       </c>
-      <c r="U42" s="4">
+      <c r="W42" s="4">
         <f t="shared" si="6"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="V42" s="4">
+      <c r="X42" s="4">
         <f t="shared" si="7"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2015</v>
       </c>
@@ -3921,36 +4169,42 @@
         <f t="shared" si="10"/>
         <v>3922.8282828282827</v>
       </c>
-      <c r="O43" s="17">
+      <c r="O43" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P43" s="17">
         <f t="shared" si="3"/>
         <v>2.4096385542168752E-2</v>
       </c>
-      <c r="P43" s="17">
+      <c r="Q43" s="17">
         <f t="shared" si="11"/>
         <v>7.8431372549019551E-2</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="R43" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S43" s="2">
         <f t="shared" si="12"/>
         <v>8.5</v>
       </c>
-      <c r="R43" s="2">
+      <c r="T43" s="2">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="T43">
+      <c r="V43">
         <f t="shared" si="5"/>
         <v>2015</v>
       </c>
-      <c r="U43" s="4">
+      <c r="W43" s="4">
         <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
-      <c r="V43" s="4">
+      <c r="X43" s="4">
         <f t="shared" si="7"/>
         <v>7.8431372549019551E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2016</v>
       </c>
@@ -4000,36 +4254,42 @@
         <f t="shared" si="10"/>
         <v>4361.6883116883128</v>
       </c>
-      <c r="O44" s="17">
+      <c r="O44" s="3">
+        <v>2016</v>
+      </c>
+      <c r="P44" s="17">
         <f t="shared" si="3"/>
         <v>2.3529411764705799E-2</v>
       </c>
-      <c r="P44" s="17">
+      <c r="Q44" s="17">
         <f t="shared" si="11"/>
         <v>5.4545454545454453E-2</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="R44" s="3">
+        <v>2016</v>
+      </c>
+      <c r="S44" s="2">
         <f t="shared" si="12"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="R44" s="2">
+      <c r="T44" s="2">
         <f t="shared" si="4"/>
         <v>23.2</v>
       </c>
-      <c r="T44">
+      <c r="V44">
         <f t="shared" si="5"/>
         <v>2016</v>
       </c>
-      <c r="U44" s="4">
+      <c r="W44" s="4">
         <f t="shared" si="6"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V44" s="4">
+      <c r="X44" s="4">
         <f t="shared" si="7"/>
         <v>5.4545454545454453E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2017</v>
       </c>
@@ -4079,36 +4339,42 @@
         <f t="shared" si="10"/>
         <v>5016.1616161616166</v>
       </c>
-      <c r="O45" s="17">
+      <c r="O45" s="3">
+        <v>2017</v>
+      </c>
+      <c r="P45" s="17">
         <f t="shared" si="3"/>
         <v>2.2988505747126409E-2</v>
       </c>
-      <c r="P45" s="17">
+      <c r="Q45" s="17">
         <f t="shared" si="11"/>
         <v>6.8965517241379226E-2</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="R45" s="3">
+        <v>2017</v>
+      </c>
+      <c r="S45" s="2">
         <f t="shared" si="12"/>
         <v>8.9</v>
       </c>
-      <c r="R45" s="2">
+      <c r="T45" s="2">
         <f t="shared" si="4"/>
         <v>24.8</v>
       </c>
-      <c r="T45">
+      <c r="V45">
         <f t="shared" si="5"/>
         <v>2017</v>
       </c>
-      <c r="U45" s="4">
+      <c r="W45" s="4">
         <f t="shared" si="6"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V45" s="4">
+      <c r="X45" s="4">
         <f t="shared" si="7"/>
         <v>6.8965517241379226E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2018</v>
       </c>
@@ -4158,36 +4424,42 @@
         <f t="shared" si="10"/>
         <v>4847.5901875901882</v>
       </c>
-      <c r="O46" s="17">
+      <c r="O46" s="3">
+        <v>2018</v>
+      </c>
+      <c r="P46" s="17">
         <f t="shared" si="3"/>
         <v>2.2471910112359605E-2</v>
       </c>
-      <c r="P46" s="17">
+      <c r="Q46" s="17">
         <f t="shared" si="11"/>
         <v>-1.6129032258064502E-2</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="R46" s="3">
+        <v>2018</v>
+      </c>
+      <c r="S46" s="2">
         <f t="shared" si="12"/>
         <v>9.1</v>
       </c>
-      <c r="R46" s="2">
+      <c r="T46" s="2">
         <f t="shared" si="4"/>
         <v>24.4</v>
       </c>
-      <c r="T46">
+      <c r="V46">
         <f t="shared" si="5"/>
         <v>2018</v>
       </c>
-      <c r="U46" s="4">
+      <c r="W46" s="4">
         <f t="shared" si="6"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V46" s="4">
+      <c r="X46" s="4">
         <f t="shared" si="7"/>
         <v>-1.6129032258064502E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2019</v>
       </c>
@@ -4237,36 +4509,42 @@
         <f t="shared" si="10"/>
         <v>6713.7662337662332</v>
       </c>
-      <c r="O47" s="17">
+      <c r="O47" s="3">
+        <v>2019</v>
+      </c>
+      <c r="P47" s="17">
         <f t="shared" si="3"/>
         <v>2.19780219780219E-2</v>
       </c>
-      <c r="P47" s="17">
+      <c r="Q47" s="17">
         <f t="shared" si="11"/>
         <v>-1.6393442622950838E-2</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="R47" s="3">
+        <v>2019</v>
+      </c>
+      <c r="S47" s="2">
         <f t="shared" si="12"/>
         <v>9.3000000000000007</v>
       </c>
-      <c r="R47" s="2">
+      <c r="T47" s="2">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="T47">
+      <c r="V47">
         <f t="shared" si="5"/>
         <v>2019</v>
       </c>
-      <c r="U47" s="4">
+      <c r="W47" s="4">
         <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
-      <c r="V47" s="4">
+      <c r="X47" s="4">
         <f t="shared" si="7"/>
         <v>-1.6393442622950838E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>2020</v>
       </c>
@@ -4316,36 +4594,42 @@
         <f t="shared" si="10"/>
         <v>7858.8744588744594</v>
       </c>
-      <c r="O48" s="17">
+      <c r="O48" s="3">
+        <v>2020</v>
+      </c>
+      <c r="P48" s="17">
         <f t="shared" si="3"/>
         <v>2.1505376344086002E-2</v>
       </c>
-      <c r="P48" s="17">
+      <c r="Q48" s="17">
         <f t="shared" si="11"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="R48" s="3">
+        <v>2020</v>
+      </c>
+      <c r="S48" s="2">
         <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
-      <c r="R48" s="2">
+      <c r="T48" s="2">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="T48">
+      <c r="V48">
         <f t="shared" si="5"/>
         <v>2020</v>
       </c>
-      <c r="U48" s="4">
+      <c r="W48" s="4">
         <f t="shared" si="6"/>
         <v>1E-3</v>
       </c>
-      <c r="V48" s="4">
+      <c r="X48" s="4">
         <f t="shared" si="7"/>
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2021</v>
       </c>
@@ -4395,36 +4679,42 @@
         <f t="shared" si="10"/>
         <v>9146.8686868686891</v>
       </c>
-      <c r="O49" s="17">
+      <c r="O49" s="3">
+        <v>2021</v>
+      </c>
+      <c r="P49" s="17">
         <f t="shared" si="3"/>
         <v>2.1052631578947434E-2</v>
       </c>
-      <c r="P49" s="17">
+      <c r="Q49" s="17">
         <f t="shared" si="11"/>
         <v>0.15384615384615374</v>
       </c>
-      <c r="Q49" s="2">
+      <c r="R49" s="3">
+        <v>2021</v>
+      </c>
+      <c r="S49" s="2">
         <f t="shared" si="12"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="R49" s="2">
+      <c r="T49" s="2">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="T49">
+      <c r="V49">
         <f t="shared" si="5"/>
         <v>2021</v>
       </c>
-      <c r="U49" s="4">
+      <c r="W49" s="4">
         <f t="shared" si="6"/>
         <v>1E-3</v>
       </c>
-      <c r="V49" s="4">
+      <c r="X49" s="4">
         <f t="shared" si="7"/>
         <v>0.15384615384615374</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>2022</v>
       </c>
@@ -4474,36 +4764,42 @@
         <f t="shared" si="10"/>
         <v>8032.5396825396838</v>
       </c>
-      <c r="O50" s="17">
+      <c r="O50" s="3">
+        <v>2022</v>
+      </c>
+      <c r="P50" s="17">
         <f t="shared" si="3"/>
         <v>2.0618556701030855E-2</v>
       </c>
-      <c r="P50" s="17">
+      <c r="Q50" s="17">
         <f t="shared" si="11"/>
         <v>6.6666666666666652E-2</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="R50" s="3">
+        <v>2022</v>
+      </c>
+      <c r="S50" s="2">
         <f t="shared" si="12"/>
         <v>9.9</v>
       </c>
-      <c r="R50" s="2">
+      <c r="T50" s="2">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="T50">
+      <c r="V50">
         <f t="shared" si="5"/>
         <v>2022</v>
       </c>
-      <c r="U50" s="4">
+      <c r="W50" s="4">
         <f t="shared" si="6"/>
         <v>2.35E-2</v>
       </c>
-      <c r="V50" s="4">
+      <c r="X50" s="4">
         <f t="shared" si="7"/>
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>2023</v>
       </c>
@@ -4553,36 +4849,42 @@
         <f t="shared" si="10"/>
         <v>10324.675324675325</v>
       </c>
-      <c r="O51" s="17">
+      <c r="O51" s="3">
+        <v>2023</v>
+      </c>
+      <c r="P51" s="17">
         <f t="shared" si="3"/>
         <v>1.0101010101010166E-2</v>
       </c>
-      <c r="P51" s="17">
+      <c r="Q51" s="17">
         <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="R51" s="3">
+        <v>2023</v>
+      </c>
+      <c r="S51" s="2">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="R51" s="2">
+      <c r="T51" s="2">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="T51">
+      <c r="V51">
         <f t="shared" si="5"/>
         <v>2023</v>
       </c>
-      <c r="U51" s="4">
+      <c r="W51" s="4">
         <f t="shared" si="6"/>
         <v>4.0999999999999995E-2</v>
       </c>
-      <c r="V51" s="4">
+      <c r="X51" s="4">
         <f t="shared" si="7"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>2024</v>
       </c>
@@ -4632,36 +4934,42 @@
         <f t="shared" si="10"/>
         <v>13097.402597402597</v>
       </c>
-      <c r="O52" s="17">
+      <c r="O52" s="3">
+        <v>2024</v>
+      </c>
+      <c r="P52" s="17">
         <f t="shared" si="3"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="P52" s="17">
+      <c r="Q52" s="17">
         <f t="shared" si="11"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="R52" s="3">
+        <v>2024</v>
+      </c>
+      <c r="S52" s="2">
         <f t="shared" si="12"/>
         <v>10.3</v>
       </c>
-      <c r="R52" s="2">
+      <c r="T52" s="2">
         <f t="shared" si="4"/>
         <v>36.72</v>
       </c>
-      <c r="T52">
+      <c r="V52">
         <f t="shared" si="5"/>
         <v>2024</v>
       </c>
-      <c r="U52" s="4">
+      <c r="W52" s="4">
         <f t="shared" si="6"/>
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="V52" s="4">
+      <c r="X52" s="4">
         <f t="shared" si="7"/>
         <v>8.0000000000000071E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2025</v>
       </c>
@@ -4711,31 +5019,37 @@
         <f t="shared" si="10"/>
         <v>13369.119769119769</v>
       </c>
-      <c r="O53" s="17">
+      <c r="O53" s="3">
+        <v>2025</v>
+      </c>
+      <c r="P53" s="17">
         <f t="shared" si="3"/>
         <v>1.9417475728155331E-2</v>
       </c>
-      <c r="P53" s="17">
+      <c r="Q53" s="17">
         <f t="shared" si="11"/>
         <v>0.3061002178649237</v>
       </c>
-      <c r="Q53" s="2">
+      <c r="R53" s="3">
+        <v>2025</v>
+      </c>
+      <c r="S53" s="2">
         <f t="shared" si="12"/>
         <v>10.5</v>
       </c>
-      <c r="R53" s="2">
+      <c r="T53" s="2">
         <f t="shared" si="4"/>
         <v>47.96</v>
       </c>
-      <c r="T53">
+      <c r="V53">
         <f t="shared" si="5"/>
         <v>2025</v>
       </c>
-      <c r="U53" s="4">
+      <c r="W53" s="4">
         <f t="shared" si="6"/>
         <v>3.85E-2</v>
       </c>
-      <c r="V53" s="4">
+      <c r="X53" s="4">
         <f t="shared" si="7"/>
         <v>0.3061002178649237</v>
       </c>

--- a/blog/data for charts.xlsx
+++ b/blog/data for charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Luis\Business folder\tepuy_site\blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9621DA91-E6A8-4843-9BFE-C5E50A04421B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41363457-61D3-4D68-A043-A6F791D3479B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B159E2E-8423-4A54-869A-CB7D220BCCE4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Year</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Net Migration Base 1</t>
+  </si>
+  <si>
+    <t>Cumulative Migration</t>
   </si>
 </sst>
 </file>
@@ -660,55 +663,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA479CF-F01B-46D5-BB9B-5EE2BF069812}">
-  <dimension ref="A1:AF53"/>
+  <dimension ref="A1:AG53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:Q53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="16.140625" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="3" customWidth="1"/>
     <col min="13" max="14" width="15" style="3" customWidth="1"/>
     <col min="15" max="15" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="2"/>
-    <col min="17" max="17" width="9.140625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="17"/>
-    <col min="23" max="23" width="9.140625" style="18"/>
-    <col min="24" max="24" width="12.5703125" style="3" customWidth="1"/>
-    <col min="25" max="26" width="9.140625" style="2"/>
-    <col min="32" max="32" width="12.5703125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="9.140625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="17"/>
+    <col min="24" max="24" width="9.140625" style="18"/>
+    <col min="25" max="25" width="12.5703125" style="3" customWidth="1"/>
+    <col min="26" max="27" width="9.140625" style="2"/>
+    <col min="33" max="33" width="12.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="V1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>18</v>
       </c>
-      <c r="AF1" s="17"/>
-    </row>
-    <row r="2" spans="1:32" s="5" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG1" s="17"/>
+    </row>
+    <row r="2" spans="1:33" s="5" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -720,9 +726,6 @@
       <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="13" t="s">
         <v>4</v>
       </c>
@@ -750,54 +753,60 @@
       <c r="O2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="R2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="15"/>
+      <c r="S2" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="T2" s="15"/>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="15"/>
+      <c r="V2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="V2" s="19" t="str">
+      <c r="W2" s="19" t="str">
         <f>+H2</f>
         <v>Average Annual Wage Growth (%)</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="X2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="Y2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Z2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="AA2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="5" t="str">
+      <c r="AC2" s="5" t="str">
         <f>+A2</f>
         <v>Year</v>
       </c>
-      <c r="AC2" s="5" t="str">
+      <c r="AD2" s="5" t="str">
         <f>+D2</f>
         <v>Cash Rate (%)</v>
       </c>
-      <c r="AD2" s="16" t="str">
-        <f>+F2</f>
+      <c r="AE2" s="16" t="str">
+        <f>+S2</f>
         <v>Median House Price growth (%)(AUD)</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AG2" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1975</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>50000</v>
       </c>
       <c r="D3">
@@ -805,9 +814,6 @@
       </c>
       <c r="E3">
         <v>25000</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
       </c>
       <c r="G3">
         <v>10000</v>
@@ -835,60 +841,64 @@
         <f>SUM($B$3:B3)/$B$3</f>
         <v>1</v>
       </c>
-      <c r="P3" s="2">
-        <v>1</v>
+      <c r="P3" s="3">
+        <f>+B3</f>
+        <v>50000</v>
       </c>
       <c r="Q3" s="2">
         <v>1</v>
       </c>
-      <c r="S3" s="3"/>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
       <c r="T3" s="3"/>
-      <c r="U3" s="3">
+      <c r="U3" s="3"/>
+      <c r="V3" s="3">
         <v>1975</v>
       </c>
-      <c r="W3" s="21"/>
-      <c r="X3" s="3">
+      <c r="X3" s="21"/>
+      <c r="Y3" s="3">
         <v>1975</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Z3" s="2">
         <v>1</v>
       </c>
-      <c r="Z3" s="2">
-        <f>+P3</f>
+      <c r="AA3" s="2">
+        <f>+Q3</f>
         <v>1</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <f>+A3</f>
         <v>1975</v>
       </c>
-      <c r="AC3" s="4">
+      <c r="AD3" s="4">
         <f>+D3/100</f>
         <v>0.08</v>
       </c>
-      <c r="AD3" s="4">
-        <f>+F3</f>
+      <c r="AE3" s="4">
+        <f>+S3</f>
         <v>0</v>
       </c>
-      <c r="AF3" s="3">
+      <c r="AG3" s="3">
         <v>1975</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1976</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>70000</v>
       </c>
+      <c r="C4" s="4"/>
       <c r="D4">
         <v>8.5</v>
       </c>
       <c r="E4">
         <v>27000</v>
-      </c>
-      <c r="F4" s="4">
-        <f>+E4/E3-1</f>
-        <v>8.0000000000000071E-2</v>
       </c>
       <c r="G4">
         <v>11000</v>
@@ -921,76 +931,81 @@
         <f>SUM($B$3:B4)/$B$3</f>
         <v>2.4</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="3">
+        <f>+P3+B4</f>
+        <v>120000</v>
+      </c>
+      <c r="Q4" s="2">
         <f>E4/$E$3</f>
         <v>1.08</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="2">
         <f>G4/$G$3*1</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3">
-        <v>1976</v>
-      </c>
-      <c r="V4" s="17">
-        <f t="shared" ref="V4:V53" si="1">+H4</f>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="W4" s="17">
+      <c r="S4" s="4">
         <f>+E4/E3-1</f>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="X4" s="3">
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3">
         <v>1976</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="W4" s="17">
+        <f t="shared" ref="W4:W53" si="1">+H4</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="X4" s="17">
+        <f>+E4/E3-1</f>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1976</v>
+      </c>
+      <c r="Z4" s="2">
         <f>G4/$G$3*1</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="Z4" s="2">
-        <f t="shared" ref="Z4:Z53" si="2">+P4</f>
+      <c r="AA4" s="2">
+        <f t="shared" ref="AA4:AA53" si="2">+Q4</f>
         <v>1.08</v>
       </c>
-      <c r="AB4">
-        <f t="shared" ref="AB4:AB53" si="3">+A4</f>
+      <c r="AC4">
+        <f t="shared" ref="AC4:AC53" si="3">+A4</f>
         <v>1976</v>
       </c>
-      <c r="AC4" s="4">
-        <f t="shared" ref="AC4:AC53" si="4">+D4/100</f>
+      <c r="AD4" s="4">
+        <f t="shared" ref="AD4:AD53" si="4">+D4/100</f>
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="AD4" s="4">
-        <f t="shared" ref="AD4:AD53" si="5">+F4</f>
+      <c r="AE4" s="4">
+        <f>+S4</f>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AG4" s="3">
         <v>1976</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1977</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>80000</v>
       </c>
+      <c r="C5" s="4"/>
       <c r="D5">
         <v>8.25</v>
       </c>
       <c r="E5">
         <v>29000</v>
       </c>
-      <c r="F5" s="4">
-        <f t="shared" ref="F5:F53" si="6">+E5/E4-1</f>
-        <v>7.4074074074074181E-2</v>
-      </c>
       <c r="G5">
         <v>12000</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" ref="H5:H53" si="7">+G5/G4-1</f>
+        <f t="shared" ref="H5:H53" si="5">+G5/G4-1</f>
         <v>9.0909090909090828E-2</v>
       </c>
       <c r="I5" s="9">
@@ -1017,76 +1032,81 @@
         <f>SUM($B$3:B5)/$B$3</f>
         <v>4</v>
       </c>
-      <c r="P5" s="2">
-        <f t="shared" ref="P5:P53" si="8">E5/$E$3</f>
+      <c r="P5" s="3">
+        <f t="shared" ref="P5:P53" si="6">+P4+B5</f>
+        <v>200000</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" ref="Q5:Q53" si="7">E5/$E$3</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="Q5" s="2">
-        <f t="shared" ref="Q5:Q53" si="9">G5/$G$3*1</f>
+      <c r="R5" s="2">
+        <f t="shared" ref="R5:R53" si="8">G5/$G$3*1</f>
         <v>1.2</v>
       </c>
-      <c r="S5" s="3"/>
+      <c r="S5" s="4">
+        <f>+E5/E4-1</f>
+        <v>7.4074074074074181E-2</v>
+      </c>
       <c r="T5" s="3"/>
-      <c r="U5" s="3">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3">
         <v>1977</v>
       </c>
-      <c r="V5" s="17">
+      <c r="W5" s="17">
         <f t="shared" si="1"/>
         <v>9.0909090909090828E-2</v>
       </c>
-      <c r="W5" s="17">
-        <f t="shared" ref="W5:W53" si="10">+E5/E4-1</f>
+      <c r="X5" s="17">
+        <f t="shared" ref="X5:X53" si="9">+E5/E4-1</f>
         <v>7.4074074074074181E-2</v>
       </c>
-      <c r="X5" s="3">
+      <c r="Y5" s="3">
         <v>1977</v>
       </c>
-      <c r="Y5" s="2">
-        <f t="shared" ref="Y5:Y53" si="11">G5/$G$3*1</f>
+      <c r="Z5" s="2">
+        <f t="shared" ref="Z5:Z53" si="10">G5/$G$3*1</f>
         <v>1.2</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="AA5" s="2">
         <f t="shared" si="2"/>
         <v>1.1599999999999999</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <f t="shared" si="3"/>
         <v>1977</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AD5" s="4">
         <f t="shared" si="4"/>
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="AD5" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE5" s="4">
+        <f>+S5</f>
         <v>7.4074074074074181E-2</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AG5" s="3">
         <v>1977</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1978</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>70000</v>
       </c>
+      <c r="C6" s="4"/>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6">
         <v>32000</v>
       </c>
-      <c r="F6" s="4">
-        <f t="shared" si="6"/>
-        <v>0.10344827586206895</v>
-      </c>
       <c r="G6">
         <v>13000</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="I6" s="9">
@@ -1113,76 +1133,81 @@
         <f>SUM($B$3:B6)/$B$3</f>
         <v>5.4</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="3">
+        <f t="shared" si="6"/>
+        <v>270000</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="7"/>
+        <v>1.28</v>
+      </c>
+      <c r="R6" s="2">
         <f t="shared" si="8"/>
-        <v>1.28</v>
-      </c>
-      <c r="Q6" s="2">
-        <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="4">
+        <f>+E6/E5-1</f>
+        <v>0.10344827586206895</v>
+      </c>
       <c r="T6" s="3"/>
-      <c r="U6" s="3">
+      <c r="U6" s="3"/>
+      <c r="V6" s="3">
         <v>1978</v>
       </c>
-      <c r="V6" s="17">
+      <c r="W6" s="17">
         <f t="shared" si="1"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="W6" s="17">
+      <c r="X6" s="17">
+        <f t="shared" si="9"/>
+        <v>0.10344827586206895</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>1978</v>
+      </c>
+      <c r="Z6" s="2">
         <f t="shared" si="10"/>
-        <v>0.10344827586206895</v>
-      </c>
-      <c r="X6" s="3">
-        <v>1978</v>
-      </c>
-      <c r="Y6" s="2">
-        <f t="shared" si="11"/>
         <v>1.3</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="AA6" s="2">
         <f t="shared" si="2"/>
         <v>1.28</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <f t="shared" si="3"/>
         <v>1978</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AD6" s="4">
         <f t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="AD6" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE6" s="4">
+        <f>+S6</f>
         <v>0.10344827586206895</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AG6" s="3">
         <v>1978</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1979</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>80000</v>
       </c>
+      <c r="C7" s="4"/>
       <c r="D7">
         <v>9</v>
       </c>
       <c r="E7">
         <v>36000</v>
       </c>
-      <c r="F7" s="4">
-        <f t="shared" si="6"/>
-        <v>0.125</v>
-      </c>
       <c r="G7">
         <v>14000</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>7.6923076923076872E-2</v>
       </c>
       <c r="I7" s="9">
@@ -1209,76 +1234,81 @@
         <f>SUM($B$3:B7)/$B$3</f>
         <v>7</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="3">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="7"/>
+        <v>1.44</v>
+      </c>
+      <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>1.44</v>
-      </c>
-      <c r="Q7" s="2">
-        <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
-      <c r="S7" s="3"/>
+      <c r="S7" s="4">
+        <f>+E7/E6-1</f>
+        <v>0.125</v>
+      </c>
       <c r="T7" s="3"/>
-      <c r="U7" s="3">
+      <c r="U7" s="3"/>
+      <c r="V7" s="3">
         <v>1979</v>
       </c>
-      <c r="V7" s="17">
+      <c r="W7" s="17">
         <f t="shared" si="1"/>
         <v>7.6923076923076872E-2</v>
       </c>
-      <c r="W7" s="17">
+      <c r="X7" s="17">
+        <f t="shared" si="9"/>
+        <v>0.125</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>1979</v>
+      </c>
+      <c r="Z7" s="2">
         <f t="shared" si="10"/>
-        <v>0.125</v>
-      </c>
-      <c r="X7" s="3">
-        <v>1979</v>
-      </c>
-      <c r="Y7" s="2">
-        <f t="shared" si="11"/>
         <v>1.4</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <f t="shared" si="2"/>
         <v>1.44</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <f t="shared" si="3"/>
         <v>1979</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AD7" s="4">
         <f t="shared" si="4"/>
         <v>0.09</v>
       </c>
-      <c r="AD7" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE7" s="4">
+        <f>+S7</f>
         <v>0.125</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AG7" s="3">
         <v>1979</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1980</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>110000</v>
       </c>
+      <c r="C8" s="4"/>
       <c r="D8">
         <v>10</v>
       </c>
       <c r="E8">
         <v>45000</v>
       </c>
-      <c r="F8" s="4">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
       <c r="G8">
         <v>15000</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>7.1428571428571397E-2</v>
       </c>
       <c r="I8" s="9">
@@ -1305,76 +1335,81 @@
         <f>SUM($B$3:B8)/$B$3</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="3">
+        <f t="shared" si="6"/>
+        <v>460000</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>1.8</v>
-      </c>
-      <c r="Q8" s="2">
-        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="S8" s="3"/>
+      <c r="S8" s="4">
+        <f>+E8/E7-1</f>
+        <v>0.25</v>
+      </c>
       <c r="T8" s="3"/>
-      <c r="U8" s="3">
+      <c r="U8" s="3"/>
+      <c r="V8" s="3">
         <v>1980</v>
       </c>
-      <c r="V8" s="17">
+      <c r="W8" s="17">
         <f t="shared" si="1"/>
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="W8" s="17">
+      <c r="X8" s="17">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>1980</v>
+      </c>
+      <c r="Z8" s="2">
         <f t="shared" si="10"/>
-        <v>0.25</v>
-      </c>
-      <c r="X8" s="3">
-        <v>1980</v>
-      </c>
-      <c r="Y8" s="2">
-        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="AA8" s="2">
         <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <f t="shared" si="3"/>
         <v>1980</v>
       </c>
-      <c r="AC8" s="4">
+      <c r="AD8" s="4">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="AD8" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE8" s="4">
+        <f>+S8</f>
         <v>0.25</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AG8" s="3">
         <v>1980</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1981</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>120000</v>
       </c>
+      <c r="C9" s="4"/>
       <c r="D9">
         <v>11.5</v>
       </c>
       <c r="E9">
         <v>50000</v>
       </c>
-      <c r="F9" s="4">
-        <f t="shared" si="6"/>
-        <v>0.11111111111111116</v>
-      </c>
       <c r="G9">
         <v>17000</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.1333333333333333</v>
       </c>
       <c r="I9" s="9">
@@ -1401,76 +1436,81 @@
         <f>SUM($B$3:B9)/$B$3</f>
         <v>11.6</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="3">
+        <f t="shared" si="6"/>
+        <v>580000</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="R9" s="2">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="Q9" s="2">
-        <f t="shared" si="9"/>
         <v>1.7</v>
       </c>
-      <c r="S9" s="3"/>
+      <c r="S9" s="4">
+        <f>+E9/E8-1</f>
+        <v>0.11111111111111116</v>
+      </c>
       <c r="T9" s="3"/>
-      <c r="U9" s="3">
+      <c r="U9" s="3"/>
+      <c r="V9" s="3">
         <v>1981</v>
       </c>
-      <c r="V9" s="17">
+      <c r="W9" s="17">
         <f t="shared" si="1"/>
         <v>0.1333333333333333</v>
       </c>
-      <c r="W9" s="17">
+      <c r="X9" s="17">
+        <f t="shared" si="9"/>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>1981</v>
+      </c>
+      <c r="Z9" s="2">
         <f t="shared" si="10"/>
-        <v>0.11111111111111116</v>
-      </c>
-      <c r="X9" s="3">
-        <v>1981</v>
-      </c>
-      <c r="Y9" s="2">
-        <f t="shared" si="11"/>
         <v>1.7</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="AA9" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <f t="shared" si="3"/>
         <v>1981</v>
       </c>
-      <c r="AC9" s="4">
+      <c r="AD9" s="4">
         <f t="shared" si="4"/>
         <v>0.115</v>
       </c>
-      <c r="AD9" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE9" s="4">
+        <f>+S9</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AG9" s="3">
         <v>1981</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1982</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>90000</v>
       </c>
+      <c r="C10" s="4"/>
       <c r="D10">
         <v>13.5</v>
       </c>
       <c r="E10">
         <v>55000</v>
       </c>
-      <c r="F10" s="4">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000009</v>
-      </c>
       <c r="G10">
         <v>18000</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5.8823529411764719E-2</v>
       </c>
       <c r="I10" s="9">
@@ -1497,76 +1537,81 @@
         <f>SUM($B$3:B10)/$B$3</f>
         <v>13.4</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="3">
+        <f t="shared" si="6"/>
+        <v>670000</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="7"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R10" s="2">
         <f t="shared" si="8"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q10" s="2">
-        <f t="shared" si="9"/>
         <v>1.8</v>
       </c>
-      <c r="S10" s="3"/>
+      <c r="S10" s="4">
+        <f>+E10/E9-1</f>
+        <v>0.10000000000000009</v>
+      </c>
       <c r="T10" s="3"/>
-      <c r="U10" s="3">
+      <c r="U10" s="3"/>
+      <c r="V10" s="3">
         <v>1982</v>
       </c>
-      <c r="V10" s="17">
+      <c r="W10" s="17">
         <f t="shared" si="1"/>
         <v>5.8823529411764719E-2</v>
       </c>
-      <c r="W10" s="17">
+      <c r="X10" s="17">
+        <f t="shared" si="9"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>1982</v>
+      </c>
+      <c r="Z10" s="2">
         <f t="shared" si="10"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="X10" s="3">
-        <v>1982</v>
-      </c>
-      <c r="Y10" s="2">
-        <f t="shared" si="11"/>
         <v>1.8</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="AA10" s="2">
         <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <f t="shared" si="3"/>
         <v>1982</v>
       </c>
-      <c r="AC10" s="4">
+      <c r="AD10" s="4">
         <f t="shared" si="4"/>
         <v>0.13500000000000001</v>
       </c>
-      <c r="AD10" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE10" s="4">
+        <f>+S10</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AG10" s="3">
         <v>1982</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1983</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>70000</v>
       </c>
+      <c r="C11" s="4"/>
       <c r="D11">
         <v>11</v>
       </c>
       <c r="E11">
         <v>60000</v>
       </c>
-      <c r="F11" s="4">
-        <f t="shared" si="6"/>
-        <v>9.0909090909090828E-2</v>
-      </c>
       <c r="G11">
         <v>20000</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.11111111111111116</v>
       </c>
       <c r="I11" s="9">
@@ -1593,76 +1638,81 @@
         <f>SUM($B$3:B11)/$B$3</f>
         <v>14.8</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="3">
+        <f t="shared" si="6"/>
+        <v>740000</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="7"/>
+        <v>2.4</v>
+      </c>
+      <c r="R11" s="2">
         <f t="shared" si="8"/>
-        <v>2.4</v>
-      </c>
-      <c r="Q11" s="2">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="S11" s="3"/>
+      <c r="S11" s="4">
+        <f>+E11/E10-1</f>
+        <v>9.0909090909090828E-2</v>
+      </c>
       <c r="T11" s="3"/>
-      <c r="U11" s="3">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3">
         <v>1983</v>
       </c>
-      <c r="V11" s="17">
+      <c r="W11" s="17">
         <f t="shared" si="1"/>
         <v>0.11111111111111116</v>
       </c>
-      <c r="W11" s="17">
+      <c r="X11" s="17">
+        <f t="shared" si="9"/>
+        <v>9.0909090909090828E-2</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>1983</v>
+      </c>
+      <c r="Z11" s="2">
         <f t="shared" si="10"/>
-        <v>9.0909090909090828E-2</v>
-      </c>
-      <c r="X11" s="3">
-        <v>1983</v>
-      </c>
-      <c r="Y11" s="2">
-        <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="AA11" s="2">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <f t="shared" si="3"/>
         <v>1983</v>
       </c>
-      <c r="AC11" s="4">
+      <c r="AD11" s="4">
         <f t="shared" si="4"/>
         <v>0.11</v>
       </c>
-      <c r="AD11" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE11" s="4">
+        <f>+S11</f>
         <v>9.0909090909090828E-2</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AG11" s="3">
         <v>1983</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1984</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>80000</v>
       </c>
+      <c r="C12" s="4"/>
       <c r="D12">
         <v>10.5</v>
       </c>
       <c r="E12">
         <v>62000</v>
       </c>
-      <c r="F12" s="4">
-        <f t="shared" si="6"/>
-        <v>3.3333333333333437E-2</v>
-      </c>
       <c r="G12">
         <v>21000</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="I12" s="9">
@@ -1689,76 +1739,81 @@
         <f>SUM($B$3:B12)/$B$3</f>
         <v>16.399999999999999</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="3">
+        <f t="shared" si="6"/>
+        <v>820000</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="7"/>
+        <v>2.48</v>
+      </c>
+      <c r="R12" s="2">
         <f t="shared" si="8"/>
-        <v>2.48</v>
-      </c>
-      <c r="Q12" s="2">
-        <f t="shared" si="9"/>
         <v>2.1</v>
       </c>
-      <c r="S12" s="3"/>
+      <c r="S12" s="4">
+        <f>+E12/E11-1</f>
+        <v>3.3333333333333437E-2</v>
+      </c>
       <c r="T12" s="3"/>
-      <c r="U12" s="3">
+      <c r="U12" s="3"/>
+      <c r="V12" s="3">
         <v>1984</v>
       </c>
-      <c r="V12" s="17">
+      <c r="W12" s="17">
         <f t="shared" si="1"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="W12" s="17">
+      <c r="X12" s="17">
+        <f t="shared" si="9"/>
+        <v>3.3333333333333437E-2</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>1984</v>
+      </c>
+      <c r="Z12" s="2">
         <f t="shared" si="10"/>
-        <v>3.3333333333333437E-2</v>
-      </c>
-      <c r="X12" s="3">
-        <v>1984</v>
-      </c>
-      <c r="Y12" s="2">
-        <f t="shared" si="11"/>
         <v>2.1</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="AA12" s="2">
         <f t="shared" si="2"/>
         <v>2.48</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <f t="shared" si="3"/>
         <v>1984</v>
       </c>
-      <c r="AC12" s="4">
+      <c r="AD12" s="4">
         <f t="shared" si="4"/>
         <v>0.105</v>
       </c>
-      <c r="AD12" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE12" s="4">
+        <f>+S12</f>
         <v>3.3333333333333437E-2</v>
       </c>
-      <c r="AF12" s="3">
+      <c r="AG12" s="3">
         <v>1984</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1985</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>90000</v>
       </c>
+      <c r="C13" s="4"/>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13">
         <v>65000</v>
       </c>
-      <c r="F13" s="4">
-        <f t="shared" si="6"/>
-        <v>4.8387096774193505E-2</v>
-      </c>
       <c r="G13">
         <v>22000</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.7619047619047672E-2</v>
       </c>
       <c r="I13" s="9">
@@ -1785,76 +1840,81 @@
         <f>SUM($B$3:B13)/$B$3</f>
         <v>18.2</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="3">
+        <f t="shared" si="6"/>
+        <v>910000</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="7"/>
+        <v>2.6</v>
+      </c>
+      <c r="R13" s="2">
         <f t="shared" si="8"/>
-        <v>2.6</v>
-      </c>
-      <c r="Q13" s="2">
-        <f t="shared" si="9"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="S13" s="3"/>
+      <c r="S13" s="4">
+        <f>+E13/E12-1</f>
+        <v>4.8387096774193505E-2</v>
+      </c>
       <c r="T13" s="3"/>
-      <c r="U13" s="3">
+      <c r="U13" s="3"/>
+      <c r="V13" s="3">
         <v>1985</v>
       </c>
-      <c r="V13" s="17">
+      <c r="W13" s="17">
         <f t="shared" si="1"/>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="W13" s="17">
+      <c r="X13" s="17">
+        <f t="shared" si="9"/>
+        <v>4.8387096774193505E-2</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>1985</v>
+      </c>
+      <c r="Z13" s="2">
         <f t="shared" si="10"/>
-        <v>4.8387096774193505E-2</v>
-      </c>
-      <c r="X13" s="3">
-        <v>1985</v>
-      </c>
-      <c r="Y13" s="2">
-        <f t="shared" si="11"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="AA13" s="2">
         <f t="shared" si="2"/>
         <v>2.6</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <f t="shared" si="3"/>
         <v>1985</v>
       </c>
-      <c r="AC13" s="4">
+      <c r="AD13" s="4">
         <f t="shared" si="4"/>
         <v>0.12</v>
       </c>
-      <c r="AD13" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE13" s="4">
+        <f>+S13</f>
         <v>4.8387096774193505E-2</v>
       </c>
-      <c r="AF13" s="3">
+      <c r="AG13" s="3">
         <v>1985</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1986</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>110000</v>
       </c>
+      <c r="C14" s="4"/>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14">
         <v>70000</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" si="6"/>
-        <v>7.6923076923076872E-2</v>
-      </c>
       <c r="G14">
         <v>24000</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>9.0909090909090828E-2</v>
       </c>
       <c r="I14" s="9">
@@ -1881,76 +1941,81 @@
         <f>SUM($B$3:B14)/$B$3</f>
         <v>20.399999999999999</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="3">
+        <f t="shared" si="6"/>
+        <v>1020000</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="7"/>
+        <v>2.8</v>
+      </c>
+      <c r="R14" s="2">
         <f t="shared" si="8"/>
-        <v>2.8</v>
-      </c>
-      <c r="Q14" s="2">
-        <f t="shared" si="9"/>
         <v>2.4</v>
       </c>
-      <c r="S14" s="3"/>
+      <c r="S14" s="4">
+        <f>+E14/E13-1</f>
+        <v>7.6923076923076872E-2</v>
+      </c>
       <c r="T14" s="3"/>
-      <c r="U14" s="3">
+      <c r="U14" s="3"/>
+      <c r="V14" s="3">
         <v>1986</v>
       </c>
-      <c r="V14" s="17">
+      <c r="W14" s="17">
         <f t="shared" si="1"/>
         <v>9.0909090909090828E-2</v>
       </c>
-      <c r="W14" s="17">
+      <c r="X14" s="17">
+        <f t="shared" si="9"/>
+        <v>7.6923076923076872E-2</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>1986</v>
+      </c>
+      <c r="Z14" s="2">
         <f t="shared" si="10"/>
-        <v>7.6923076923076872E-2</v>
-      </c>
-      <c r="X14" s="3">
-        <v>1986</v>
-      </c>
-      <c r="Y14" s="2">
-        <f t="shared" si="11"/>
         <v>2.4</v>
       </c>
-      <c r="Z14" s="2">
+      <c r="AA14" s="2">
         <f t="shared" si="2"/>
         <v>2.8</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <f t="shared" si="3"/>
         <v>1986</v>
       </c>
-      <c r="AC14" s="4">
+      <c r="AD14" s="4">
         <f t="shared" si="4"/>
         <v>0.13</v>
       </c>
-      <c r="AD14" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE14" s="4">
+        <f>+S14</f>
         <v>7.6923076923076872E-2</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="AG14" s="3">
         <v>1986</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1987</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>140000</v>
       </c>
+      <c r="C15" s="4"/>
       <c r="D15">
         <v>11.5</v>
       </c>
       <c r="E15">
         <v>80000</v>
       </c>
-      <c r="F15" s="4">
-        <f t="shared" si="6"/>
-        <v>0.14285714285714279</v>
-      </c>
       <c r="G15">
         <v>25000</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="I15" s="9">
@@ -1977,76 +2042,81 @@
         <f>SUM($B$3:B15)/$B$3</f>
         <v>23.2</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="3">
+        <f t="shared" si="6"/>
+        <v>1160000</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="7"/>
+        <v>3.2</v>
+      </c>
+      <c r="R15" s="2">
         <f t="shared" si="8"/>
-        <v>3.2</v>
-      </c>
-      <c r="Q15" s="2">
-        <f t="shared" si="9"/>
         <v>2.5</v>
       </c>
-      <c r="S15" s="3"/>
+      <c r="S15" s="4">
+        <f>+E15/E14-1</f>
+        <v>0.14285714285714279</v>
+      </c>
       <c r="T15" s="3"/>
-      <c r="U15" s="3">
+      <c r="U15" s="3"/>
+      <c r="V15" s="3">
         <v>1987</v>
       </c>
-      <c r="V15" s="17">
+      <c r="W15" s="17">
         <f t="shared" si="1"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="W15" s="17">
+      <c r="X15" s="17">
+        <f t="shared" si="9"/>
+        <v>0.14285714285714279</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>1987</v>
+      </c>
+      <c r="Z15" s="2">
         <f t="shared" si="10"/>
-        <v>0.14285714285714279</v>
-      </c>
-      <c r="X15" s="3">
-        <v>1987</v>
-      </c>
-      <c r="Y15" s="2">
-        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="AA15" s="2">
         <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <f t="shared" si="3"/>
         <v>1987</v>
       </c>
-      <c r="AC15" s="4">
+      <c r="AD15" s="4">
         <f t="shared" si="4"/>
         <v>0.115</v>
       </c>
-      <c r="AD15" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE15" s="4">
+        <f>+S15</f>
         <v>0.14285714285714279</v>
       </c>
-      <c r="AF15" s="3">
+      <c r="AG15" s="3">
         <v>1987</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1988</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>170000</v>
       </c>
+      <c r="C16" s="4"/>
       <c r="D16">
         <v>13.5</v>
       </c>
       <c r="E16">
         <v>90000</v>
       </c>
-      <c r="F16" s="4">
-        <f t="shared" si="6"/>
-        <v>0.125</v>
-      </c>
       <c r="G16">
         <v>27000</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="I16" s="9">
@@ -2073,76 +2143,81 @@
         <f>SUM($B$3:B16)/$B$3</f>
         <v>26.6</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="3">
+        <f t="shared" si="6"/>
+        <v>1330000</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="7"/>
+        <v>3.6</v>
+      </c>
+      <c r="R16" s="2">
         <f t="shared" si="8"/>
-        <v>3.6</v>
-      </c>
-      <c r="Q16" s="2">
-        <f t="shared" si="9"/>
         <v>2.7</v>
       </c>
-      <c r="S16" s="3"/>
+      <c r="S16" s="4">
+        <f>+E16/E15-1</f>
+        <v>0.125</v>
+      </c>
       <c r="T16" s="3"/>
-      <c r="U16" s="3">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3">
         <v>1988</v>
       </c>
-      <c r="V16" s="17">
+      <c r="W16" s="17">
         <f t="shared" si="1"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="W16" s="17">
+      <c r="X16" s="17">
+        <f t="shared" si="9"/>
+        <v>0.125</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>1988</v>
+      </c>
+      <c r="Z16" s="2">
         <f t="shared" si="10"/>
-        <v>0.125</v>
-      </c>
-      <c r="X16" s="3">
-        <v>1988</v>
-      </c>
-      <c r="Y16" s="2">
-        <f t="shared" si="11"/>
         <v>2.7</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="AA16" s="2">
         <f t="shared" si="2"/>
         <v>3.6</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <f t="shared" si="3"/>
         <v>1988</v>
       </c>
-      <c r="AC16" s="4">
+      <c r="AD16" s="4">
         <f t="shared" si="4"/>
         <v>0.13500000000000001</v>
       </c>
-      <c r="AD16" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE16" s="4">
+        <f>+S16</f>
         <v>0.125</v>
       </c>
-      <c r="AF16" s="3">
+      <c r="AG16" s="3">
         <v>1988</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1989</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>130000</v>
       </c>
+      <c r="C17" s="4"/>
       <c r="D17">
         <v>17</v>
       </c>
       <c r="E17">
         <v>100000</v>
       </c>
-      <c r="F17" s="4">
-        <f t="shared" si="6"/>
-        <v>0.11111111111111116</v>
-      </c>
       <c r="G17">
         <v>29000</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>7.4074074074074181E-2</v>
       </c>
       <c r="I17" s="9">
@@ -2169,76 +2244,81 @@
         <f>SUM($B$3:B17)/$B$3</f>
         <v>29.2</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="3">
+        <f t="shared" si="6"/>
+        <v>1460000</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="R17" s="2">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="Q17" s="2">
-        <f t="shared" si="9"/>
         <v>2.9</v>
       </c>
-      <c r="S17" s="3"/>
+      <c r="S17" s="4">
+        <f>+E17/E16-1</f>
+        <v>0.11111111111111116</v>
+      </c>
       <c r="T17" s="3"/>
-      <c r="U17" s="3">
+      <c r="U17" s="3"/>
+      <c r="V17" s="3">
         <v>1989</v>
       </c>
-      <c r="V17" s="17">
+      <c r="W17" s="17">
         <f t="shared" si="1"/>
         <v>7.4074074074074181E-2</v>
       </c>
-      <c r="W17" s="17">
+      <c r="X17" s="17">
+        <f t="shared" si="9"/>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>1989</v>
+      </c>
+      <c r="Z17" s="2">
         <f t="shared" si="10"/>
-        <v>0.11111111111111116</v>
-      </c>
-      <c r="X17" s="3">
-        <v>1989</v>
-      </c>
-      <c r="Y17" s="2">
-        <f t="shared" si="11"/>
         <v>2.9</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="AA17" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <f t="shared" si="3"/>
         <v>1989</v>
       </c>
-      <c r="AC17" s="4">
+      <c r="AD17" s="4">
         <f t="shared" si="4"/>
         <v>0.17</v>
       </c>
-      <c r="AD17" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE17" s="4">
+        <f>+S17</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AG17" s="3">
         <v>1989</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1990</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>100000</v>
       </c>
+      <c r="C18" s="4"/>
       <c r="D18">
         <v>15</v>
       </c>
       <c r="E18">
         <v>110000</v>
       </c>
-      <c r="F18" s="4">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000009</v>
-      </c>
       <c r="G18">
         <v>31000</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>6.8965517241379226E-2</v>
       </c>
       <c r="I18" s="9">
@@ -2265,76 +2345,81 @@
         <f>SUM($B$3:B18)/$B$3</f>
         <v>31.2</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="3">
+        <f t="shared" si="6"/>
+        <v>1560000</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="7"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R18" s="2">
         <f t="shared" si="8"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Q18" s="2">
-        <f t="shared" si="9"/>
         <v>3.1</v>
       </c>
-      <c r="S18" s="3"/>
+      <c r="S18" s="4">
+        <f>+E18/E17-1</f>
+        <v>0.10000000000000009</v>
+      </c>
       <c r="T18" s="3"/>
-      <c r="U18" s="3">
+      <c r="U18" s="3"/>
+      <c r="V18" s="3">
         <v>1990</v>
       </c>
-      <c r="V18" s="17">
+      <c r="W18" s="17">
         <f t="shared" si="1"/>
         <v>6.8965517241379226E-2</v>
       </c>
-      <c r="W18" s="17">
+      <c r="X18" s="17">
+        <f t="shared" si="9"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>1990</v>
+      </c>
+      <c r="Z18" s="2">
         <f t="shared" si="10"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="X18" s="3">
-        <v>1990</v>
-      </c>
-      <c r="Y18" s="2">
-        <f t="shared" si="11"/>
         <v>3.1</v>
       </c>
-      <c r="Z18" s="2">
+      <c r="AA18" s="2">
         <f t="shared" si="2"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <f t="shared" si="3"/>
         <v>1990</v>
       </c>
-      <c r="AC18" s="4">
+      <c r="AD18" s="4">
         <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
-      <c r="AD18" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE18" s="4">
+        <f>+S18</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AG18" s="3">
         <v>1990</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1991</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>90000</v>
       </c>
+      <c r="C19" s="4"/>
       <c r="D19">
         <v>11</v>
       </c>
       <c r="E19">
         <v>115000</v>
       </c>
-      <c r="F19" s="4">
-        <f t="shared" si="6"/>
-        <v>4.5454545454545414E-2</v>
-      </c>
       <c r="G19">
         <v>32000</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.2258064516129004E-2</v>
       </c>
       <c r="I19" s="9">
@@ -2361,76 +2446,81 @@
         <f>SUM($B$3:B19)/$B$3</f>
         <v>33</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19" s="3">
+        <f t="shared" si="6"/>
+        <v>1650000</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="7"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R19" s="2">
         <f t="shared" si="8"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="Q19" s="2">
-        <f t="shared" si="9"/>
         <v>3.2</v>
       </c>
-      <c r="S19" s="3"/>
+      <c r="S19" s="4">
+        <f>+E19/E18-1</f>
+        <v>4.5454545454545414E-2</v>
+      </c>
       <c r="T19" s="3"/>
-      <c r="U19" s="3">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3">
         <v>1991</v>
       </c>
-      <c r="V19" s="17">
+      <c r="W19" s="17">
         <f t="shared" si="1"/>
         <v>3.2258064516129004E-2</v>
       </c>
-      <c r="W19" s="17">
+      <c r="X19" s="17">
+        <f t="shared" si="9"/>
+        <v>4.5454545454545414E-2</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>1991</v>
+      </c>
+      <c r="Z19" s="2">
         <f t="shared" si="10"/>
-        <v>4.5454545454545414E-2</v>
-      </c>
-      <c r="X19" s="3">
-        <v>1991</v>
-      </c>
-      <c r="Y19" s="2">
-        <f t="shared" si="11"/>
         <v>3.2</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="AA19" s="2">
         <f t="shared" si="2"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <f t="shared" si="3"/>
         <v>1991</v>
       </c>
-      <c r="AC19" s="4">
+      <c r="AD19" s="4">
         <f t="shared" si="4"/>
         <v>0.11</v>
       </c>
-      <c r="AD19" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE19" s="4">
+        <f>+S19</f>
         <v>4.5454545454545414E-2</v>
       </c>
-      <c r="AF19" s="3">
+      <c r="AG19" s="3">
         <v>1991</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1992</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>30000</v>
       </c>
+      <c r="C20" s="4"/>
       <c r="D20">
         <v>8</v>
       </c>
       <c r="E20">
         <v>120000</v>
       </c>
-      <c r="F20" s="4">
-        <f t="shared" si="6"/>
-        <v>4.3478260869565188E-2</v>
-      </c>
       <c r="G20">
         <v>33000</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.125E-2</v>
       </c>
       <c r="I20" s="9">
@@ -2457,76 +2547,81 @@
         <f>SUM($B$3:B20)/$B$3</f>
         <v>33.6</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="3">
+        <f t="shared" si="6"/>
+        <v>1680000</v>
+      </c>
+      <c r="Q20" s="2">
+        <f t="shared" si="7"/>
+        <v>4.8</v>
+      </c>
+      <c r="R20" s="2">
         <f t="shared" si="8"/>
-        <v>4.8</v>
-      </c>
-      <c r="Q20" s="2">
-        <f t="shared" si="9"/>
         <v>3.3</v>
       </c>
-      <c r="S20" s="3"/>
+      <c r="S20" s="4">
+        <f>+E20/E19-1</f>
+        <v>4.3478260869565188E-2</v>
+      </c>
       <c r="T20" s="3"/>
-      <c r="U20" s="3">
+      <c r="U20" s="3"/>
+      <c r="V20" s="3">
         <v>1992</v>
       </c>
-      <c r="V20" s="17">
+      <c r="W20" s="17">
         <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
-      <c r="W20" s="17">
+      <c r="X20" s="17">
+        <f t="shared" si="9"/>
+        <v>4.3478260869565188E-2</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>1992</v>
+      </c>
+      <c r="Z20" s="2">
         <f t="shared" si="10"/>
-        <v>4.3478260869565188E-2</v>
-      </c>
-      <c r="X20" s="3">
-        <v>1992</v>
-      </c>
-      <c r="Y20" s="2">
-        <f t="shared" si="11"/>
         <v>3.3</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="AA20" s="2">
         <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <f t="shared" si="3"/>
         <v>1992</v>
       </c>
-      <c r="AC20" s="4">
+      <c r="AD20" s="4">
         <f t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="AD20" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE20" s="4">
+        <f>+S20</f>
         <v>4.3478260869565188E-2</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AG20" s="3">
         <v>1992</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1993</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>47000</v>
       </c>
+      <c r="C21" s="4"/>
       <c r="D21">
         <v>5.5</v>
       </c>
       <c r="E21">
         <v>125000</v>
       </c>
-      <c r="F21" s="4">
-        <f t="shared" si="6"/>
-        <v>4.1666666666666741E-2</v>
-      </c>
       <c r="G21">
         <v>34000</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.0303030303030276E-2</v>
       </c>
       <c r="I21" s="9">
@@ -2553,76 +2648,81 @@
         <f>SUM($B$3:B21)/$B$3</f>
         <v>34.54</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21" s="3">
+        <f t="shared" si="6"/>
+        <v>1727000</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="R21" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="Q21" s="2">
-        <f t="shared" si="9"/>
         <v>3.4</v>
       </c>
-      <c r="S21" s="3"/>
+      <c r="S21" s="4">
+        <f>+E21/E20-1</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
       <c r="T21" s="3"/>
-      <c r="U21" s="3">
+      <c r="U21" s="3"/>
+      <c r="V21" s="3">
         <v>1993</v>
       </c>
-      <c r="V21" s="17">
+      <c r="W21" s="17">
         <f t="shared" si="1"/>
         <v>3.0303030303030276E-2</v>
       </c>
-      <c r="W21" s="17">
+      <c r="X21" s="17">
+        <f t="shared" si="9"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>1993</v>
+      </c>
+      <c r="Z21" s="2">
         <f t="shared" si="10"/>
-        <v>4.1666666666666741E-2</v>
-      </c>
-      <c r="X21" s="3">
-        <v>1993</v>
-      </c>
-      <c r="Y21" s="2">
-        <f t="shared" si="11"/>
         <v>3.4</v>
       </c>
-      <c r="Z21" s="2">
+      <c r="AA21" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <f t="shared" si="3"/>
         <v>1993</v>
       </c>
-      <c r="AC21" s="4">
+      <c r="AD21" s="4">
         <f t="shared" si="4"/>
         <v>5.5E-2</v>
       </c>
-      <c r="AD21" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE21" s="4">
+        <f>+S21</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AG21" s="3">
         <v>1993</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1994</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>80000</v>
       </c>
+      <c r="C22" s="4"/>
       <c r="D22">
         <v>5.5</v>
       </c>
       <c r="E22">
         <v>130000</v>
       </c>
-      <c r="F22" s="4">
-        <f t="shared" si="6"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
       <c r="G22">
         <v>35000</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.9411764705882248E-2</v>
       </c>
       <c r="I22" s="9">
@@ -2649,76 +2749,81 @@
         <f>SUM($B$3:B22)/$B$3</f>
         <v>36.14</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22" s="3">
+        <f t="shared" si="6"/>
+        <v>1807000</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
+      <c r="R22" s="2">
         <f t="shared" si="8"/>
-        <v>5.2</v>
-      </c>
-      <c r="Q22" s="2">
-        <f t="shared" si="9"/>
         <v>3.5</v>
       </c>
-      <c r="S22" s="3"/>
+      <c r="S22" s="4">
+        <f>+E22/E21-1</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
       <c r="T22" s="3"/>
-      <c r="U22" s="3">
+      <c r="U22" s="3"/>
+      <c r="V22" s="3">
         <v>1994</v>
       </c>
-      <c r="V22" s="17">
+      <c r="W22" s="17">
         <f t="shared" si="1"/>
         <v>2.9411764705882248E-2</v>
       </c>
-      <c r="W22" s="17">
+      <c r="X22" s="17">
+        <f t="shared" si="9"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>1994</v>
+      </c>
+      <c r="Z22" s="2">
         <f t="shared" si="10"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="X22" s="3">
-        <v>1994</v>
-      </c>
-      <c r="Y22" s="2">
-        <f t="shared" si="11"/>
         <v>3.5</v>
       </c>
-      <c r="Z22" s="2">
+      <c r="AA22" s="2">
         <f t="shared" si="2"/>
         <v>5.2</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <f t="shared" si="3"/>
         <v>1994</v>
       </c>
-      <c r="AC22" s="4">
+      <c r="AD22" s="4">
         <f t="shared" si="4"/>
         <v>5.5E-2</v>
       </c>
-      <c r="AD22" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE22" s="4">
+        <f>+S22</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AG22" s="3">
         <v>1994</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1995</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>100000</v>
       </c>
+      <c r="C23" s="4"/>
       <c r="D23">
         <v>7.5</v>
       </c>
       <c r="E23">
         <v>130000</v>
       </c>
-      <c r="F23" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="G23">
         <v>36000</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.857142857142847E-2</v>
       </c>
       <c r="I23" s="9">
@@ -2745,76 +2850,81 @@
         <f>SUM($B$3:B23)/$B$3</f>
         <v>38.14</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="3">
+        <f t="shared" si="6"/>
+        <v>1907000</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
+      <c r="R23" s="2">
         <f t="shared" si="8"/>
-        <v>5.2</v>
-      </c>
-      <c r="Q23" s="2">
-        <f t="shared" si="9"/>
         <v>3.6</v>
       </c>
-      <c r="S23" s="3"/>
+      <c r="S23" s="4">
+        <f>+E23/E22-1</f>
+        <v>0</v>
+      </c>
       <c r="T23" s="3"/>
-      <c r="U23" s="3">
+      <c r="U23" s="3"/>
+      <c r="V23" s="3">
         <v>1995</v>
       </c>
-      <c r="V23" s="17">
+      <c r="W23" s="17">
         <f t="shared" si="1"/>
         <v>2.857142857142847E-2</v>
       </c>
-      <c r="W23" s="17">
+      <c r="X23" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>1995</v>
+      </c>
+      <c r="Z23" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X23" s="3">
-        <v>1995</v>
-      </c>
-      <c r="Y23" s="2">
-        <f t="shared" si="11"/>
         <v>3.6</v>
       </c>
-      <c r="Z23" s="2">
+      <c r="AA23" s="2">
         <f t="shared" si="2"/>
         <v>5.2</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <f t="shared" si="3"/>
         <v>1995</v>
       </c>
-      <c r="AC23" s="4">
+      <c r="AD23" s="4">
         <f t="shared" si="4"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD23" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE23" s="4">
+        <f>+S23</f>
         <v>0</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AG23" s="3">
         <v>1995</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1996</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>90000</v>
       </c>
+      <c r="C24" s="4"/>
       <c r="D24">
         <v>7</v>
       </c>
       <c r="E24">
         <v>140000</v>
       </c>
-      <c r="F24" s="4">
-        <f t="shared" si="6"/>
-        <v>7.6923076923076872E-2</v>
-      </c>
       <c r="G24">
         <v>38000</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5.555555555555558E-2</v>
       </c>
       <c r="I24" s="9">
@@ -2841,76 +2951,81 @@
         <f>SUM($B$3:B24)/$B$3</f>
         <v>39.94</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P24" s="3">
+        <f t="shared" si="6"/>
+        <v>1997000</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" si="7"/>
+        <v>5.6</v>
+      </c>
+      <c r="R24" s="2">
         <f t="shared" si="8"/>
-        <v>5.6</v>
-      </c>
-      <c r="Q24" s="2">
-        <f t="shared" si="9"/>
         <v>3.8</v>
       </c>
-      <c r="S24" s="3"/>
+      <c r="S24" s="4">
+        <f>+E24/E23-1</f>
+        <v>7.6923076923076872E-2</v>
+      </c>
       <c r="T24" s="3"/>
-      <c r="U24" s="3">
+      <c r="U24" s="3"/>
+      <c r="V24" s="3">
         <v>1996</v>
       </c>
-      <c r="V24" s="17">
+      <c r="W24" s="17">
         <f t="shared" si="1"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="W24" s="17">
+      <c r="X24" s="17">
+        <f t="shared" si="9"/>
+        <v>7.6923076923076872E-2</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>1996</v>
+      </c>
+      <c r="Z24" s="2">
         <f t="shared" si="10"/>
-        <v>7.6923076923076872E-2</v>
-      </c>
-      <c r="X24" s="3">
-        <v>1996</v>
-      </c>
-      <c r="Y24" s="2">
-        <f t="shared" si="11"/>
         <v>3.8</v>
       </c>
-      <c r="Z24" s="2">
+      <c r="AA24" s="2">
         <f t="shared" si="2"/>
         <v>5.6</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <f t="shared" si="3"/>
         <v>1996</v>
       </c>
-      <c r="AC24" s="4">
+      <c r="AD24" s="4">
         <f t="shared" si="4"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AD24" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE24" s="4">
+        <f>+S24</f>
         <v>7.6923076923076872E-2</v>
       </c>
-      <c r="AF24" s="3">
+      <c r="AG24" s="3">
         <v>1996</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1997</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>80000</v>
       </c>
+      <c r="C25" s="4"/>
       <c r="D25">
         <v>5.5</v>
       </c>
       <c r="E25">
         <v>150000</v>
       </c>
-      <c r="F25" s="4">
-        <f t="shared" si="6"/>
-        <v>7.1428571428571397E-2</v>
-      </c>
       <c r="G25">
         <v>39000</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.6315789473684292E-2</v>
       </c>
       <c r="I25" s="9">
@@ -2937,76 +3052,81 @@
         <f>SUM($B$3:B25)/$B$3</f>
         <v>41.54</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="3">
+        <f t="shared" si="6"/>
+        <v>2077000</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="R25" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="Q25" s="2">
-        <f t="shared" si="9"/>
         <v>3.9</v>
       </c>
-      <c r="S25" s="3"/>
+      <c r="S25" s="4">
+        <f>+E25/E24-1</f>
+        <v>7.1428571428571397E-2</v>
+      </c>
       <c r="T25" s="3"/>
-      <c r="U25" s="3">
+      <c r="U25" s="3"/>
+      <c r="V25" s="3">
         <v>1997</v>
       </c>
-      <c r="V25" s="17">
+      <c r="W25" s="17">
         <f t="shared" si="1"/>
         <v>2.6315789473684292E-2</v>
       </c>
-      <c r="W25" s="17">
+      <c r="X25" s="17">
+        <f t="shared" si="9"/>
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>1997</v>
+      </c>
+      <c r="Z25" s="2">
         <f t="shared" si="10"/>
-        <v>7.1428571428571397E-2</v>
-      </c>
-      <c r="X25" s="3">
-        <v>1997</v>
-      </c>
-      <c r="Y25" s="2">
-        <f t="shared" si="11"/>
         <v>3.9</v>
       </c>
-      <c r="Z25" s="2">
+      <c r="AA25" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <f t="shared" si="3"/>
         <v>1997</v>
       </c>
-      <c r="AC25" s="4">
+      <c r="AD25" s="4">
         <f t="shared" si="4"/>
         <v>5.5E-2</v>
       </c>
-      <c r="AD25" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE25" s="4">
+        <f>+S25</f>
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="AF25" s="3">
+      <c r="AG25" s="3">
         <v>1997</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1998</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>90000</v>
       </c>
+      <c r="C26" s="4"/>
       <c r="D26">
         <v>5</v>
       </c>
       <c r="E26">
         <v>155000</v>
       </c>
-      <c r="F26" s="4">
-        <f t="shared" si="6"/>
-        <v>3.3333333333333437E-2</v>
-      </c>
       <c r="G26">
         <v>40000</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.564102564102555E-2</v>
       </c>
       <c r="I26" s="10">
@@ -3033,76 +3153,81 @@
         <f>SUM($B$3:B26)/$B$3</f>
         <v>43.34</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P26" s="3">
+        <f t="shared" si="6"/>
+        <v>2167000</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="7"/>
+        <v>6.2</v>
+      </c>
+      <c r="R26" s="2">
         <f t="shared" si="8"/>
-        <v>6.2</v>
-      </c>
-      <c r="Q26" s="2">
-        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="S26" s="3"/>
+      <c r="S26" s="4">
+        <f>+E26/E25-1</f>
+        <v>3.3333333333333437E-2</v>
+      </c>
       <c r="T26" s="3"/>
-      <c r="U26" s="3">
+      <c r="U26" s="3"/>
+      <c r="V26" s="3">
         <v>1998</v>
       </c>
-      <c r="V26" s="17">
+      <c r="W26" s="17">
         <f t="shared" si="1"/>
         <v>2.564102564102555E-2</v>
       </c>
-      <c r="W26" s="17">
+      <c r="X26" s="17">
+        <f t="shared" si="9"/>
+        <v>3.3333333333333437E-2</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>1998</v>
+      </c>
+      <c r="Z26" s="2">
         <f t="shared" si="10"/>
-        <v>3.3333333333333437E-2</v>
-      </c>
-      <c r="X26" s="3">
-        <v>1998</v>
-      </c>
-      <c r="Y26" s="2">
-        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="Z26" s="2">
+      <c r="AA26" s="2">
         <f t="shared" si="2"/>
         <v>6.2</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <f t="shared" si="3"/>
         <v>1998</v>
       </c>
-      <c r="AC26" s="4">
+      <c r="AD26" s="4">
         <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
-      <c r="AD26" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE26" s="4">
+        <f>+S26</f>
         <v>3.3333333333333437E-2</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AG26" s="3">
         <v>1998</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1999</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>100000</v>
       </c>
+      <c r="C27" s="4"/>
       <c r="D27">
         <v>5</v>
       </c>
       <c r="E27">
         <v>160000</v>
       </c>
-      <c r="F27" s="4">
-        <f t="shared" si="6"/>
-        <v>3.2258064516129004E-2</v>
-      </c>
       <c r="G27">
         <v>42000</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="I27" s="10">
@@ -3129,76 +3254,81 @@
         <f>SUM($B$3:B27)/$B$3</f>
         <v>45.34</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P27" s="3">
+        <f t="shared" si="6"/>
+        <v>2267000</v>
+      </c>
+      <c r="Q27" s="2">
+        <f t="shared" si="7"/>
+        <v>6.4</v>
+      </c>
+      <c r="R27" s="2">
         <f t="shared" si="8"/>
-        <v>6.4</v>
-      </c>
-      <c r="Q27" s="2">
-        <f t="shared" si="9"/>
         <v>4.2</v>
       </c>
-      <c r="S27" s="3"/>
+      <c r="S27" s="4">
+        <f>+E27/E26-1</f>
+        <v>3.2258064516129004E-2</v>
+      </c>
       <c r="T27" s="3"/>
-      <c r="U27" s="3">
+      <c r="U27" s="3"/>
+      <c r="V27" s="3">
         <v>1999</v>
       </c>
-      <c r="V27" s="17">
+      <c r="W27" s="17">
         <f t="shared" si="1"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="W27" s="17">
+      <c r="X27" s="17">
+        <f t="shared" si="9"/>
+        <v>3.2258064516129004E-2</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>1999</v>
+      </c>
+      <c r="Z27" s="2">
         <f t="shared" si="10"/>
-        <v>3.2258064516129004E-2</v>
-      </c>
-      <c r="X27" s="3">
-        <v>1999</v>
-      </c>
-      <c r="Y27" s="2">
-        <f t="shared" si="11"/>
         <v>4.2</v>
       </c>
-      <c r="Z27" s="2">
+      <c r="AA27" s="2">
         <f t="shared" si="2"/>
         <v>6.4</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <f t="shared" si="3"/>
         <v>1999</v>
       </c>
-      <c r="AC27" s="4">
+      <c r="AD27" s="4">
         <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
-      <c r="AD27" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE27" s="4">
+        <f>+S27</f>
         <v>3.2258064516129004E-2</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AG27" s="3">
         <v>1999</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2000</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>110000</v>
       </c>
+      <c r="C28" s="4"/>
       <c r="D28">
         <v>6</v>
       </c>
       <c r="E28">
         <v>170000</v>
       </c>
-      <c r="F28" s="4">
-        <f t="shared" si="6"/>
-        <v>6.25E-2</v>
-      </c>
       <c r="G28">
         <v>44000</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.7619047619047672E-2</v>
       </c>
       <c r="I28" s="10">
@@ -3225,76 +3355,81 @@
         <f>SUM($B$3:B28)/$B$3</f>
         <v>47.54</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P28" s="3">
+        <f t="shared" si="6"/>
+        <v>2377000</v>
+      </c>
+      <c r="Q28" s="2">
+        <f t="shared" si="7"/>
+        <v>6.8</v>
+      </c>
+      <c r="R28" s="2">
         <f t="shared" si="8"/>
-        <v>6.8</v>
-      </c>
-      <c r="Q28" s="2">
-        <f t="shared" si="9"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="S28" s="3"/>
+      <c r="S28" s="4">
+        <f>+E28/E27-1</f>
+        <v>6.25E-2</v>
+      </c>
       <c r="T28" s="3"/>
-      <c r="U28" s="3">
+      <c r="U28" s="3"/>
+      <c r="V28" s="3">
         <v>2000</v>
       </c>
-      <c r="V28" s="17">
+      <c r="W28" s="17">
         <f t="shared" si="1"/>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="W28" s="17">
+      <c r="X28" s="17">
+        <f t="shared" si="9"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Z28" s="2">
         <f t="shared" si="10"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="X28" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Y28" s="2">
-        <f t="shared" si="11"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="Z28" s="2">
+      <c r="AA28" s="2">
         <f t="shared" si="2"/>
         <v>6.8</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="AC28" s="4">
+      <c r="AD28" s="4">
         <f t="shared" si="4"/>
         <v>0.06</v>
       </c>
-      <c r="AD28" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE28" s="4">
+        <f>+S28</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AF28" s="3">
+      <c r="AG28" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2001</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>120000</v>
       </c>
+      <c r="C29" s="4"/>
       <c r="D29">
         <v>5</v>
       </c>
       <c r="E29">
         <v>180000</v>
       </c>
-      <c r="F29" s="4">
-        <f t="shared" si="6"/>
-        <v>5.8823529411764719E-2</v>
-      </c>
       <c r="G29">
         <v>46000</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.5454545454545414E-2</v>
       </c>
       <c r="I29" s="10">
@@ -3321,76 +3456,81 @@
         <f>SUM($B$3:B29)/$B$3</f>
         <v>49.94</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P29" s="3">
+        <f t="shared" si="6"/>
+        <v>2497000</v>
+      </c>
+      <c r="Q29" s="2">
+        <f t="shared" si="7"/>
+        <v>7.2</v>
+      </c>
+      <c r="R29" s="2">
         <f t="shared" si="8"/>
-        <v>7.2</v>
-      </c>
-      <c r="Q29" s="2">
-        <f t="shared" si="9"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="S29" s="3"/>
+      <c r="S29" s="4">
+        <f>+E29/E28-1</f>
+        <v>5.8823529411764719E-2</v>
+      </c>
       <c r="T29" s="3"/>
-      <c r="U29" s="3">
+      <c r="U29" s="3"/>
+      <c r="V29" s="3">
         <v>2001</v>
       </c>
-      <c r="V29" s="17">
+      <c r="W29" s="17">
         <f t="shared" si="1"/>
         <v>4.5454545454545414E-2</v>
       </c>
-      <c r="W29" s="17">
+      <c r="X29" s="17">
+        <f t="shared" si="9"/>
+        <v>5.8823529411764719E-2</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>2001</v>
+      </c>
+      <c r="Z29" s="2">
         <f t="shared" si="10"/>
-        <v>5.8823529411764719E-2</v>
-      </c>
-      <c r="X29" s="3">
-        <v>2001</v>
-      </c>
-      <c r="Y29" s="2">
-        <f t="shared" si="11"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="Z29" s="2">
+      <c r="AA29" s="2">
         <f t="shared" si="2"/>
         <v>7.2</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <f t="shared" si="3"/>
         <v>2001</v>
       </c>
-      <c r="AC29" s="4">
+      <c r="AD29" s="4">
         <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
-      <c r="AD29" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE29" s="4">
+        <f>+S29</f>
         <v>5.8823529411764719E-2</v>
       </c>
-      <c r="AF29" s="3">
+      <c r="AG29" s="3">
         <v>2001</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2002</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>130000</v>
       </c>
+      <c r="C30" s="4"/>
       <c r="D30">
         <v>4.75</v>
       </c>
       <c r="E30">
         <v>200000</v>
       </c>
-      <c r="F30" s="4">
-        <f t="shared" si="6"/>
-        <v>0.11111111111111116</v>
-      </c>
       <c r="G30">
         <v>48000</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.3478260869565188E-2</v>
       </c>
       <c r="I30" s="9">
@@ -3417,76 +3557,81 @@
         <f>SUM($B$3:B30)/$B$3</f>
         <v>52.54</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30" s="3">
+        <f t="shared" si="6"/>
+        <v>2627000</v>
+      </c>
+      <c r="Q30" s="2">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="R30" s="2">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="Q30" s="2">
-        <f t="shared" si="9"/>
         <v>4.8</v>
       </c>
-      <c r="S30" s="3"/>
+      <c r="S30" s="4">
+        <f>+E30/E29-1</f>
+        <v>0.11111111111111116</v>
+      </c>
       <c r="T30" s="3"/>
-      <c r="U30" s="3">
+      <c r="U30" s="3"/>
+      <c r="V30" s="3">
         <v>2002</v>
       </c>
-      <c r="V30" s="17">
+      <c r="W30" s="17">
         <f t="shared" si="1"/>
         <v>4.3478260869565188E-2</v>
       </c>
-      <c r="W30" s="17">
+      <c r="X30" s="17">
+        <f t="shared" si="9"/>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>2002</v>
+      </c>
+      <c r="Z30" s="2">
         <f t="shared" si="10"/>
-        <v>0.11111111111111116</v>
-      </c>
-      <c r="X30" s="3">
-        <v>2002</v>
-      </c>
-      <c r="Y30" s="2">
-        <f t="shared" si="11"/>
         <v>4.8</v>
       </c>
-      <c r="Z30" s="2">
+      <c r="AA30" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <f t="shared" si="3"/>
         <v>2002</v>
       </c>
-      <c r="AC30" s="4">
+      <c r="AD30" s="4">
         <f t="shared" si="4"/>
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="AD30" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE30" s="4">
+        <f>+S30</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="AF30" s="3">
+      <c r="AG30" s="3">
         <v>2002</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2003</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>140000</v>
       </c>
+      <c r="C31" s="4"/>
       <c r="D31">
         <v>4.75</v>
       </c>
       <c r="E31">
         <v>230000</v>
       </c>
-      <c r="F31" s="4">
-        <f t="shared" si="6"/>
-        <v>0.14999999999999991</v>
-      </c>
       <c r="G31">
         <v>50000</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="I31" s="10">
@@ -3513,76 +3658,81 @@
         <f>SUM($B$3:B31)/$B$3</f>
         <v>55.34</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P31" s="3">
+        <f t="shared" si="6"/>
+        <v>2767000</v>
+      </c>
+      <c r="Q31" s="2">
+        <f t="shared" si="7"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="R31" s="2">
         <f t="shared" si="8"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="Q31" s="2">
-        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="S31" s="3"/>
+      <c r="S31" s="4">
+        <f>+E31/E30-1</f>
+        <v>0.14999999999999991</v>
+      </c>
       <c r="T31" s="3"/>
-      <c r="U31" s="3">
+      <c r="U31" s="3"/>
+      <c r="V31" s="3">
         <v>2003</v>
       </c>
-      <c r="V31" s="17">
+      <c r="W31" s="17">
         <f t="shared" si="1"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="W31" s="17">
+      <c r="X31" s="17">
+        <f t="shared" si="9"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>2003</v>
+      </c>
+      <c r="Z31" s="2">
         <f t="shared" si="10"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="X31" s="3">
-        <v>2003</v>
-      </c>
-      <c r="Y31" s="2">
-        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="Z31" s="2">
+      <c r="AA31" s="2">
         <f t="shared" si="2"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <f t="shared" si="3"/>
         <v>2003</v>
       </c>
-      <c r="AC31" s="4">
+      <c r="AD31" s="4">
         <f t="shared" si="4"/>
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="AD31" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE31" s="4">
+        <f>+S31</f>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AF31" s="3">
+      <c r="AG31" s="3">
         <v>2003</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2004</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>150000</v>
       </c>
+      <c r="C32" s="4"/>
       <c r="D32">
         <v>5.25</v>
       </c>
       <c r="E32">
         <v>250000</v>
       </c>
-      <c r="F32" s="4">
-        <f t="shared" si="6"/>
-        <v>8.6956521739130377E-2</v>
-      </c>
       <c r="G32">
         <v>52000</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="I32" s="10">
@@ -3609,76 +3759,81 @@
         <f>SUM($B$3:B32)/$B$3</f>
         <v>58.34</v>
       </c>
-      <c r="P32" s="2">
+      <c r="P32" s="3">
+        <f t="shared" si="6"/>
+        <v>2917000</v>
+      </c>
+      <c r="Q32" s="2">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="R32" s="2">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="Q32" s="2">
-        <f t="shared" si="9"/>
         <v>5.2</v>
       </c>
-      <c r="S32" s="3"/>
+      <c r="S32" s="4">
+        <f>+E32/E31-1</f>
+        <v>8.6956521739130377E-2</v>
+      </c>
       <c r="T32" s="3"/>
-      <c r="U32" s="3">
+      <c r="U32" s="3"/>
+      <c r="V32" s="3">
         <v>2004</v>
       </c>
-      <c r="V32" s="17">
+      <c r="W32" s="17">
         <f t="shared" si="1"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="W32" s="17">
+      <c r="X32" s="17">
+        <f t="shared" si="9"/>
+        <v>8.6956521739130377E-2</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>2004</v>
+      </c>
+      <c r="Z32" s="2">
         <f t="shared" si="10"/>
-        <v>8.6956521739130377E-2</v>
-      </c>
-      <c r="X32" s="3">
-        <v>2004</v>
-      </c>
-      <c r="Y32" s="2">
-        <f t="shared" si="11"/>
         <v>5.2</v>
       </c>
-      <c r="Z32" s="2">
+      <c r="AA32" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <f t="shared" si="3"/>
         <v>2004</v>
       </c>
-      <c r="AC32" s="4">
+      <c r="AD32" s="4">
         <f t="shared" si="4"/>
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="AD32" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE32" s="4">
+        <f>+S32</f>
         <v>8.6956521739130377E-2</v>
       </c>
-      <c r="AF32" s="3">
+      <c r="AG32" s="3">
         <v>2004</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2005</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>160000</v>
       </c>
+      <c r="C33" s="4"/>
       <c r="D33">
         <v>5.5</v>
       </c>
       <c r="E33">
         <v>260000</v>
       </c>
-      <c r="F33" s="4">
-        <f t="shared" si="6"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
       <c r="G33">
         <v>55000</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5.7692307692307709E-2</v>
       </c>
       <c r="I33" s="10">
@@ -3705,76 +3860,81 @@
         <f>SUM($B$3:B33)/$B$3</f>
         <v>61.54</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33" s="3">
+        <f t="shared" si="6"/>
+        <v>3077000</v>
+      </c>
+      <c r="Q33" s="2">
+        <f t="shared" si="7"/>
+        <v>10.4</v>
+      </c>
+      <c r="R33" s="2">
         <f t="shared" si="8"/>
-        <v>10.4</v>
-      </c>
-      <c r="Q33" s="2">
-        <f t="shared" si="9"/>
         <v>5.5</v>
       </c>
-      <c r="S33" s="3"/>
+      <c r="S33" s="4">
+        <f>+E33/E32-1</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
       <c r="T33" s="3"/>
-      <c r="U33" s="3">
+      <c r="U33" s="3"/>
+      <c r="V33" s="3">
         <v>2005</v>
       </c>
-      <c r="V33" s="17">
+      <c r="W33" s="17">
         <f t="shared" si="1"/>
         <v>5.7692307692307709E-2</v>
       </c>
-      <c r="W33" s="17">
+      <c r="X33" s="17">
+        <f t="shared" si="9"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>2005</v>
+      </c>
+      <c r="Z33" s="2">
         <f t="shared" si="10"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="X33" s="3">
-        <v>2005</v>
-      </c>
-      <c r="Y33" s="2">
-        <f t="shared" si="11"/>
         <v>5.5</v>
       </c>
-      <c r="Z33" s="2">
+      <c r="AA33" s="2">
         <f t="shared" si="2"/>
         <v>10.4</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <f t="shared" si="3"/>
         <v>2005</v>
       </c>
-      <c r="AC33" s="4">
+      <c r="AD33" s="4">
         <f t="shared" si="4"/>
         <v>5.5E-2</v>
       </c>
-      <c r="AD33" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE33" s="4">
+        <f>+S33</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AG33" s="3">
         <v>2005</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2006</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>180000</v>
       </c>
+      <c r="C34" s="4"/>
       <c r="D34">
         <v>6</v>
       </c>
       <c r="E34">
         <v>300000</v>
       </c>
-      <c r="F34" s="4">
-        <f t="shared" si="6"/>
-        <v>0.15384615384615374</v>
-      </c>
       <c r="G34">
         <v>58000</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5.4545454545454453E-2</v>
       </c>
       <c r="I34" s="10">
@@ -3801,76 +3961,81 @@
         <f>SUM($B$3:B34)/$B$3</f>
         <v>65.14</v>
       </c>
-      <c r="P34" s="2">
+      <c r="P34" s="3">
+        <f t="shared" si="6"/>
+        <v>3257000</v>
+      </c>
+      <c r="Q34" s="2">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="R34" s="2">
         <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="Q34" s="2">
-        <f t="shared" si="9"/>
         <v>5.8</v>
       </c>
-      <c r="S34" s="3"/>
+      <c r="S34" s="4">
+        <f>+E34/E33-1</f>
+        <v>0.15384615384615374</v>
+      </c>
       <c r="T34" s="3"/>
-      <c r="U34" s="3">
+      <c r="U34" s="3"/>
+      <c r="V34" s="3">
         <v>2006</v>
       </c>
-      <c r="V34" s="17">
+      <c r="W34" s="17">
         <f t="shared" si="1"/>
         <v>5.4545454545454453E-2</v>
       </c>
-      <c r="W34" s="17">
+      <c r="X34" s="17">
+        <f t="shared" si="9"/>
+        <v>0.15384615384615374</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>2006</v>
+      </c>
+      <c r="Z34" s="2">
         <f t="shared" si="10"/>
-        <v>0.15384615384615374</v>
-      </c>
-      <c r="X34" s="3">
-        <v>2006</v>
-      </c>
-      <c r="Y34" s="2">
-        <f t="shared" si="11"/>
         <v>5.8</v>
       </c>
-      <c r="Z34" s="2">
+      <c r="AA34" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <f t="shared" si="3"/>
         <v>2006</v>
       </c>
-      <c r="AC34" s="4">
+      <c r="AD34" s="4">
         <f t="shared" si="4"/>
         <v>0.06</v>
       </c>
-      <c r="AD34" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE34" s="4">
+        <f>+S34</f>
         <v>0.15384615384615374</v>
       </c>
-      <c r="AF34" s="3">
+      <c r="AG34" s="3">
         <v>2006</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2007</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>200000</v>
       </c>
+      <c r="C35" s="4"/>
       <c r="D35">
         <v>6.5</v>
       </c>
       <c r="E35">
         <v>350000</v>
       </c>
-      <c r="F35" s="4">
-        <f t="shared" si="6"/>
-        <v>0.16666666666666674</v>
-      </c>
       <c r="G35">
         <v>61000</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5.1724137931034475E-2</v>
       </c>
       <c r="I35" s="10">
@@ -3897,76 +4062,81 @@
         <f>SUM($B$3:B35)/$B$3</f>
         <v>69.14</v>
       </c>
-      <c r="P35" s="2">
+      <c r="P35" s="3">
+        <f t="shared" si="6"/>
+        <v>3457000</v>
+      </c>
+      <c r="Q35" s="2">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="R35" s="2">
         <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="Q35" s="2">
-        <f t="shared" si="9"/>
         <v>6.1</v>
       </c>
-      <c r="S35" s="3"/>
+      <c r="S35" s="4">
+        <f>+E35/E34-1</f>
+        <v>0.16666666666666674</v>
+      </c>
       <c r="T35" s="3"/>
-      <c r="U35" s="3">
+      <c r="U35" s="3"/>
+      <c r="V35" s="3">
         <v>2007</v>
       </c>
-      <c r="V35" s="17">
+      <c r="W35" s="17">
         <f t="shared" si="1"/>
         <v>5.1724137931034475E-2</v>
       </c>
-      <c r="W35" s="17">
+      <c r="X35" s="17">
+        <f t="shared" si="9"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>2007</v>
+      </c>
+      <c r="Z35" s="2">
         <f t="shared" si="10"/>
-        <v>0.16666666666666674</v>
-      </c>
-      <c r="X35" s="3">
-        <v>2007</v>
-      </c>
-      <c r="Y35" s="2">
-        <f t="shared" si="11"/>
         <v>6.1</v>
       </c>
-      <c r="Z35" s="2">
+      <c r="AA35" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <f t="shared" si="3"/>
         <v>2007</v>
       </c>
-      <c r="AC35" s="4">
+      <c r="AD35" s="4">
         <f t="shared" si="4"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="AD35" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE35" s="4">
+        <f>+S35</f>
         <v>0.16666666666666674</v>
       </c>
-      <c r="AF35" s="3">
+      <c r="AG35" s="3">
         <v>2007</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2008</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>230000</v>
       </c>
+      <c r="C36" s="4"/>
       <c r="D36">
         <v>7.25</v>
       </c>
       <c r="E36">
         <v>380000</v>
       </c>
-      <c r="F36" s="4">
-        <f t="shared" si="6"/>
-        <v>8.5714285714285632E-2</v>
-      </c>
       <c r="G36">
         <v>65000</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>6.5573770491803351E-2</v>
       </c>
       <c r="I36" s="9">
@@ -3993,76 +4163,81 @@
         <f>SUM($B$3:B36)/$B$3</f>
         <v>73.739999999999995</v>
       </c>
-      <c r="P36" s="2">
+      <c r="P36" s="3">
+        <f t="shared" si="6"/>
+        <v>3687000</v>
+      </c>
+      <c r="Q36" s="2">
+        <f t="shared" si="7"/>
+        <v>15.2</v>
+      </c>
+      <c r="R36" s="2">
         <f t="shared" si="8"/>
-        <v>15.2</v>
-      </c>
-      <c r="Q36" s="2">
-        <f t="shared" si="9"/>
         <v>6.5</v>
       </c>
-      <c r="S36" s="3"/>
+      <c r="S36" s="4">
+        <f>+E36/E35-1</f>
+        <v>8.5714285714285632E-2</v>
+      </c>
       <c r="T36" s="3"/>
-      <c r="U36" s="3">
+      <c r="U36" s="3"/>
+      <c r="V36" s="3">
         <v>2008</v>
       </c>
-      <c r="V36" s="17">
+      <c r="W36" s="17">
         <f t="shared" si="1"/>
         <v>6.5573770491803351E-2</v>
       </c>
-      <c r="W36" s="17">
+      <c r="X36" s="17">
+        <f t="shared" si="9"/>
+        <v>8.5714285714285632E-2</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>2008</v>
+      </c>
+      <c r="Z36" s="2">
         <f t="shared" si="10"/>
-        <v>8.5714285714285632E-2</v>
-      </c>
-      <c r="X36" s="3">
-        <v>2008</v>
-      </c>
-      <c r="Y36" s="2">
-        <f t="shared" si="11"/>
         <v>6.5</v>
       </c>
-      <c r="Z36" s="2">
+      <c r="AA36" s="2">
         <f t="shared" si="2"/>
         <v>15.2</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <f t="shared" si="3"/>
         <v>2008</v>
       </c>
-      <c r="AC36" s="4">
+      <c r="AD36" s="4">
         <f t="shared" si="4"/>
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD36" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE36" s="4">
+        <f>+S36</f>
         <v>8.5714285714285632E-2</v>
       </c>
-      <c r="AF36" s="3">
+      <c r="AG36" s="3">
         <v>2008</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2009</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>200000</v>
       </c>
+      <c r="C37" s="4"/>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37">
         <v>400000</v>
       </c>
-      <c r="F37" s="4">
-        <f t="shared" si="6"/>
-        <v>5.2631578947368363E-2</v>
-      </c>
       <c r="G37">
         <v>68000</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.6153846153846212E-2</v>
       </c>
       <c r="I37" s="10">
@@ -4089,76 +4264,81 @@
         <f>SUM($B$3:B37)/$B$3</f>
         <v>77.739999999999995</v>
       </c>
-      <c r="P37" s="2">
+      <c r="P37" s="3">
+        <f t="shared" si="6"/>
+        <v>3887000</v>
+      </c>
+      <c r="Q37" s="2">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="R37" s="2">
         <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="Q37" s="2">
-        <f t="shared" si="9"/>
         <v>6.8</v>
       </c>
-      <c r="S37" s="3"/>
+      <c r="S37" s="4">
+        <f>+E37/E36-1</f>
+        <v>5.2631578947368363E-2</v>
+      </c>
       <c r="T37" s="3"/>
-      <c r="U37" s="3">
+      <c r="U37" s="3"/>
+      <c r="V37" s="3">
         <v>2009</v>
       </c>
-      <c r="V37" s="17">
+      <c r="W37" s="17">
         <f t="shared" si="1"/>
         <v>4.6153846153846212E-2</v>
       </c>
-      <c r="W37" s="17">
+      <c r="X37" s="17">
+        <f t="shared" si="9"/>
+        <v>5.2631578947368363E-2</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>2009</v>
+      </c>
+      <c r="Z37" s="2">
         <f t="shared" si="10"/>
-        <v>5.2631578947368363E-2</v>
-      </c>
-      <c r="X37" s="3">
-        <v>2009</v>
-      </c>
-      <c r="Y37" s="2">
-        <f t="shared" si="11"/>
         <v>6.8</v>
       </c>
-      <c r="Z37" s="2">
+      <c r="AA37" s="2">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <f t="shared" si="3"/>
         <v>2009</v>
       </c>
-      <c r="AC37" s="4">
+      <c r="AD37" s="4">
         <f t="shared" si="4"/>
         <v>0.03</v>
       </c>
-      <c r="AD37" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE37" s="4">
+        <f>+S37</f>
         <v>5.2631578947368363E-2</v>
       </c>
-      <c r="AF37" s="3">
+      <c r="AG37" s="3">
         <v>2009</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2010</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>180000</v>
       </c>
+      <c r="C38" s="4"/>
       <c r="D38">
         <v>4.75</v>
       </c>
       <c r="E38">
         <v>420000</v>
       </c>
-      <c r="F38" s="4">
-        <f t="shared" si="6"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
       <c r="G38">
         <v>71000</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.4117647058823595E-2</v>
       </c>
       <c r="I38" s="10">
@@ -4185,76 +4365,81 @@
         <f>SUM($B$3:B38)/$B$3</f>
         <v>81.34</v>
       </c>
-      <c r="P38" s="2">
+      <c r="P38" s="3">
+        <f t="shared" si="6"/>
+        <v>4067000</v>
+      </c>
+      <c r="Q38" s="2">
+        <f t="shared" si="7"/>
+        <v>16.8</v>
+      </c>
+      <c r="R38" s="2">
         <f t="shared" si="8"/>
-        <v>16.8</v>
-      </c>
-      <c r="Q38" s="2">
-        <f t="shared" si="9"/>
         <v>7.1</v>
       </c>
-      <c r="S38" s="3"/>
+      <c r="S38" s="4">
+        <f>+E38/E37-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
       <c r="T38" s="3"/>
-      <c r="U38" s="3">
+      <c r="U38" s="3"/>
+      <c r="V38" s="3">
         <v>2010</v>
       </c>
-      <c r="V38" s="17">
+      <c r="W38" s="17">
         <f t="shared" si="1"/>
         <v>4.4117647058823595E-2</v>
       </c>
-      <c r="W38" s="17">
+      <c r="X38" s="17">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>2010</v>
+      </c>
+      <c r="Z38" s="2">
         <f t="shared" si="10"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="X38" s="3">
-        <v>2010</v>
-      </c>
-      <c r="Y38" s="2">
-        <f t="shared" si="11"/>
         <v>7.1</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <f t="shared" si="2"/>
         <v>16.8</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <f t="shared" si="3"/>
         <v>2010</v>
       </c>
-      <c r="AC38" s="4">
+      <c r="AD38" s="4">
         <f t="shared" si="4"/>
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="AD38" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE38" s="4">
+        <f>+S38</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AF38" s="3">
+      <c r="AG38" s="3">
         <v>2010</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2011</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>190000</v>
       </c>
+      <c r="C39" s="4"/>
       <c r="D39">
         <v>4.75</v>
       </c>
       <c r="E39">
         <v>430000</v>
       </c>
-      <c r="F39" s="4">
-        <f t="shared" si="6"/>
-        <v>2.3809523809523725E-2</v>
-      </c>
       <c r="G39">
         <v>74000</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.2253521126760507E-2</v>
       </c>
       <c r="I39" s="10">
@@ -4281,76 +4466,81 @@
         <f>SUM($B$3:B39)/$B$3</f>
         <v>85.14</v>
       </c>
-      <c r="P39" s="2">
+      <c r="P39" s="3">
+        <f t="shared" si="6"/>
+        <v>4257000</v>
+      </c>
+      <c r="Q39" s="2">
+        <f t="shared" si="7"/>
+        <v>17.2</v>
+      </c>
+      <c r="R39" s="2">
         <f t="shared" si="8"/>
-        <v>17.2</v>
-      </c>
-      <c r="Q39" s="2">
-        <f t="shared" si="9"/>
         <v>7.4</v>
       </c>
-      <c r="S39" s="3"/>
+      <c r="S39" s="4">
+        <f>+E39/E38-1</f>
+        <v>2.3809523809523725E-2</v>
+      </c>
       <c r="T39" s="3"/>
-      <c r="U39" s="3">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3">
         <v>2011</v>
       </c>
-      <c r="V39" s="17">
+      <c r="W39" s="17">
         <f t="shared" si="1"/>
         <v>4.2253521126760507E-2</v>
       </c>
-      <c r="W39" s="17">
+      <c r="X39" s="17">
+        <f t="shared" si="9"/>
+        <v>2.3809523809523725E-2</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>2011</v>
+      </c>
+      <c r="Z39" s="2">
         <f t="shared" si="10"/>
-        <v>2.3809523809523725E-2</v>
-      </c>
-      <c r="X39" s="3">
-        <v>2011</v>
-      </c>
-      <c r="Y39" s="2">
-        <f t="shared" si="11"/>
         <v>7.4</v>
       </c>
-      <c r="Z39" s="2">
+      <c r="AA39" s="2">
         <f t="shared" si="2"/>
         <v>17.2</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <f t="shared" si="3"/>
         <v>2011</v>
       </c>
-      <c r="AC39" s="4">
+      <c r="AD39" s="4">
         <f t="shared" si="4"/>
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="AD39" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE39" s="4">
+        <f>+S39</f>
         <v>2.3809523809523725E-2</v>
       </c>
-      <c r="AF39" s="3">
+      <c r="AG39" s="3">
         <v>2011</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2012</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>200000</v>
       </c>
+      <c r="C40" s="4"/>
       <c r="D40">
         <v>3.5</v>
       </c>
       <c r="E40">
         <v>450000</v>
       </c>
-      <c r="F40" s="4">
-        <f t="shared" si="6"/>
-        <v>4.6511627906976827E-2</v>
-      </c>
       <c r="G40">
         <v>77000</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.0540540540540571E-2</v>
       </c>
       <c r="I40" s="10">
@@ -4377,76 +4567,81 @@
         <f>SUM($B$3:B40)/$B$3</f>
         <v>89.14</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P40" s="3">
+        <f t="shared" si="6"/>
+        <v>4457000</v>
+      </c>
+      <c r="Q40" s="2">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="R40" s="2">
         <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="Q40" s="2">
-        <f t="shared" si="9"/>
         <v>7.7</v>
       </c>
-      <c r="S40" s="3"/>
+      <c r="S40" s="4">
+        <f>+E40/E39-1</f>
+        <v>4.6511627906976827E-2</v>
+      </c>
       <c r="T40" s="3"/>
-      <c r="U40" s="3">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3">
         <v>2012</v>
       </c>
-      <c r="V40" s="17">
+      <c r="W40" s="17">
         <f t="shared" si="1"/>
         <v>4.0540540540540571E-2</v>
       </c>
-      <c r="W40" s="17">
+      <c r="X40" s="17">
+        <f t="shared" si="9"/>
+        <v>4.6511627906976827E-2</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>2012</v>
+      </c>
+      <c r="Z40" s="2">
         <f t="shared" si="10"/>
-        <v>4.6511627906976827E-2</v>
-      </c>
-      <c r="X40" s="3">
-        <v>2012</v>
-      </c>
-      <c r="Y40" s="2">
-        <f t="shared" si="11"/>
         <v>7.7</v>
       </c>
-      <c r="Z40" s="2">
+      <c r="AA40" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <f t="shared" si="3"/>
         <v>2012</v>
       </c>
-      <c r="AC40" s="4">
+      <c r="AD40" s="4">
         <f t="shared" si="4"/>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AD40" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE40" s="4">
+        <f>+S40</f>
         <v>4.6511627906976827E-2</v>
       </c>
-      <c r="AF40" s="3">
+      <c r="AG40" s="3">
         <v>2012</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2013</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>190000</v>
       </c>
+      <c r="C41" s="4"/>
       <c r="D41">
         <v>2.5</v>
       </c>
       <c r="E41">
         <v>480000</v>
       </c>
-      <c r="F41" s="4">
-        <f t="shared" si="6"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
       <c r="G41">
         <v>80000</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.8961038961038863E-2</v>
       </c>
       <c r="I41" s="10">
@@ -4473,76 +4668,81 @@
         <f>SUM($B$3:B41)/$B$3</f>
         <v>92.94</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P41" s="3">
+        <f t="shared" si="6"/>
+        <v>4647000</v>
+      </c>
+      <c r="Q41" s="2">
+        <f t="shared" si="7"/>
+        <v>19.2</v>
+      </c>
+      <c r="R41" s="2">
         <f t="shared" si="8"/>
-        <v>19.2</v>
-      </c>
-      <c r="Q41" s="2">
-        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="S41" s="3"/>
+      <c r="S41" s="4">
+        <f>+E41/E40-1</f>
+        <v>6.6666666666666652E-2</v>
+      </c>
       <c r="T41" s="3"/>
-      <c r="U41" s="3">
+      <c r="U41" s="3"/>
+      <c r="V41" s="3">
         <v>2013</v>
       </c>
-      <c r="V41" s="17">
+      <c r="W41" s="17">
         <f t="shared" si="1"/>
         <v>3.8961038961038863E-2</v>
       </c>
-      <c r="W41" s="17">
+      <c r="X41" s="17">
+        <f t="shared" si="9"/>
+        <v>6.6666666666666652E-2</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>2013</v>
+      </c>
+      <c r="Z41" s="2">
         <f t="shared" si="10"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="X41" s="3">
-        <v>2013</v>
-      </c>
-      <c r="Y41" s="2">
-        <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="Z41" s="2">
+      <c r="AA41" s="2">
         <f t="shared" si="2"/>
         <v>19.2</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <f t="shared" si="3"/>
         <v>2013</v>
       </c>
-      <c r="AC41" s="4">
+      <c r="AD41" s="4">
         <f t="shared" si="4"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AD41" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE41" s="4">
+        <f>+S41</f>
         <v>6.6666666666666652E-2</v>
       </c>
-      <c r="AF41" s="3">
+      <c r="AG41" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2014</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>180000</v>
       </c>
+      <c r="C42" s="4"/>
       <c r="D42">
         <v>2.5</v>
       </c>
       <c r="E42">
         <v>510000</v>
       </c>
-      <c r="F42" s="4">
-        <f t="shared" si="6"/>
-        <v>6.25E-2</v>
-      </c>
       <c r="G42">
         <v>83000</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.7500000000000089E-2</v>
       </c>
       <c r="I42" s="10">
@@ -4569,76 +4769,81 @@
         <f>SUM($B$3:B42)/$B$3</f>
         <v>96.54</v>
       </c>
-      <c r="P42" s="2">
+      <c r="P42" s="3">
+        <f t="shared" si="6"/>
+        <v>4827000</v>
+      </c>
+      <c r="Q42" s="2">
+        <f t="shared" si="7"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="R42" s="2">
         <f t="shared" si="8"/>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="Q42" s="2">
-        <f t="shared" si="9"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="S42" s="3"/>
+      <c r="S42" s="4">
+        <f>+E42/E41-1</f>
+        <v>6.25E-2</v>
+      </c>
       <c r="T42" s="3"/>
-      <c r="U42" s="3">
+      <c r="U42" s="3"/>
+      <c r="V42" s="3">
         <v>2014</v>
       </c>
-      <c r="V42" s="17">
+      <c r="W42" s="17">
         <f t="shared" si="1"/>
         <v>3.7500000000000089E-2</v>
       </c>
-      <c r="W42" s="17">
+      <c r="X42" s="17">
+        <f t="shared" si="9"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>2014</v>
+      </c>
+      <c r="Z42" s="2">
         <f t="shared" si="10"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="X42" s="3">
-        <v>2014</v>
-      </c>
-      <c r="Y42" s="2">
-        <f t="shared" si="11"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="Z42" s="2">
+      <c r="AA42" s="2">
         <f t="shared" si="2"/>
         <v>20.399999999999999</v>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <f t="shared" si="3"/>
         <v>2014</v>
       </c>
-      <c r="AC42" s="4">
+      <c r="AD42" s="4">
         <f t="shared" si="4"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AD42" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE42" s="4">
+        <f>+S42</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AF42" s="3">
+      <c r="AG42" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2015</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>179000</v>
       </c>
+      <c r="C43" s="4"/>
       <c r="D43">
         <v>2</v>
       </c>
       <c r="E43">
         <v>550000</v>
       </c>
-      <c r="F43" s="4">
-        <f t="shared" si="6"/>
-        <v>7.8431372549019551E-2</v>
-      </c>
       <c r="G43">
         <v>85000</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.4096385542168752E-2</v>
       </c>
       <c r="I43" s="10">
@@ -4665,76 +4870,81 @@
         <f>SUM($B$3:B43)/$B$3</f>
         <v>100.12</v>
       </c>
-      <c r="P43" s="2">
+      <c r="P43" s="3">
+        <f t="shared" si="6"/>
+        <v>5006000</v>
+      </c>
+      <c r="Q43" s="2">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="R43" s="2">
         <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-      <c r="Q43" s="2">
-        <f t="shared" si="9"/>
         <v>8.5</v>
       </c>
-      <c r="S43" s="3"/>
+      <c r="S43" s="4">
+        <f>+E43/E42-1</f>
+        <v>7.8431372549019551E-2</v>
+      </c>
       <c r="T43" s="3"/>
-      <c r="U43" s="3">
+      <c r="U43" s="3"/>
+      <c r="V43" s="3">
         <v>2015</v>
       </c>
-      <c r="V43" s="17">
+      <c r="W43" s="17">
         <f t="shared" si="1"/>
         <v>2.4096385542168752E-2</v>
       </c>
-      <c r="W43" s="17">
+      <c r="X43" s="17">
+        <f t="shared" si="9"/>
+        <v>7.8431372549019551E-2</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>2015</v>
+      </c>
+      <c r="Z43" s="2">
         <f t="shared" si="10"/>
-        <v>7.8431372549019551E-2</v>
-      </c>
-      <c r="X43" s="3">
-        <v>2015</v>
-      </c>
-      <c r="Y43" s="2">
-        <f t="shared" si="11"/>
         <v>8.5</v>
       </c>
-      <c r="Z43" s="2">
+      <c r="AA43" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="AB43">
+      <c r="AC43">
         <f t="shared" si="3"/>
         <v>2015</v>
       </c>
-      <c r="AC43" s="4">
+      <c r="AD43" s="4">
         <f t="shared" si="4"/>
         <v>0.02</v>
       </c>
-      <c r="AD43" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE43" s="4">
+        <f>+S43</f>
         <v>7.8431372549019551E-2</v>
       </c>
-      <c r="AF43" s="3">
+      <c r="AG43" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2016</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <v>190000</v>
       </c>
+      <c r="C44" s="4"/>
       <c r="D44">
         <v>1.5</v>
       </c>
       <c r="E44">
         <v>580000</v>
       </c>
-      <c r="F44" s="4">
-        <f t="shared" si="6"/>
-        <v>5.4545454545454453E-2</v>
-      </c>
       <c r="G44">
         <v>87000</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.3529411764705799E-2</v>
       </c>
       <c r="I44" s="10">
@@ -4761,76 +4971,81 @@
         <f>SUM($B$3:B44)/$B$3</f>
         <v>103.92</v>
       </c>
-      <c r="P44" s="2">
+      <c r="P44" s="3">
+        <f t="shared" si="6"/>
+        <v>5196000</v>
+      </c>
+      <c r="Q44" s="2">
+        <f t="shared" si="7"/>
+        <v>23.2</v>
+      </c>
+      <c r="R44" s="2">
         <f t="shared" si="8"/>
-        <v>23.2</v>
-      </c>
-      <c r="Q44" s="2">
-        <f t="shared" si="9"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="S44" s="3"/>
+      <c r="S44" s="4">
+        <f>+E44/E43-1</f>
+        <v>5.4545454545454453E-2</v>
+      </c>
       <c r="T44" s="3"/>
-      <c r="U44" s="3">
+      <c r="U44" s="3"/>
+      <c r="V44" s="3">
         <v>2016</v>
       </c>
-      <c r="V44" s="17">
+      <c r="W44" s="17">
         <f t="shared" si="1"/>
         <v>2.3529411764705799E-2</v>
       </c>
-      <c r="W44" s="17">
+      <c r="X44" s="17">
+        <f t="shared" si="9"/>
+        <v>5.4545454545454453E-2</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>2016</v>
+      </c>
+      <c r="Z44" s="2">
         <f t="shared" si="10"/>
-        <v>5.4545454545454453E-2</v>
-      </c>
-      <c r="X44" s="3">
-        <v>2016</v>
-      </c>
-      <c r="Y44" s="2">
-        <f t="shared" si="11"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="Z44" s="2">
+      <c r="AA44" s="2">
         <f t="shared" si="2"/>
         <v>23.2</v>
       </c>
-      <c r="AB44">
+      <c r="AC44">
         <f t="shared" si="3"/>
         <v>2016</v>
       </c>
-      <c r="AC44" s="4">
+      <c r="AD44" s="4">
         <f t="shared" si="4"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AD44" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE44" s="4">
+        <f>+S44</f>
         <v>5.4545454545454453E-2</v>
       </c>
-      <c r="AF44" s="3">
+      <c r="AG44" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2017</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>200000</v>
       </c>
+      <c r="C45" s="4"/>
       <c r="D45">
         <v>1.5</v>
       </c>
       <c r="E45">
         <v>620000</v>
       </c>
-      <c r="F45" s="4">
-        <f t="shared" si="6"/>
-        <v>6.8965517241379226E-2</v>
-      </c>
       <c r="G45">
         <v>89000</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.2988505747126409E-2</v>
       </c>
       <c r="I45" s="10">
@@ -4857,76 +5072,81 @@
         <f>SUM($B$3:B45)/$B$3</f>
         <v>107.92</v>
       </c>
-      <c r="P45" s="2">
+      <c r="P45" s="3">
+        <f t="shared" si="6"/>
+        <v>5396000</v>
+      </c>
+      <c r="Q45" s="2">
+        <f t="shared" si="7"/>
+        <v>24.8</v>
+      </c>
+      <c r="R45" s="2">
         <f t="shared" si="8"/>
-        <v>24.8</v>
-      </c>
-      <c r="Q45" s="2">
-        <f t="shared" si="9"/>
         <v>8.9</v>
       </c>
-      <c r="S45" s="3"/>
+      <c r="S45" s="4">
+        <f>+E45/E44-1</f>
+        <v>6.8965517241379226E-2</v>
+      </c>
       <c r="T45" s="3"/>
-      <c r="U45" s="3">
+      <c r="U45" s="3"/>
+      <c r="V45" s="3">
         <v>2017</v>
       </c>
-      <c r="V45" s="17">
+      <c r="W45" s="17">
         <f t="shared" si="1"/>
         <v>2.2988505747126409E-2</v>
       </c>
-      <c r="W45" s="17">
+      <c r="X45" s="17">
+        <f t="shared" si="9"/>
+        <v>6.8965517241379226E-2</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>2017</v>
+      </c>
+      <c r="Z45" s="2">
         <f t="shared" si="10"/>
-        <v>6.8965517241379226E-2</v>
-      </c>
-      <c r="X45" s="3">
-        <v>2017</v>
-      </c>
-      <c r="Y45" s="2">
-        <f t="shared" si="11"/>
         <v>8.9</v>
       </c>
-      <c r="Z45" s="2">
+      <c r="AA45" s="2">
         <f t="shared" si="2"/>
         <v>24.8</v>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="AC45" s="4">
+      <c r="AD45" s="4">
         <f t="shared" si="4"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AD45" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE45" s="4">
+        <f>+S45</f>
         <v>6.8965517241379226E-2</v>
       </c>
-      <c r="AF45" s="3">
+      <c r="AG45" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2018</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>210000</v>
       </c>
+      <c r="C46" s="4"/>
       <c r="D46">
         <v>1.5</v>
       </c>
       <c r="E46">
         <v>610000</v>
       </c>
-      <c r="F46" s="4">
-        <f t="shared" si="6"/>
-        <v>-1.6129032258064502E-2</v>
-      </c>
       <c r="G46">
         <v>91000</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.2471910112359605E-2</v>
       </c>
       <c r="I46" s="10">
@@ -4953,76 +5173,81 @@
         <f>SUM($B$3:B46)/$B$3</f>
         <v>112.12</v>
       </c>
-      <c r="P46" s="2">
+      <c r="P46" s="3">
+        <f t="shared" si="6"/>
+        <v>5606000</v>
+      </c>
+      <c r="Q46" s="2">
+        <f t="shared" si="7"/>
+        <v>24.4</v>
+      </c>
+      <c r="R46" s="2">
         <f t="shared" si="8"/>
-        <v>24.4</v>
-      </c>
-      <c r="Q46" s="2">
-        <f t="shared" si="9"/>
         <v>9.1</v>
       </c>
-      <c r="S46" s="3"/>
+      <c r="S46" s="4">
+        <f>+E46/E45-1</f>
+        <v>-1.6129032258064502E-2</v>
+      </c>
       <c r="T46" s="3"/>
-      <c r="U46" s="3">
+      <c r="U46" s="3"/>
+      <c r="V46" s="3">
         <v>2018</v>
       </c>
-      <c r="V46" s="17">
+      <c r="W46" s="17">
         <f t="shared" si="1"/>
         <v>2.2471910112359605E-2</v>
       </c>
-      <c r="W46" s="17">
+      <c r="X46" s="17">
+        <f t="shared" si="9"/>
+        <v>-1.6129032258064502E-2</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>2018</v>
+      </c>
+      <c r="Z46" s="2">
         <f t="shared" si="10"/>
-        <v>-1.6129032258064502E-2</v>
-      </c>
-      <c r="X46" s="3">
-        <v>2018</v>
-      </c>
-      <c r="Y46" s="2">
-        <f t="shared" si="11"/>
         <v>9.1</v>
       </c>
-      <c r="Z46" s="2">
+      <c r="AA46" s="2">
         <f t="shared" si="2"/>
         <v>24.4</v>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <f t="shared" si="3"/>
         <v>2018</v>
       </c>
-      <c r="AC46" s="4">
+      <c r="AD46" s="4">
         <f t="shared" si="4"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AD46" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE46" s="4">
+        <f>+S46</f>
         <v>-1.6129032258064502E-2</v>
       </c>
-      <c r="AF46" s="3">
+      <c r="AG46" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2019</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>194000</v>
       </c>
+      <c r="C47" s="4"/>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47">
         <v>600000</v>
       </c>
-      <c r="F47" s="4">
-        <f t="shared" si="6"/>
-        <v>-1.6393442622950838E-2</v>
-      </c>
       <c r="G47">
         <v>93000</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.19780219780219E-2</v>
       </c>
       <c r="I47" s="10">
@@ -5049,76 +5274,81 @@
         <f>SUM($B$3:B47)/$B$3</f>
         <v>116</v>
       </c>
-      <c r="P47" s="2">
+      <c r="P47" s="3">
+        <f t="shared" si="6"/>
+        <v>5800000</v>
+      </c>
+      <c r="Q47" s="2">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="R47" s="2">
         <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="Q47" s="2">
-        <f t="shared" si="9"/>
         <v>9.3000000000000007</v>
       </c>
-      <c r="S47" s="3"/>
+      <c r="S47" s="4">
+        <f>+E47/E46-1</f>
+        <v>-1.6393442622950838E-2</v>
+      </c>
       <c r="T47" s="3"/>
-      <c r="U47" s="3">
+      <c r="U47" s="3"/>
+      <c r="V47" s="3">
         <v>2019</v>
       </c>
-      <c r="V47" s="17">
+      <c r="W47" s="17">
         <f t="shared" si="1"/>
         <v>2.19780219780219E-2</v>
       </c>
-      <c r="W47" s="17">
+      <c r="X47" s="17">
+        <f t="shared" si="9"/>
+        <v>-1.6393442622950838E-2</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>2019</v>
+      </c>
+      <c r="Z47" s="2">
         <f t="shared" si="10"/>
-        <v>-1.6393442622950838E-2</v>
-      </c>
-      <c r="X47" s="3">
-        <v>2019</v>
-      </c>
-      <c r="Y47" s="2">
-        <f t="shared" si="11"/>
         <v>9.3000000000000007</v>
       </c>
-      <c r="Z47" s="2">
+      <c r="AA47" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="AB47">
+      <c r="AC47">
         <f t="shared" si="3"/>
         <v>2019</v>
       </c>
-      <c r="AC47" s="4">
+      <c r="AD47" s="4">
         <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
-      <c r="AD47" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE47" s="4">
+        <f>+S47</f>
         <v>-1.6393442622950838E-2</v>
       </c>
-      <c r="AF47" s="3">
+      <c r="AG47" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>2020</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>-85000</v>
       </c>
+      <c r="C48" s="4"/>
       <c r="D48">
         <v>0.1</v>
       </c>
       <c r="E48">
         <v>650000</v>
       </c>
-      <c r="F48" s="4">
-        <f t="shared" si="6"/>
-        <v>8.3333333333333259E-2</v>
-      </c>
       <c r="G48">
         <v>95000</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.1505376344086002E-2</v>
       </c>
       <c r="I48" s="10">
@@ -5145,76 +5375,81 @@
         <f>SUM($B$3:B48)/$B$3</f>
         <v>114.3</v>
       </c>
-      <c r="P48" s="2">
+      <c r="P48" s="3">
+        <f t="shared" si="6"/>
+        <v>5715000</v>
+      </c>
+      <c r="Q48" s="2">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="R48" s="2">
         <f t="shared" si="8"/>
-        <v>26</v>
-      </c>
-      <c r="Q48" s="2">
-        <f t="shared" si="9"/>
         <v>9.5</v>
       </c>
-      <c r="S48" s="3"/>
+      <c r="S48" s="4">
+        <f>+E48/E47-1</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
       <c r="T48" s="3"/>
-      <c r="U48" s="3">
+      <c r="U48" s="3"/>
+      <c r="V48" s="3">
         <v>2020</v>
       </c>
-      <c r="V48" s="17">
+      <c r="W48" s="17">
         <f t="shared" si="1"/>
         <v>2.1505376344086002E-2</v>
       </c>
-      <c r="W48" s="17">
+      <c r="X48" s="17">
+        <f t="shared" si="9"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>2020</v>
+      </c>
+      <c r="Z48" s="2">
         <f t="shared" si="10"/>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="X48" s="3">
-        <v>2020</v>
-      </c>
-      <c r="Y48" s="2">
-        <f t="shared" si="11"/>
         <v>9.5</v>
       </c>
-      <c r="Z48" s="2">
+      <c r="AA48" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="AB48">
+      <c r="AC48">
         <f t="shared" si="3"/>
         <v>2020</v>
       </c>
-      <c r="AC48" s="4">
+      <c r="AD48" s="4">
         <f t="shared" si="4"/>
         <v>1E-3</v>
       </c>
-      <c r="AD48" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE48" s="4">
+        <f>+S48</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="AF48" s="3">
+      <c r="AG48" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2021</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>171000</v>
       </c>
+      <c r="C49" s="4"/>
       <c r="D49">
         <v>0.1</v>
       </c>
       <c r="E49">
         <v>750000</v>
       </c>
-      <c r="F49" s="4">
-        <f t="shared" si="6"/>
-        <v>0.15384615384615374</v>
-      </c>
       <c r="G49">
         <v>97000</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.1052631578947434E-2</v>
       </c>
       <c r="I49" s="10">
@@ -5241,76 +5476,81 @@
         <f>SUM($B$3:B49)/$B$3</f>
         <v>117.72</v>
       </c>
-      <c r="P49" s="2">
+      <c r="P49" s="3">
+        <f t="shared" si="6"/>
+        <v>5886000</v>
+      </c>
+      <c r="Q49" s="2">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="R49" s="2">
         <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="Q49" s="2">
-        <f t="shared" si="9"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="S49" s="3"/>
+      <c r="S49" s="4">
+        <f>+E49/E48-1</f>
+        <v>0.15384615384615374</v>
+      </c>
       <c r="T49" s="3"/>
-      <c r="U49" s="3">
+      <c r="U49" s="3"/>
+      <c r="V49" s="3">
         <v>2021</v>
       </c>
-      <c r="V49" s="17">
+      <c r="W49" s="17">
         <f t="shared" si="1"/>
         <v>2.1052631578947434E-2</v>
       </c>
-      <c r="W49" s="17">
+      <c r="X49" s="17">
+        <f t="shared" si="9"/>
+        <v>0.15384615384615374</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>2021</v>
+      </c>
+      <c r="Z49" s="2">
         <f t="shared" si="10"/>
-        <v>0.15384615384615374</v>
-      </c>
-      <c r="X49" s="3">
-        <v>2021</v>
-      </c>
-      <c r="Y49" s="2">
-        <f t="shared" si="11"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="Z49" s="2">
+      <c r="AA49" s="2">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="AB49">
+      <c r="AC49">
         <f t="shared" si="3"/>
         <v>2021</v>
       </c>
-      <c r="AC49" s="4">
+      <c r="AD49" s="4">
         <f t="shared" si="4"/>
         <v>1E-3</v>
       </c>
-      <c r="AD49" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE49" s="4">
+        <f>+S49</f>
         <v>0.15384615384615374</v>
       </c>
-      <c r="AF49" s="3">
+      <c r="AG49" s="3">
         <v>2021</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>2022</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>536000</v>
       </c>
+      <c r="C50" s="4"/>
       <c r="D50">
         <v>2.35</v>
       </c>
       <c r="E50">
         <v>800000</v>
       </c>
-      <c r="F50" s="4">
-        <f t="shared" si="6"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
       <c r="G50">
         <v>99000</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.0618556701030855E-2</v>
       </c>
       <c r="I50" s="10">
@@ -5337,76 +5577,81 @@
         <f>SUM($B$3:B50)/$B$3</f>
         <v>128.44</v>
       </c>
-      <c r="P50" s="2">
+      <c r="P50" s="3">
+        <f t="shared" si="6"/>
+        <v>6422000</v>
+      </c>
+      <c r="Q50" s="2">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="R50" s="2">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="Q50" s="2">
-        <f t="shared" si="9"/>
         <v>9.9</v>
       </c>
-      <c r="S50" s="3"/>
+      <c r="S50" s="4">
+        <f>+E50/E49-1</f>
+        <v>6.6666666666666652E-2</v>
+      </c>
       <c r="T50" s="3"/>
-      <c r="U50" s="3">
+      <c r="U50" s="3"/>
+      <c r="V50" s="3">
         <v>2022</v>
       </c>
-      <c r="V50" s="17">
+      <c r="W50" s="17">
         <f t="shared" si="1"/>
         <v>2.0618556701030855E-2</v>
       </c>
-      <c r="W50" s="17">
+      <c r="X50" s="17">
+        <f t="shared" si="9"/>
+        <v>6.6666666666666652E-2</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>2022</v>
+      </c>
+      <c r="Z50" s="2">
         <f t="shared" si="10"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="X50" s="3">
-        <v>2022</v>
-      </c>
-      <c r="Y50" s="2">
-        <f t="shared" si="11"/>
         <v>9.9</v>
       </c>
-      <c r="Z50" s="2">
+      <c r="AA50" s="2">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="AB50">
+      <c r="AC50">
         <f t="shared" si="3"/>
         <v>2022</v>
       </c>
-      <c r="AC50" s="4">
+      <c r="AD50" s="4">
         <f t="shared" si="4"/>
         <v>2.35E-2</v>
       </c>
-      <c r="AD50" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE50" s="4">
+        <f>+S50</f>
         <v>6.6666666666666652E-2</v>
       </c>
-      <c r="AF50" s="3">
+      <c r="AG50" s="3">
         <v>2022</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>2023</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>446000</v>
       </c>
+      <c r="C51" s="4"/>
       <c r="D51">
         <v>4.0999999999999996</v>
       </c>
       <c r="E51">
         <v>850000</v>
       </c>
-      <c r="F51" s="4">
-        <f t="shared" si="6"/>
-        <v>6.25E-2</v>
-      </c>
       <c r="G51">
         <v>100000</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.0101010101010166E-2</v>
       </c>
       <c r="I51" s="10">
@@ -5433,76 +5678,81 @@
         <f>SUM($B$3:B51)/$B$3</f>
         <v>137.36000000000001</v>
       </c>
-      <c r="P51" s="2">
+      <c r="P51" s="3">
+        <f t="shared" si="6"/>
+        <v>6868000</v>
+      </c>
+      <c r="Q51" s="2">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="R51" s="2">
         <f t="shared" si="8"/>
-        <v>34</v>
-      </c>
-      <c r="Q51" s="2">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="S51" s="3"/>
+      <c r="S51" s="4">
+        <f>+E51/E50-1</f>
+        <v>6.25E-2</v>
+      </c>
       <c r="T51" s="3"/>
-      <c r="U51" s="3">
+      <c r="U51" s="3"/>
+      <c r="V51" s="3">
         <v>2023</v>
       </c>
-      <c r="V51" s="17">
+      <c r="W51" s="17">
         <f t="shared" si="1"/>
         <v>1.0101010101010166E-2</v>
       </c>
-      <c r="W51" s="17">
+      <c r="X51" s="17">
+        <f t="shared" si="9"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>2023</v>
+      </c>
+      <c r="Z51" s="2">
         <f t="shared" si="10"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="X51" s="3">
-        <v>2023</v>
-      </c>
-      <c r="Y51" s="2">
-        <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="Z51" s="2">
+      <c r="AA51" s="2">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="AB51">
+      <c r="AC51">
         <f t="shared" si="3"/>
         <v>2023</v>
       </c>
-      <c r="AC51" s="4">
+      <c r="AD51" s="4">
         <f t="shared" si="4"/>
         <v>4.0999999999999995E-2</v>
       </c>
-      <c r="AD51" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE51" s="4">
+        <f>+S51</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AF51" s="3">
+      <c r="AG51" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="52" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>2024</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>446000</v>
       </c>
+      <c r="C52" s="4"/>
       <c r="D52">
         <v>4.3499999999999996</v>
       </c>
       <c r="E52">
         <v>918000</v>
       </c>
-      <c r="F52" s="4">
-        <f t="shared" si="6"/>
-        <v>8.0000000000000071E-2</v>
-      </c>
       <c r="G52">
         <v>103000</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="I52" s="10">
@@ -5529,76 +5779,81 @@
         <f>SUM($B$3:B52)/$B$3</f>
         <v>146.28</v>
       </c>
-      <c r="P52" s="2">
+      <c r="P52" s="3">
+        <f t="shared" si="6"/>
+        <v>7314000</v>
+      </c>
+      <c r="Q52" s="2">
+        <f t="shared" si="7"/>
+        <v>36.72</v>
+      </c>
+      <c r="R52" s="2">
         <f t="shared" si="8"/>
-        <v>36.72</v>
-      </c>
-      <c r="Q52" s="2">
-        <f t="shared" si="9"/>
         <v>10.3</v>
       </c>
-      <c r="S52" s="3"/>
+      <c r="S52" s="4">
+        <f>+E52/E51-1</f>
+        <v>8.0000000000000071E-2</v>
+      </c>
       <c r="T52" s="3"/>
-      <c r="U52" s="3">
+      <c r="U52" s="3"/>
+      <c r="V52" s="3">
         <v>2024</v>
       </c>
-      <c r="V52" s="17">
+      <c r="W52" s="17">
         <f t="shared" si="1"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="W52" s="17">
+      <c r="X52" s="17">
+        <f t="shared" si="9"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>2024</v>
+      </c>
+      <c r="Z52" s="2">
         <f t="shared" si="10"/>
-        <v>8.0000000000000071E-2</v>
-      </c>
-      <c r="X52" s="3">
-        <v>2024</v>
-      </c>
-      <c r="Y52" s="2">
-        <f t="shared" si="11"/>
         <v>10.3</v>
       </c>
-      <c r="Z52" s="2">
+      <c r="AA52" s="2">
         <f t="shared" si="2"/>
         <v>36.72</v>
       </c>
-      <c r="AB52">
+      <c r="AC52">
         <f t="shared" si="3"/>
         <v>2024</v>
       </c>
-      <c r="AC52" s="4">
+      <c r="AD52" s="4">
         <f t="shared" si="4"/>
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="AD52" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE52" s="4">
+        <f>+S52</f>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="AF52" s="3">
+      <c r="AG52" s="3">
         <v>2024</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2025</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C53" s="4"/>
       <c r="D53">
         <v>3.85</v>
       </c>
       <c r="E53">
         <v>1199000</v>
       </c>
-      <c r="F53" s="4">
-        <f t="shared" si="6"/>
-        <v>0.3061002178649237</v>
-      </c>
       <c r="G53">
         <v>105000</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.9417475728155331E-2</v>
       </c>
       <c r="I53" s="10">
@@ -5625,51 +5880,59 @@
         <f>SUM($B$3:B53)/$B$3</f>
         <v>146.28</v>
       </c>
-      <c r="P53" s="2">
+      <c r="P53" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q53" s="2">
+        <f t="shared" si="7"/>
+        <v>47.96</v>
+      </c>
+      <c r="R53" s="2">
         <f t="shared" si="8"/>
-        <v>47.96</v>
-      </c>
-      <c r="Q53" s="2">
-        <f t="shared" si="9"/>
         <v>10.5</v>
       </c>
-      <c r="S53" s="3"/>
+      <c r="S53" s="4">
+        <f>+E53/E52-1</f>
+        <v>0.3061002178649237</v>
+      </c>
       <c r="T53" s="3"/>
-      <c r="U53" s="3">
+      <c r="U53" s="3"/>
+      <c r="V53" s="3">
         <v>2025</v>
       </c>
-      <c r="V53" s="17">
+      <c r="W53" s="17">
         <f t="shared" si="1"/>
         <v>1.9417475728155331E-2</v>
       </c>
-      <c r="W53" s="17">
+      <c r="X53" s="17">
+        <f t="shared" si="9"/>
+        <v>0.3061002178649237</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>2025</v>
+      </c>
+      <c r="Z53" s="2">
         <f t="shared" si="10"/>
-        <v>0.3061002178649237</v>
-      </c>
-      <c r="X53" s="3">
-        <v>2025</v>
-      </c>
-      <c r="Y53" s="2">
-        <f t="shared" si="11"/>
         <v>10.5</v>
       </c>
-      <c r="Z53" s="2">
+      <c r="AA53" s="2">
         <f t="shared" si="2"/>
         <v>47.96</v>
       </c>
-      <c r="AB53">
+      <c r="AC53">
         <f t="shared" si="3"/>
         <v>2025</v>
       </c>
-      <c r="AC53" s="4">
+      <c r="AD53" s="4">
         <f t="shared" si="4"/>
         <v>3.85E-2</v>
       </c>
-      <c r="AD53" s="4">
-        <f t="shared" si="5"/>
+      <c r="AE53" s="4">
+        <f>+S53</f>
         <v>0.3061002178649237</v>
       </c>
-      <c r="AF53" s="3">
+      <c r="AG53" s="3">
         <v>2025</v>
       </c>
     </row>

--- a/blog/data for charts.xlsx
+++ b/blog/data for charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Luis\Business folder\tepuy_site\blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F2375D-E787-4A28-BFF2-3C3AFB062687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6762B6-68FD-4B3B-AB4D-48E45478F91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B159E2E-8423-4A54-869A-CB7D220BCCE4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Year</t>
   </si>
@@ -122,6 +122,9 @@
   <si>
     <t>Cumulative Migration</t>
   </si>
+  <si>
+    <t>Dwellings Completed</t>
+  </si>
 </sst>
 </file>
 
@@ -133,7 +136,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,8 +172,20 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +195,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,7 +271,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -306,6 +327,12 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -645,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA479CF-F01B-46D5-BB9B-5EE2BF069812}">
   <dimension ref="A1:AE53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,12 +687,14 @@
     <col min="8" max="8" width="16.140625" customWidth="1"/>
     <col min="9" max="9" width="16.140625" style="19" customWidth="1"/>
     <col min="10" max="10" width="18" style="1" customWidth="1"/>
-    <col min="11" max="12" width="15" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="9.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18" customWidth="1"/>
+    <col min="11" max="11" width="15" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="18" style="2" customWidth="1"/>
+    <col min="18" max="19" width="12.5703125" customWidth="1"/>
     <col min="20" max="20" width="12.5703125" style="2" customWidth="1"/>
     <col min="21" max="21" width="9.140625" style="14"/>
     <col min="22" max="22" width="9.140625" style="15"/>
@@ -721,28 +750,28 @@
         <v>8</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="N2" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="O2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
+      <c r="Q2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
       <c r="T2" s="12" t="s">
         <v>0</v>
       </c>
@@ -771,14 +800,14 @@
         <v>Cash Rate (%)</v>
       </c>
       <c r="AC2" s="13" t="str">
-        <f>+Q2</f>
+        <f>+P2</f>
         <v>Median House Price growth (%)(AUD)</v>
       </c>
       <c r="AE2" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1975</v>
       </c>
@@ -807,31 +836,31 @@
       <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="21">
-        <v>1975</v>
-      </c>
-      <c r="L3" s="22">
+      <c r="K3" s="22">
         <v>0.15160000000000001</v>
       </c>
-      <c r="M3" s="1">
+      <c r="L3" s="1">
         <f>SUM($B$3:B3)/$B$3</f>
         <v>1</v>
       </c>
-      <c r="N3" s="2">
+      <c r="M3" s="2">
         <f>+B3</f>
         <v>50000</v>
       </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
       <c r="O3" s="1">
         <v>1</v>
       </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3">
+      <c r="P3">
         <v>0</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="Q3" s="2">
+        <v>143000</v>
+      </c>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
       <c r="T3" s="2">
         <v>1975</v>
       </c>
@@ -843,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="Y3" s="1">
-        <f>+O3</f>
+        <f>+N3</f>
         <v>1</v>
       </c>
       <c r="AA3">
@@ -855,14 +884,14 @@
         <v>0.08</v>
       </c>
       <c r="AC3" s="3">
-        <f>+Q3</f>
+        <f>+P3</f>
         <v>0</v>
       </c>
       <c r="AE3" s="2">
         <v>1975</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1976</v>
       </c>
@@ -896,39 +925,39 @@
         <f>I4/$I$3</f>
         <v>1.2660894660894662</v>
       </c>
-      <c r="K4" s="21">
-        <v>1976</v>
-      </c>
-      <c r="L4" s="22">
+      <c r="K4" s="22">
         <v>0.13320000000000001</v>
       </c>
-      <c r="M4" s="1">
+      <c r="L4" s="1">
         <f>SUM($B$3:B4)/$B$3</f>
         <v>2.4</v>
       </c>
-      <c r="N4" s="2">
-        <f>+N3+B4</f>
+      <c r="M4" s="2">
+        <f>+M3+B4</f>
         <v>120000</v>
       </c>
-      <c r="O4" s="1">
+      <c r="N4" s="1">
         <f>D4/$D$3</f>
         <v>1.08</v>
       </c>
-      <c r="P4" s="1">
+      <c r="O4" s="1">
         <f>E4/$E$3*1</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="P4" s="3">
         <f>+D4/D3-1</f>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="Q4" s="2">
+        <v>148000</v>
+      </c>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
       <c r="T4" s="2">
         <v>1976</v>
       </c>
       <c r="U4" s="14">
-        <f t="shared" ref="U4:U53" si="1">+F4</f>
+        <f>+F4</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="V4" s="14">
@@ -943,7 +972,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Y4" s="1">
-        <f t="shared" ref="Y4:Y53" si="2">+O4</f>
+        <f t="shared" ref="Y4:Y53" si="1">+N4</f>
         <v>1.08</v>
       </c>
       <c r="AA4">
@@ -955,14 +984,14 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="AC4" s="3">
-        <f>+Q4</f>
+        <f>+P4</f>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="AE4" s="2">
         <v>1976</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1977</v>
       </c>
@@ -979,7 +1008,7 @@
         <v>12000</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F53" si="3">+E5/E4-1</f>
+        <f t="shared" ref="F5:F53" si="2">+E5/E4-1</f>
         <v>9.0909090909090828E-2</v>
       </c>
       <c r="G5">
@@ -993,42 +1022,42 @@
         <v>85.5</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J5:J53" si="4">I5/$I$3</f>
+        <f t="shared" ref="J5:J53" si="3">I5/$I$3</f>
         <v>1.2337662337662338</v>
       </c>
-      <c r="K5" s="21">
-        <v>1977</v>
-      </c>
-      <c r="L5" s="22">
+      <c r="K5" s="22">
         <v>0.1231</v>
       </c>
-      <c r="M5" s="1">
+      <c r="L5" s="1">
         <f>SUM($B$3:B5)/$B$3</f>
         <v>4</v>
       </c>
-      <c r="N5" s="2">
-        <f>+N4+B5</f>
+      <c r="M5" s="2">
+        <f>+M4+B5</f>
         <v>200000</v>
       </c>
-      <c r="O5" s="1">
+      <c r="N5" s="1">
         <f>D5/$D$3</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="P5" s="1">
-        <f t="shared" ref="P5:P53" si="5">E5/$E$3*1</f>
+      <c r="O5" s="1">
+        <f>E5/$E$3*1</f>
         <v>1.2</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="P5" s="3">
         <f>+D5/D4-1</f>
         <v>7.4074074074074181E-2</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="Q5" s="2">
+        <v>156000</v>
+      </c>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
       <c r="T5" s="2">
         <v>1977</v>
       </c>
       <c r="U5" s="14">
-        <f t="shared" si="1"/>
+        <f>+F5</f>
         <v>9.0909090909090828E-2</v>
       </c>
       <c r="V5" s="14">
@@ -1039,11 +1068,11 @@
         <v>1977</v>
       </c>
       <c r="X5" s="1">
-        <f t="shared" ref="X5:X53" si="6">E5/$E$3*1</f>
+        <f>E5/$E$3*1</f>
         <v>1.2</v>
       </c>
       <c r="Y5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="AA5">
@@ -1055,14 +1084,14 @@
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="AC5" s="3">
-        <f>+Q5</f>
+        <f>+P5</f>
         <v>7.4074074074074181E-2</v>
       </c>
       <c r="AE5" s="2">
         <v>1977</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1978</v>
       </c>
@@ -1079,7 +1108,7 @@
         <v>13000</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="G6">
@@ -1093,42 +1122,42 @@
         <v>84.39</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.2177489177489178</v>
       </c>
-      <c r="K6" s="21">
-        <v>1978</v>
-      </c>
-      <c r="L6" s="22">
+      <c r="K6" s="22">
         <v>0.08</v>
       </c>
-      <c r="M6" s="1">
+      <c r="L6" s="1">
         <f>SUM($B$3:B6)/$B$3</f>
         <v>5.4</v>
       </c>
-      <c r="N6" s="2">
-        <f>+N5+B6</f>
+      <c r="M6" s="2">
+        <f>+M5+B6</f>
         <v>270000</v>
       </c>
-      <c r="O6" s="1">
+      <c r="N6" s="1">
         <f>D6/$D$3</f>
         <v>1.28</v>
       </c>
-      <c r="P6" s="1">
-        <f t="shared" si="5"/>
+      <c r="O6" s="1">
+        <f>E6/$E$3*1</f>
         <v>1.3</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="P6" s="3">
         <f>+D6/D5-1</f>
         <v>0.10344827586206895</v>
       </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="Q6" s="2">
+        <v>158000</v>
+      </c>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
       <c r="T6" s="2">
         <v>1978</v>
       </c>
       <c r="U6" s="14">
-        <f t="shared" si="1"/>
+        <f>+F6</f>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="V6" s="14">
@@ -1139,11 +1168,11 @@
         <v>1978</v>
       </c>
       <c r="X6" s="1">
-        <f t="shared" si="6"/>
+        <f>E6/$E$3*1</f>
         <v>1.3</v>
       </c>
       <c r="Y6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.28</v>
       </c>
       <c r="AA6">
@@ -1155,14 +1184,14 @@
         <v>0.08</v>
       </c>
       <c r="AC6" s="3">
-        <f>+Q6</f>
+        <f>+P6</f>
         <v>0.10344827586206895</v>
       </c>
       <c r="AE6" s="2">
         <v>1978</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1979</v>
       </c>
@@ -1179,7 +1208,7 @@
         <v>14000</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.6923076923076872E-2</v>
       </c>
       <c r="G7">
@@ -1193,42 +1222,42 @@
         <v>96.12</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.387012987012987</v>
       </c>
-      <c r="K7" s="21">
-        <v>1979</v>
-      </c>
-      <c r="L7" s="22">
+      <c r="K7" s="22">
         <v>9.1200000000000003E-2</v>
       </c>
-      <c r="M7" s="1">
+      <c r="L7" s="1">
         <f>SUM($B$3:B7)/$B$3</f>
         <v>7</v>
       </c>
-      <c r="N7" s="2">
-        <f>+N6+B7</f>
+      <c r="M7" s="2">
+        <f>+M6+B7</f>
         <v>350000</v>
       </c>
-      <c r="O7" s="1">
+      <c r="N7" s="1">
         <f>D7/$D$3</f>
         <v>1.44</v>
       </c>
-      <c r="P7" s="1">
-        <f t="shared" si="5"/>
+      <c r="O7" s="1">
+        <f>E7/$E$3*1</f>
         <v>1.4</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="P7" s="3">
         <f>+D7/D6-1</f>
         <v>0.125</v>
       </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="Q7" s="2">
+        <v>153000</v>
+      </c>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
       <c r="T7" s="2">
         <v>1979</v>
       </c>
       <c r="U7" s="14">
-        <f t="shared" si="1"/>
+        <f>+F7</f>
         <v>7.6923076923076872E-2</v>
       </c>
       <c r="V7" s="14">
@@ -1239,11 +1268,11 @@
         <v>1979</v>
       </c>
       <c r="X7" s="1">
-        <f t="shared" si="6"/>
+        <f>E7/$E$3*1</f>
         <v>1.4</v>
       </c>
       <c r="Y7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.44</v>
       </c>
       <c r="AA7">
@@ -1255,14 +1284,14 @@
         <v>0.09</v>
       </c>
       <c r="AC7" s="3">
-        <f>+Q7</f>
+        <f>+P7</f>
         <v>0.125</v>
       </c>
       <c r="AE7" s="2">
         <v>1979</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1980</v>
       </c>
@@ -1279,7 +1308,7 @@
         <v>15000</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.1428571428571397E-2</v>
       </c>
       <c r="G8">
@@ -1293,42 +1322,42 @@
         <v>119.68</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.7269841269841271</v>
       </c>
-      <c r="K8" s="21">
-        <v>1980</v>
-      </c>
-      <c r="L8" s="22">
+      <c r="K8" s="22">
         <v>0.1014</v>
       </c>
-      <c r="M8" s="1">
+      <c r="L8" s="1">
         <f>SUM($B$3:B8)/$B$3</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="N8" s="2">
-        <f>+N7+B8</f>
+      <c r="M8" s="2">
+        <f>+M7+B8</f>
         <v>460000</v>
       </c>
-      <c r="O8" s="1">
+      <c r="N8" s="1">
         <f>D8/$D$3</f>
         <v>1.8</v>
       </c>
-      <c r="P8" s="1">
-        <f t="shared" si="5"/>
+      <c r="O8" s="1">
+        <f>E8/$E$3*1</f>
         <v>1.5</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="P8" s="3">
         <f>+D8/D7-1</f>
         <v>0.25</v>
       </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="Q8" s="2">
+        <v>146000</v>
+      </c>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
       <c r="T8" s="2">
         <v>1980</v>
       </c>
       <c r="U8" s="14">
-        <f t="shared" si="1"/>
+        <f>+F8</f>
         <v>7.1428571428571397E-2</v>
       </c>
       <c r="V8" s="14">
@@ -1339,11 +1368,11 @@
         <v>1980</v>
       </c>
       <c r="X8" s="1">
-        <f t="shared" si="6"/>
+        <f>E8/$E$3*1</f>
         <v>1.5</v>
       </c>
       <c r="Y8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
       <c r="AA8">
@@ -1355,14 +1384,14 @@
         <v>0.1</v>
       </c>
       <c r="AC8" s="3">
-        <f>+Q8</f>
+        <f>+P8</f>
         <v>0.25</v>
       </c>
       <c r="AE8" s="2">
         <v>1980</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1981</v>
       </c>
@@ -1379,7 +1408,7 @@
         <v>17000</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.1333333333333333</v>
       </c>
       <c r="G9">
@@ -1393,42 +1422,42 @@
         <v>106.14</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.5316017316017316</v>
       </c>
-      <c r="K9" s="21">
-        <v>1981</v>
-      </c>
-      <c r="L9" s="22">
+      <c r="K9" s="22">
         <v>9.4899999999999998E-2</v>
       </c>
-      <c r="M9" s="1">
+      <c r="L9" s="1">
         <f>SUM($B$3:B9)/$B$3</f>
         <v>11.6</v>
       </c>
-      <c r="N9" s="2">
-        <f>+N8+B9</f>
+      <c r="M9" s="2">
+        <f>+M8+B9</f>
         <v>580000</v>
       </c>
-      <c r="O9" s="1">
+      <c r="N9" s="1">
         <f>D9/$D$3</f>
         <v>2</v>
       </c>
-      <c r="P9" s="1">
-        <f t="shared" si="5"/>
+      <c r="O9" s="1">
+        <f>E9/$E$3*1</f>
         <v>1.7</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="P9" s="3">
         <f>+D9/D8-1</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="Q9" s="2">
+        <v>135000</v>
+      </c>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
       <c r="T9" s="2">
         <v>1981</v>
       </c>
       <c r="U9" s="14">
-        <f t="shared" si="1"/>
+        <f>+F9</f>
         <v>0.1333333333333333</v>
       </c>
       <c r="V9" s="14">
@@ -1439,11 +1468,11 @@
         <v>1981</v>
       </c>
       <c r="X9" s="1">
-        <f t="shared" si="6"/>
+        <f>E9/$E$3*1</f>
         <v>1.7</v>
       </c>
       <c r="Y9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA9">
@@ -1455,14 +1484,14 @@
         <v>0.115</v>
       </c>
       <c r="AC9" s="3">
-        <f>+Q9</f>
+        <f>+P9</f>
         <v>0.11111111111111116</v>
       </c>
       <c r="AE9" s="2">
         <v>1981</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1982</v>
       </c>
@@ -1479,7 +1508,7 @@
         <v>18000</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.8823529411764719E-2</v>
       </c>
       <c r="G10">
@@ -1493,42 +1522,42 @@
         <v>138.6</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K10" s="21">
-        <v>1982</v>
-      </c>
-      <c r="L10" s="22">
+      <c r="K10" s="22">
         <v>0.1135</v>
       </c>
-      <c r="M10" s="1">
+      <c r="L10" s="1">
         <f>SUM($B$3:B10)/$B$3</f>
         <v>13.4</v>
       </c>
-      <c r="N10" s="2">
-        <f>+N9+B10</f>
+      <c r="M10" s="2">
+        <f>+M9+B10</f>
         <v>670000</v>
       </c>
-      <c r="O10" s="1">
+      <c r="N10" s="1">
         <f>D10/$D$3</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="P10" s="1">
-        <f t="shared" si="5"/>
+      <c r="O10" s="1">
+        <f>E10/$E$3*1</f>
         <v>1.8</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="P10" s="3">
         <f>+D10/D9-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="Q10" s="2">
+        <v>125000</v>
+      </c>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
       <c r="T10" s="2">
         <v>1982</v>
       </c>
       <c r="U10" s="14">
-        <f t="shared" si="1"/>
+        <f>+F10</f>
         <v>5.8823529411764719E-2</v>
       </c>
       <c r="V10" s="14">
@@ -1539,11 +1568,11 @@
         <v>1982</v>
       </c>
       <c r="X10" s="1">
-        <f t="shared" si="6"/>
+        <f>E10/$E$3*1</f>
         <v>1.8</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="AA10">
@@ -1555,14 +1584,14 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="AC10" s="3">
-        <f>+Q10</f>
+        <f>+P10</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="AE10" s="2">
         <v>1982</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1983</v>
       </c>
@@ -1579,7 +1608,7 @@
         <v>20000</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.11111111111111116</v>
       </c>
       <c r="G11">
@@ -1593,42 +1622,42 @@
         <v>183.15</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.6428571428571432</v>
       </c>
-      <c r="K11" s="21">
-        <v>1983</v>
-      </c>
-      <c r="L11" s="22">
+      <c r="K11" s="22">
         <v>0.1004</v>
       </c>
-      <c r="M11" s="1">
+      <c r="L11" s="1">
         <f>SUM($B$3:B11)/$B$3</f>
         <v>14.8</v>
       </c>
-      <c r="N11" s="2">
-        <f>+N10+B11</f>
+      <c r="M11" s="2">
+        <f>+M10+B11</f>
         <v>740000</v>
       </c>
-      <c r="O11" s="1">
+      <c r="N11" s="1">
         <f>D11/$D$3</f>
         <v>2.4</v>
       </c>
-      <c r="P11" s="1">
-        <f t="shared" si="5"/>
+      <c r="O11" s="1">
+        <f>E11/$E$3*1</f>
         <v>2</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="P11" s="3">
         <f>+D11/D10-1</f>
         <v>9.0909090909090828E-2</v>
       </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
+      <c r="Q11" s="2">
+        <v>120000</v>
+      </c>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
       <c r="T11" s="2">
         <v>1983</v>
       </c>
       <c r="U11" s="14">
-        <f t="shared" si="1"/>
+        <f>+F11</f>
         <v>0.11111111111111116</v>
       </c>
       <c r="V11" s="14">
@@ -1639,11 +1668,11 @@
         <v>1983</v>
       </c>
       <c r="X11" s="1">
-        <f t="shared" si="6"/>
+        <f>E11/$E$3*1</f>
         <v>2</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
       <c r="AA11">
@@ -1655,14 +1684,14 @@
         <v>0.11</v>
       </c>
       <c r="AC11" s="3">
-        <f>+Q11</f>
+        <f>+P11</f>
         <v>9.0909090909090828E-2</v>
       </c>
       <c r="AE11" s="2">
         <v>1983</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1984</v>
       </c>
@@ -1679,7 +1708,7 @@
         <v>21000</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="G12">
@@ -1693,42 +1722,42 @@
         <v>198.73</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.8676767676767678</v>
       </c>
-      <c r="K12" s="21">
-        <v>1984</v>
-      </c>
-      <c r="L12" s="22">
+      <c r="K12" s="22">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="M12" s="1">
+      <c r="L12" s="1">
         <f>SUM($B$3:B12)/$B$3</f>
         <v>16.399999999999999</v>
       </c>
-      <c r="N12" s="2">
-        <f>+N11+B12</f>
+      <c r="M12" s="2">
+        <f>+M11+B12</f>
         <v>820000</v>
       </c>
-      <c r="O12" s="1">
+      <c r="N12" s="1">
         <f>D12/$D$3</f>
         <v>2.48</v>
       </c>
-      <c r="P12" s="1">
-        <f t="shared" si="5"/>
+      <c r="O12" s="1">
+        <f>E12/$E$3*1</f>
         <v>2.1</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="P12" s="3">
         <f>+D12/D11-1</f>
         <v>3.3333333333333437E-2</v>
       </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
+      <c r="Q12" s="2">
+        <v>130000</v>
+      </c>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
       <c r="T12" s="2">
         <v>1984</v>
       </c>
       <c r="U12" s="14">
-        <f t="shared" si="1"/>
+        <f>+F12</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="V12" s="14">
@@ -1739,11 +1768,11 @@
         <v>1984</v>
       </c>
       <c r="X12" s="1">
-        <f t="shared" si="6"/>
+        <f>E12/$E$3*1</f>
         <v>2.1</v>
       </c>
       <c r="Y12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.48</v>
       </c>
       <c r="AA12">
@@ -1755,14 +1784,14 @@
         <v>0.105</v>
       </c>
       <c r="AC12" s="3">
-        <f>+Q12</f>
+        <f>+P12</f>
         <v>3.3333333333333437E-2</v>
       </c>
       <c r="AE12" s="2">
         <v>1984</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1985</v>
       </c>
@@ -1779,7 +1808,7 @@
         <v>22000</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.7619047619047672E-2</v>
       </c>
       <c r="G13">
@@ -1793,42 +1822,42 @@
         <v>301.72999999999996</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.3539682539682536</v>
       </c>
-      <c r="K13" s="21">
-        <v>1985</v>
-      </c>
-      <c r="L13" s="22">
+      <c r="K13" s="22">
         <v>6.7299999999999999E-2</v>
       </c>
-      <c r="M13" s="1">
+      <c r="L13" s="1">
         <f>SUM($B$3:B13)/$B$3</f>
         <v>18.2</v>
       </c>
-      <c r="N13" s="2">
-        <f>+N12+B13</f>
+      <c r="M13" s="2">
+        <f>+M12+B13</f>
         <v>910000</v>
       </c>
-      <c r="O13" s="1">
+      <c r="N13" s="1">
         <f>D13/$D$3</f>
         <v>2.6</v>
       </c>
-      <c r="P13" s="1">
-        <f t="shared" si="5"/>
+      <c r="O13" s="1">
+        <f>E13/$E$3*1</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="P13" s="3">
         <f>+D13/D12-1</f>
         <v>4.8387096774193505E-2</v>
       </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
+      <c r="Q13" s="2">
+        <v>140000</v>
+      </c>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
       <c r="T13" s="2">
         <v>1985</v>
       </c>
       <c r="U13" s="14">
-        <f t="shared" si="1"/>
+        <f>+F13</f>
         <v>4.7619047619047672E-2</v>
       </c>
       <c r="V13" s="14">
@@ -1839,11 +1868,11 @@
         <v>1985</v>
       </c>
       <c r="X13" s="1">
-        <f t="shared" si="6"/>
+        <f>E13/$E$3*1</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="Y13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.6</v>
       </c>
       <c r="AA13">
@@ -1855,14 +1884,14 @@
         <v>0.12</v>
       </c>
       <c r="AC13" s="3">
-        <f>+Q13</f>
+        <f>+P13</f>
         <v>4.8387096774193505E-2</v>
       </c>
       <c r="AE13" s="2">
         <v>1985</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1986</v>
       </c>
@@ -1879,7 +1908,7 @@
         <v>24000</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.0909090909090828E-2</v>
       </c>
       <c r="G14">
@@ -1893,42 +1922,42 @@
         <v>362.07</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.2246753246753244</v>
       </c>
-      <c r="K14" s="21">
-        <v>1986</v>
-      </c>
-      <c r="L14" s="22">
+      <c r="K14" s="22">
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="M14" s="1">
+      <c r="L14" s="1">
         <f>SUM($B$3:B14)/$B$3</f>
         <v>20.399999999999999</v>
       </c>
-      <c r="N14" s="2">
-        <f>+N13+B14</f>
+      <c r="M14" s="2">
+        <f>+M13+B14</f>
         <v>1020000</v>
       </c>
-      <c r="O14" s="1">
+      <c r="N14" s="1">
         <f>D14/$D$3</f>
         <v>2.8</v>
       </c>
-      <c r="P14" s="1">
-        <f t="shared" si="5"/>
+      <c r="O14" s="1">
+        <f>E14/$E$3*1</f>
         <v>2.4</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="P14" s="3">
         <f>+D14/D13-1</f>
         <v>7.6923076923076872E-2</v>
       </c>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
+      <c r="Q14" s="2">
+        <v>145000</v>
+      </c>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
       <c r="T14" s="2">
         <v>1986</v>
       </c>
       <c r="U14" s="14">
-        <f t="shared" si="1"/>
+        <f>+F14</f>
         <v>9.0909090909090828E-2</v>
       </c>
       <c r="V14" s="14">
@@ -1939,11 +1968,11 @@
         <v>1986</v>
       </c>
       <c r="X14" s="1">
-        <f t="shared" si="6"/>
+        <f>E14/$E$3*1</f>
         <v>2.4</v>
       </c>
       <c r="Y14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
       <c r="AA14">
@@ -1955,14 +1984,14 @@
         <v>0.13</v>
       </c>
       <c r="AC14" s="3">
-        <f>+Q14</f>
+        <f>+P14</f>
         <v>7.6923076923076872E-2</v>
       </c>
       <c r="AE14" s="2">
         <v>1986</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1987</v>
       </c>
@@ -1979,7 +2008,7 @@
         <v>25000</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="G15">
@@ -1993,42 +2022,42 @@
         <v>353.21</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.0968253968253965</v>
       </c>
-      <c r="K15" s="21">
-        <v>1987</v>
-      </c>
-      <c r="L15" s="22">
+      <c r="K15" s="22">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="M15" s="1">
+      <c r="L15" s="1">
         <f>SUM($B$3:B15)/$B$3</f>
         <v>23.2</v>
       </c>
-      <c r="N15" s="2">
-        <f>+N14+B15</f>
+      <c r="M15" s="2">
+        <f>+M14+B15</f>
         <v>1160000</v>
       </c>
-      <c r="O15" s="1">
+      <c r="N15" s="1">
         <f>D15/$D$3</f>
         <v>3.2</v>
       </c>
-      <c r="P15" s="1">
-        <f t="shared" si="5"/>
+      <c r="O15" s="1">
+        <f>E15/$E$3*1</f>
         <v>2.5</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="P15" s="3">
         <f>+D15/D14-1</f>
         <v>0.14285714285714279</v>
       </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
+      <c r="Q15" s="2">
+        <v>150000</v>
+      </c>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
       <c r="T15" s="2">
         <v>1987</v>
       </c>
       <c r="U15" s="14">
-        <f t="shared" si="1"/>
+        <f>+F15</f>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="V15" s="14">
@@ -2039,11 +2068,11 @@
         <v>1987</v>
       </c>
       <c r="X15" s="1">
-        <f t="shared" si="6"/>
+        <f>E15/$E$3*1</f>
         <v>2.5</v>
       </c>
       <c r="Y15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
       <c r="AA15">
@@ -2055,14 +2084,14 @@
         <v>0.115</v>
       </c>
       <c r="AC15" s="3">
-        <f>+Q15</f>
+        <f>+P15</f>
         <v>0.14285714285714279</v>
       </c>
       <c r="AE15" s="2">
         <v>1987</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1988</v>
       </c>
@@ -2079,7 +2108,7 @@
         <v>27000</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="G16">
@@ -2093,42 +2122,42 @@
         <v>349.02</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.0363636363636362</v>
       </c>
-      <c r="K16" s="21">
-        <v>1988</v>
-      </c>
-      <c r="L16" s="22">
+      <c r="K16" s="22">
         <v>7.22E-2</v>
       </c>
-      <c r="M16" s="1">
+      <c r="L16" s="1">
         <f>SUM($B$3:B16)/$B$3</f>
         <v>26.6</v>
       </c>
-      <c r="N16" s="2">
-        <f>+N15+B16</f>
+      <c r="M16" s="2">
+        <f>+M15+B16</f>
         <v>1330000</v>
       </c>
-      <c r="O16" s="1">
+      <c r="N16" s="1">
         <f>D16/$D$3</f>
         <v>3.6</v>
       </c>
-      <c r="P16" s="1">
-        <f t="shared" si="5"/>
+      <c r="O16" s="1">
+        <f>E16/$E$3*1</f>
         <v>2.7</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="P16" s="3">
         <f>+D16/D15-1</f>
         <v>0.125</v>
       </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
+      <c r="Q16" s="2">
+        <v>165000</v>
+      </c>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
       <c r="T16" s="2">
         <v>1988</v>
       </c>
       <c r="U16" s="14">
-        <f t="shared" si="1"/>
+        <f>+F16</f>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="V16" s="14">
@@ -2139,11 +2168,11 @@
         <v>1988</v>
       </c>
       <c r="X16" s="1">
-        <f t="shared" si="6"/>
+        <f>E16/$E$3*1</f>
         <v>2.7</v>
       </c>
       <c r="Y16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
       <c r="AA16">
@@ -2155,14 +2184,14 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="AC16" s="3">
-        <f>+Q16</f>
+        <f>+P16</f>
         <v>0.125</v>
       </c>
       <c r="AE16" s="2">
         <v>1988</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1989</v>
       </c>
@@ -2179,7 +2208,7 @@
         <v>29000</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.4074074074074181E-2</v>
       </c>
       <c r="G17">
@@ -2193,42 +2222,42 @@
         <v>448.31</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6.4691197691197697</v>
       </c>
-      <c r="K17" s="21">
-        <v>1989</v>
-      </c>
-      <c r="L17" s="22">
+      <c r="K17" s="22">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="M17" s="1">
+      <c r="L17" s="1">
         <f>SUM($B$3:B17)/$B$3</f>
         <v>29.2</v>
       </c>
-      <c r="N17" s="2">
-        <f>+N16+B17</f>
+      <c r="M17" s="2">
+        <f>+M16+B17</f>
         <v>1460000</v>
       </c>
-      <c r="O17" s="1">
+      <c r="N17" s="1">
         <f>D17/$D$3</f>
         <v>4</v>
       </c>
-      <c r="P17" s="1">
-        <f t="shared" si="5"/>
+      <c r="O17" s="1">
+        <f>E17/$E$3*1</f>
         <v>2.9</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="P17" s="3">
         <f>+D17/D16-1</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
+      <c r="Q17" s="2">
+        <v>170000</v>
+      </c>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
       <c r="T17" s="2">
         <v>1989</v>
       </c>
       <c r="U17" s="14">
-        <f t="shared" si="1"/>
+        <f>+F17</f>
         <v>7.4074074074074181E-2</v>
       </c>
       <c r="V17" s="14">
@@ -2239,11 +2268,11 @@
         <v>1989</v>
       </c>
       <c r="X17" s="1">
-        <f t="shared" si="6"/>
+        <f>E17/$E$3*1</f>
         <v>2.9</v>
       </c>
       <c r="Y17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AA17">
@@ -2255,14 +2284,14 @@
         <v>0.17</v>
       </c>
       <c r="AC17" s="3">
-        <f>+Q17</f>
+        <f>+P17</f>
         <v>0.11111111111111116</v>
       </c>
       <c r="AE17" s="2">
         <v>1989</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1990</v>
       </c>
@@ -2279,7 +2308,7 @@
         <v>31000</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.8965517241379226E-2</v>
       </c>
       <c r="G18">
@@ -2293,42 +2322,42 @@
         <v>422.40000000000003</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6.0952380952380958</v>
       </c>
-      <c r="K18" s="21">
-        <v>1990</v>
-      </c>
-      <c r="L18" s="22">
+      <c r="K18" s="22">
         <v>7.3300000000000004E-2</v>
       </c>
-      <c r="M18" s="1">
+      <c r="L18" s="1">
         <f>SUM($B$3:B18)/$B$3</f>
         <v>31.2</v>
       </c>
-      <c r="N18" s="2">
-        <f>+N17+B18</f>
+      <c r="M18" s="2">
+        <f>+M17+B18</f>
         <v>1560000</v>
       </c>
-      <c r="O18" s="1">
+      <c r="N18" s="1">
         <f>D18/$D$3</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="P18" s="1">
-        <f t="shared" si="5"/>
+      <c r="O18" s="1">
+        <f>E18/$E$3*1</f>
         <v>3.1</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="P18" s="3">
         <f>+D18/D17-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
+      <c r="Q18" s="2">
+        <v>160000</v>
+      </c>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
       <c r="T18" s="2">
         <v>1990</v>
       </c>
       <c r="U18" s="14">
-        <f t="shared" si="1"/>
+        <f>+F18</f>
         <v>6.8965517241379226E-2</v>
       </c>
       <c r="V18" s="14">
@@ -2339,11 +2368,11 @@
         <v>1990</v>
       </c>
       <c r="X18" s="1">
-        <f t="shared" si="6"/>
+        <f>E18/$E$3*1</f>
         <v>3.1</v>
       </c>
       <c r="Y18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="AA18">
@@ -2355,14 +2384,14 @@
         <v>0.15</v>
       </c>
       <c r="AC18" s="3">
-        <f>+Q18</f>
+        <f>+P18</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="AE18" s="2">
         <v>1990</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1991</v>
       </c>
@@ -2379,7 +2408,7 @@
         <v>32000</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.2258064516129004E-2</v>
       </c>
       <c r="G19">
@@ -2393,42 +2422,42 @@
         <v>542.1</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.8225108225108233</v>
       </c>
-      <c r="K19" s="21">
-        <v>1991</v>
-      </c>
-      <c r="L19" s="22">
+      <c r="K19" s="22">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="M19" s="1">
+      <c r="L19" s="1">
         <f>SUM($B$3:B19)/$B$3</f>
         <v>33</v>
       </c>
-      <c r="N19" s="2">
-        <f>+N18+B19</f>
+      <c r="M19" s="2">
+        <f>+M18+B19</f>
         <v>1650000</v>
       </c>
-      <c r="O19" s="1">
+      <c r="N19" s="1">
         <f>D19/$D$3</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="P19" s="1">
-        <f t="shared" si="5"/>
+      <c r="O19" s="1">
+        <f>E19/$E$3*1</f>
         <v>3.2</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="P19" s="3">
         <f>+D19/D18-1</f>
         <v>4.5454545454545414E-2</v>
       </c>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
+      <c r="Q19" s="2">
+        <v>140000</v>
+      </c>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
       <c r="T19" s="2">
         <v>1991</v>
       </c>
       <c r="U19" s="14">
-        <f t="shared" si="1"/>
+        <f>+F19</f>
         <v>3.2258064516129004E-2</v>
       </c>
       <c r="V19" s="14">
@@ -2439,11 +2468,11 @@
         <v>1991</v>
       </c>
       <c r="X19" s="1">
-        <f t="shared" si="6"/>
+        <f>E19/$E$3*1</f>
         <v>3.2</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="AA19">
@@ -2455,14 +2484,14 @@
         <v>0.11</v>
       </c>
       <c r="AC19" s="3">
-        <f>+Q19</f>
+        <f>+P19</f>
         <v>4.5454545454545414E-2</v>
       </c>
       <c r="AE19" s="2">
         <v>1991</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1992</v>
       </c>
@@ -2479,7 +2508,7 @@
         <v>33000</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.125E-2</v>
       </c>
       <c r="G20">
@@ -2493,42 +2522,42 @@
         <v>592.96</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.5564213564213567</v>
       </c>
-      <c r="K20" s="21">
-        <v>1992</v>
-      </c>
-      <c r="L20" s="22">
+      <c r="K20" s="22">
         <v>1.01E-2</v>
       </c>
-      <c r="M20" s="1">
+      <c r="L20" s="1">
         <f>SUM($B$3:B20)/$B$3</f>
         <v>33.6</v>
       </c>
-      <c r="N20" s="2">
-        <f>+N19+B20</f>
+      <c r="M20" s="2">
+        <f>+M19+B20</f>
         <v>1680000</v>
       </c>
-      <c r="O20" s="1">
+      <c r="N20" s="1">
         <f>D20/$D$3</f>
         <v>4.8</v>
       </c>
-      <c r="P20" s="1">
-        <f t="shared" si="5"/>
+      <c r="O20" s="1">
+        <f>E20/$E$3*1</f>
         <v>3.3</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="P20" s="3">
         <f>+D20/D19-1</f>
         <v>4.3478260869565188E-2</v>
       </c>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
+      <c r="Q20" s="2">
+        <v>125000</v>
+      </c>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
       <c r="T20" s="2">
         <v>1992</v>
       </c>
       <c r="U20" s="14">
-        <f t="shared" si="1"/>
+        <f>+F20</f>
         <v>3.125E-2</v>
       </c>
       <c r="V20" s="14">
@@ -2539,11 +2568,11 @@
         <v>1992</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" si="6"/>
+        <f>E20/$E$3*1</f>
         <v>3.3</v>
       </c>
       <c r="Y20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.8</v>
       </c>
       <c r="AA20">
@@ -2555,14 +2584,14 @@
         <v>0.08</v>
       </c>
       <c r="AC20" s="3">
-        <f>+Q20</f>
+        <f>+P20</f>
         <v>4.3478260869565188E-2</v>
       </c>
       <c r="AE20" s="2">
         <v>1992</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1993</v>
       </c>
@@ -2579,7 +2608,7 @@
         <v>34000</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.0303030303030276E-2</v>
       </c>
       <c r="G21">
@@ -2593,42 +2622,42 @@
         <v>685.02</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.8848484848484848</v>
       </c>
-      <c r="K21" s="21">
-        <v>1993</v>
-      </c>
-      <c r="L21" s="22">
+      <c r="K21" s="22">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="M21" s="1">
+      <c r="L21" s="1">
         <f>SUM($B$3:B21)/$B$3</f>
         <v>34.54</v>
       </c>
-      <c r="N21" s="2">
-        <f>+N20+B21</f>
+      <c r="M21" s="2">
+        <f>+M20+B21</f>
         <v>1727000</v>
       </c>
-      <c r="O21" s="1">
+      <c r="N21" s="1">
         <f>D21/$D$3</f>
         <v>5</v>
       </c>
-      <c r="P21" s="1">
-        <f t="shared" si="5"/>
+      <c r="O21" s="1">
+        <f>E21/$E$3*1</f>
         <v>3.4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="P21" s="3">
         <f>+D21/D20-1</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
+      <c r="Q21" s="2">
+        <v>115000</v>
+      </c>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
       <c r="T21" s="2">
         <v>1993</v>
       </c>
       <c r="U21" s="14">
-        <f t="shared" si="1"/>
+        <f>+F21</f>
         <v>3.0303030303030276E-2</v>
       </c>
       <c r="V21" s="14">
@@ -2639,11 +2668,11 @@
         <v>1993</v>
       </c>
       <c r="X21" s="1">
-        <f t="shared" si="6"/>
+        <f>E21/$E$3*1</f>
         <v>3.4</v>
       </c>
       <c r="Y21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AA21">
@@ -2655,14 +2684,14 @@
         <v>5.5E-2</v>
       </c>
       <c r="AC21" s="3">
-        <f>+Q21</f>
+        <f>+P21</f>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="AE21" s="2">
         <v>1993</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1994</v>
       </c>
@@ -2679,7 +2708,7 @@
         <v>35000</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.9411764705882248E-2</v>
       </c>
       <c r="G22">
@@ -2693,42 +2722,42 @@
         <v>592.11</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.5441558441558438</v>
       </c>
-      <c r="K22" s="21">
-        <v>1994</v>
-      </c>
-      <c r="L22" s="22">
+      <c r="K22" s="22">
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="M22" s="1">
+      <c r="L22" s="1">
         <f>SUM($B$3:B22)/$B$3</f>
         <v>36.14</v>
       </c>
-      <c r="N22" s="2">
-        <f>+N21+B22</f>
+      <c r="M22" s="2">
+        <f>+M21+B22</f>
         <v>1807000</v>
       </c>
-      <c r="O22" s="1">
+      <c r="N22" s="1">
         <f>D22/$D$3</f>
         <v>5.2</v>
       </c>
-      <c r="P22" s="1">
-        <f t="shared" si="5"/>
+      <c r="O22" s="1">
+        <f>E22/$E$3*1</f>
         <v>3.5</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="P22" s="3">
         <f>+D22/D21-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
+      <c r="Q22" s="2">
+        <v>135000</v>
+      </c>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
       <c r="T22" s="2">
         <v>1994</v>
       </c>
       <c r="U22" s="14">
-        <f t="shared" si="1"/>
+        <f>+F22</f>
         <v>2.9411764705882248E-2</v>
       </c>
       <c r="V22" s="14">
@@ -2739,11 +2768,11 @@
         <v>1994</v>
       </c>
       <c r="X22" s="1">
-        <f t="shared" si="6"/>
+        <f>E22/$E$3*1</f>
         <v>3.5</v>
       </c>
       <c r="Y22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.2</v>
       </c>
       <c r="AA22">
@@ -2755,14 +2784,14 @@
         <v>5.5E-2</v>
       </c>
       <c r="AC22" s="3">
-        <f>+Q22</f>
+        <f>+P22</f>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AE22" s="2">
         <v>1994</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1995</v>
       </c>
@@ -2779,7 +2808,7 @@
         <v>36000</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.857142857142847E-2</v>
       </c>
       <c r="G23">
@@ -2793,42 +2822,42 @@
         <v>830.25</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11.980519480519481</v>
       </c>
-      <c r="K23" s="21">
-        <v>1995</v>
-      </c>
-      <c r="L23" s="22">
+      <c r="K23" s="22">
         <v>4.6300000000000001E-2</v>
       </c>
-      <c r="M23" s="1">
+      <c r="L23" s="1">
         <f>SUM($B$3:B23)/$B$3</f>
         <v>38.14</v>
       </c>
-      <c r="N23" s="2">
-        <f>+N22+B23</f>
+      <c r="M23" s="2">
+        <f>+M22+B23</f>
         <v>1907000</v>
       </c>
-      <c r="O23" s="1">
+      <c r="N23" s="1">
         <f>D23/$D$3</f>
         <v>5.2</v>
       </c>
-      <c r="P23" s="1">
-        <f t="shared" si="5"/>
+      <c r="O23" s="1">
+        <f>E23/$E$3*1</f>
         <v>3.6</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="P23" s="3">
         <f>+D23/D22-1</f>
         <v>0</v>
       </c>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
+      <c r="Q23" s="2">
+        <v>140000</v>
+      </c>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
       <c r="T23" s="2">
         <v>1995</v>
       </c>
       <c r="U23" s="14">
-        <f t="shared" si="1"/>
+        <f>+F23</f>
         <v>2.857142857142847E-2</v>
       </c>
       <c r="V23" s="14">
@@ -2839,11 +2868,11 @@
         <v>1995</v>
       </c>
       <c r="X23" s="1">
-        <f t="shared" si="6"/>
+        <f>E23/$E$3*1</f>
         <v>3.6</v>
       </c>
       <c r="Y23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.2</v>
       </c>
       <c r="AA23">
@@ -2855,14 +2884,14 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AC23" s="3">
-        <f>+Q23</f>
+        <f>+P23</f>
         <v>0</v>
       </c>
       <c r="AE23" s="2">
         <v>1995</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1996</v>
       </c>
@@ -2879,7 +2908,7 @@
         <v>38000</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.555555555555558E-2</v>
       </c>
       <c r="G24">
@@ -2893,42 +2922,42 @@
         <v>933.66</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13.472727272727273</v>
       </c>
-      <c r="K24" s="21">
-        <v>1996</v>
-      </c>
-      <c r="L24" s="22">
+      <c r="K24" s="22">
         <v>2.6200000000000001E-2</v>
       </c>
-      <c r="M24" s="1">
+      <c r="L24" s="1">
         <f>SUM($B$3:B24)/$B$3</f>
         <v>39.94</v>
       </c>
-      <c r="N24" s="2">
-        <f>+N23+B24</f>
+      <c r="M24" s="2">
+        <f>+M23+B24</f>
         <v>1997000</v>
       </c>
-      <c r="O24" s="1">
+      <c r="N24" s="1">
         <f>D24/$D$3</f>
         <v>5.6</v>
       </c>
-      <c r="P24" s="1">
-        <f t="shared" si="5"/>
+      <c r="O24" s="1">
+        <f>E24/$E$3*1</f>
         <v>3.8</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="P24" s="3">
         <f>+D24/D23-1</f>
         <v>7.6923076923076872E-2</v>
       </c>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
+      <c r="Q24" s="2">
+        <v>145000</v>
+      </c>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
       <c r="T24" s="2">
         <v>1996</v>
       </c>
       <c r="U24" s="14">
-        <f t="shared" si="1"/>
+        <f>+F24</f>
         <v>5.555555555555558E-2</v>
       </c>
       <c r="V24" s="14">
@@ -2939,11 +2968,11 @@
         <v>1996</v>
       </c>
       <c r="X24" s="1">
-        <f t="shared" si="6"/>
+        <f>E24/$E$3*1</f>
         <v>3.8</v>
       </c>
       <c r="Y24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.6</v>
       </c>
       <c r="AA24">
@@ -2955,14 +2984,14 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AC24" s="3">
-        <f>+Q24</f>
+        <f>+P24</f>
         <v>7.6923076923076872E-2</v>
       </c>
       <c r="AE24" s="2">
         <v>1996</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1997</v>
       </c>
@@ -2979,7 +3008,7 @@
         <v>39000</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.6315789473684292E-2</v>
       </c>
       <c r="G25">
@@ -2993,42 +3022,42 @@
         <v>1299.8000000000002</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18.756132756132761</v>
       </c>
-      <c r="K25" s="21">
-        <v>1997</v>
-      </c>
-      <c r="L25" s="22">
+      <c r="K25" s="22">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="M25" s="1">
+      <c r="L25" s="1">
         <f>SUM($B$3:B25)/$B$3</f>
         <v>41.54</v>
       </c>
-      <c r="N25" s="2">
-        <f>+N24+B25</f>
+      <c r="M25" s="2">
+        <f>+M24+B25</f>
         <v>2077000</v>
       </c>
-      <c r="O25" s="1">
+      <c r="N25" s="1">
         <f>D25/$D$3</f>
         <v>6</v>
       </c>
-      <c r="P25" s="1">
-        <f t="shared" si="5"/>
+      <c r="O25" s="1">
+        <f>E25/$E$3*1</f>
         <v>3.9</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="P25" s="3">
         <f>+D25/D24-1</f>
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
+      <c r="Q25" s="2">
+        <v>150000</v>
+      </c>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
       <c r="T25" s="2">
         <v>1997</v>
       </c>
       <c r="U25" s="14">
-        <f t="shared" si="1"/>
+        <f>+F25</f>
         <v>2.6315789473684292E-2</v>
       </c>
       <c r="V25" s="14">
@@ -3039,11 +3068,11 @@
         <v>1997</v>
       </c>
       <c r="X25" s="1">
-        <f t="shared" si="6"/>
+        <f>E25/$E$3*1</f>
         <v>3.9</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AA25">
@@ -3055,14 +3084,14 @@
         <v>5.5E-2</v>
       </c>
       <c r="AC25" s="3">
-        <f>+Q25</f>
+        <f>+P25</f>
         <v>7.1428571428571397E-2</v>
       </c>
       <c r="AE25" s="2">
         <v>1997</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1998</v>
       </c>
@@ -3079,7 +3108,7 @@
         <v>40000</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.564102564102555E-2</v>
       </c>
       <c r="G26">
@@ -3093,42 +3122,42 @@
         <v>1954.1100000000001</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28.197835497835502</v>
       </c>
-      <c r="K26" s="21">
-        <v>1998</v>
-      </c>
-      <c r="L26" s="22">
+      <c r="K26" s="22">
         <v>8.6E-3</v>
       </c>
-      <c r="M26" s="1">
+      <c r="L26" s="1">
         <f>SUM($B$3:B26)/$B$3</f>
         <v>43.34</v>
       </c>
-      <c r="N26" s="2">
-        <f>+N25+B26</f>
+      <c r="M26" s="2">
+        <f>+M25+B26</f>
         <v>2167000</v>
       </c>
-      <c r="O26" s="1">
+      <c r="N26" s="1">
         <f>D26/$D$3</f>
         <v>6.2</v>
       </c>
-      <c r="P26" s="1">
-        <f t="shared" si="5"/>
+      <c r="O26" s="1">
+        <f>E26/$E$3*1</f>
         <v>4</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="P26" s="3">
         <f>+D26/D25-1</f>
         <v>3.3333333333333437E-2</v>
       </c>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
+      <c r="Q26" s="2">
+        <v>155000</v>
+      </c>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
       <c r="T26" s="2">
         <v>1998</v>
       </c>
       <c r="U26" s="14">
-        <f t="shared" si="1"/>
+        <f>+F26</f>
         <v>2.564102564102555E-2</v>
       </c>
       <c r="V26" s="14">
@@ -3139,11 +3168,11 @@
         <v>1998</v>
       </c>
       <c r="X26" s="1">
-        <f t="shared" si="6"/>
+        <f>E26/$E$3*1</f>
         <v>4</v>
       </c>
       <c r="Y26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.2</v>
       </c>
       <c r="AA26">
@@ -3155,14 +3184,14 @@
         <v>0.05</v>
       </c>
       <c r="AC26" s="3">
-        <f>+Q26</f>
+        <f>+P26</f>
         <v>3.3333333333333437E-2</v>
       </c>
       <c r="AE26" s="2">
         <v>1998</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1999</v>
       </c>
@@ -3179,7 +3208,7 @@
         <v>42000</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="G27">
@@ -3193,42 +3222,42 @@
         <v>2276.9500000000003</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32.856421356421365</v>
       </c>
-      <c r="K27" s="21">
-        <v>1999</v>
-      </c>
-      <c r="L27" s="22">
+      <c r="K27" s="22">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="M27" s="1">
+      <c r="L27" s="1">
         <f>SUM($B$3:B27)/$B$3</f>
         <v>45.34</v>
       </c>
-      <c r="N27" s="2">
-        <f>+N26+B27</f>
+      <c r="M27" s="2">
+        <f>+M26+B27</f>
         <v>2267000</v>
       </c>
-      <c r="O27" s="1">
+      <c r="N27" s="1">
         <f>D27/$D$3</f>
         <v>6.4</v>
       </c>
-      <c r="P27" s="1">
-        <f t="shared" si="5"/>
+      <c r="O27" s="1">
+        <f>E27/$E$3*1</f>
         <v>4.2</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="P27" s="3">
         <f>+D27/D26-1</f>
         <v>3.2258064516129004E-2</v>
       </c>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
+      <c r="Q27" s="2">
+        <v>150000</v>
+      </c>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
       <c r="T27" s="2">
         <v>1999</v>
       </c>
       <c r="U27" s="14">
-        <f t="shared" si="1"/>
+        <f>+F27</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="V27" s="14">
@@ -3239,11 +3268,11 @@
         <v>1999</v>
       </c>
       <c r="X27" s="1">
-        <f t="shared" si="6"/>
+        <f>E27/$E$3*1</f>
         <v>4.2</v>
       </c>
       <c r="Y27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.4</v>
       </c>
       <c r="AA27">
@@ -3255,14 +3284,14 @@
         <v>0.05</v>
       </c>
       <c r="AC27" s="3">
-        <f>+Q27</f>
+        <f>+P27</f>
         <v>3.2258064516129004E-2</v>
       </c>
       <c r="AE27" s="2">
         <v>1999</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2000</v>
       </c>
@@ -3279,7 +3308,7 @@
         <v>44000</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.7619047619047672E-2</v>
       </c>
       <c r="G28">
@@ -3293,42 +3322,42 @@
         <v>2270.4</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32.761904761904766</v>
       </c>
-      <c r="K28" s="21">
-        <v>2000</v>
-      </c>
-      <c r="L28" s="22">
+      <c r="K28" s="22">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="M28" s="1">
+      <c r="L28" s="1">
         <f>SUM($B$3:B28)/$B$3</f>
         <v>47.54</v>
       </c>
-      <c r="N28" s="2">
-        <f>+N27+B28</f>
+      <c r="M28" s="2">
+        <f>+M27+B28</f>
         <v>2377000</v>
       </c>
-      <c r="O28" s="1">
+      <c r="N28" s="1">
         <f>D28/$D$3</f>
         <v>6.8</v>
       </c>
-      <c r="P28" s="1">
-        <f t="shared" si="5"/>
+      <c r="O28" s="1">
+        <f>E28/$E$3*1</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="P28" s="3">
         <f>+D28/D27-1</f>
         <v>6.25E-2</v>
       </c>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
+      <c r="Q28" s="2">
+        <v>145000</v>
+      </c>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
       <c r="T28" s="2">
         <v>2000</v>
       </c>
       <c r="U28" s="14">
-        <f t="shared" si="1"/>
+        <f>+F28</f>
         <v>4.7619047619047672E-2</v>
       </c>
       <c r="V28" s="14">
@@ -3339,11 +3368,11 @@
         <v>2000</v>
       </c>
       <c r="X28" s="1">
-        <f t="shared" si="6"/>
+        <f>E28/$E$3*1</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="Y28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.8</v>
       </c>
       <c r="AA28">
@@ -3355,14 +3384,14 @@
         <v>0.06</v>
       </c>
       <c r="AC28" s="3">
-        <f>+Q28</f>
+        <f>+P28</f>
         <v>6.25E-2</v>
       </c>
       <c r="AE28" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2001</v>
       </c>
@@ -3379,7 +3408,7 @@
         <v>46000</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.5454545454545414E-2</v>
       </c>
       <c r="G29">
@@ -3393,42 +3422,42 @@
         <v>2215.64</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>31.97171717171717</v>
       </c>
-      <c r="K29" s="21">
-        <v>2001</v>
-      </c>
-      <c r="L29" s="22">
+      <c r="K29" s="22">
         <v>4.41E-2</v>
       </c>
-      <c r="M29" s="1">
+      <c r="L29" s="1">
         <f>SUM($B$3:B29)/$B$3</f>
         <v>49.94</v>
       </c>
-      <c r="N29" s="2">
-        <f>+N28+B29</f>
+      <c r="M29" s="2">
+        <f>+M28+B29</f>
         <v>2497000</v>
       </c>
-      <c r="O29" s="1">
+      <c r="N29" s="1">
         <f>D29/$D$3</f>
         <v>7.2</v>
       </c>
-      <c r="P29" s="1">
-        <f t="shared" si="5"/>
+      <c r="O29" s="1">
+        <f>E29/$E$3*1</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="P29" s="3">
         <f>+D29/D28-1</f>
         <v>5.8823529411764719E-2</v>
       </c>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
+      <c r="Q29" s="2">
+        <v>140000</v>
+      </c>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
       <c r="T29" s="2">
         <v>2001</v>
       </c>
       <c r="U29" s="14">
-        <f t="shared" si="1"/>
+        <f>+F29</f>
         <v>4.5454545454545414E-2</v>
       </c>
       <c r="V29" s="14">
@@ -3439,11 +3468,11 @@
         <v>2001</v>
       </c>
       <c r="X29" s="1">
-        <f t="shared" si="6"/>
+        <f>E29/$E$3*1</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="Y29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
       <c r="AA29">
@@ -3455,14 +3484,14 @@
         <v>0.05</v>
       </c>
       <c r="AC29" s="3">
-        <f>+Q29</f>
+        <f>+P29</f>
         <v>5.8823529411764719E-2</v>
       </c>
       <c r="AE29" s="2">
         <v>2001</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2002</v>
       </c>
@@ -3479,7 +3508,7 @@
         <v>48000</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.3478260869565188E-2</v>
       </c>
       <c r="G30">
@@ -3493,42 +3522,42 @@
         <v>1619.2</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23.365079365079367</v>
       </c>
-      <c r="K30" s="21">
-        <v>2002</v>
-      </c>
-      <c r="L30" s="22">
+      <c r="K30" s="22">
         <v>2.98E-2</v>
       </c>
-      <c r="M30" s="1">
+      <c r="L30" s="1">
         <f>SUM($B$3:B30)/$B$3</f>
         <v>52.54</v>
       </c>
-      <c r="N30" s="2">
-        <f>+N29+B30</f>
+      <c r="M30" s="2">
+        <f>+M29+B30</f>
         <v>2627000</v>
       </c>
-      <c r="O30" s="1">
+      <c r="N30" s="1">
         <f>D30/$D$3</f>
         <v>8</v>
       </c>
-      <c r="P30" s="1">
-        <f t="shared" si="5"/>
+      <c r="O30" s="1">
+        <f>E30/$E$3*1</f>
         <v>4.8</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="P30" s="3">
         <f>+D30/D29-1</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
+      <c r="Q30" s="2">
+        <v>135000</v>
+      </c>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
       <c r="T30" s="2">
         <v>2002</v>
       </c>
       <c r="U30" s="14">
-        <f t="shared" si="1"/>
+        <f>+F30</f>
         <v>4.3478260869565188E-2</v>
       </c>
       <c r="V30" s="14">
@@ -3539,11 +3568,11 @@
         <v>2002</v>
       </c>
       <c r="X30" s="1">
-        <f t="shared" si="6"/>
+        <f>E30/$E$3*1</f>
         <v>4.8</v>
       </c>
       <c r="Y30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="AA30">
@@ -3555,14 +3584,14 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="AC30" s="3">
-        <f>+Q30</f>
+        <f>+P30</f>
         <v>0.11111111111111116</v>
       </c>
       <c r="AE30" s="2">
         <v>2002</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2003</v>
       </c>
@@ -3579,7 +3608,7 @@
         <v>50000</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="G31">
@@ -3593,42 +3622,42 @@
         <v>1668</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24.069264069264069</v>
       </c>
-      <c r="K31" s="21">
-        <v>2003</v>
-      </c>
-      <c r="L31" s="22">
+      <c r="K31" s="22">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="M31" s="1">
+      <c r="L31" s="1">
         <f>SUM($B$3:B31)/$B$3</f>
         <v>55.34</v>
       </c>
-      <c r="N31" s="2">
-        <f>+N30+B31</f>
+      <c r="M31" s="2">
+        <f>+M30+B31</f>
         <v>2767000</v>
       </c>
-      <c r="O31" s="1">
+      <c r="N31" s="1">
         <f>D31/$D$3</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="P31" s="1">
-        <f t="shared" si="5"/>
+      <c r="O31" s="1">
+        <f>E31/$E$3*1</f>
         <v>5</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="P31" s="3">
         <f>+D31/D30-1</f>
         <v>0.14999999999999991</v>
       </c>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
+      <c r="Q31" s="2">
+        <v>145000</v>
+      </c>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
       <c r="T31" s="2">
         <v>2003</v>
       </c>
       <c r="U31" s="14">
-        <f t="shared" si="1"/>
+        <f>+F31</f>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="V31" s="14">
@@ -3639,11 +3668,11 @@
         <v>2003</v>
       </c>
       <c r="X31" s="1">
-        <f t="shared" si="6"/>
+        <f>E31/$E$3*1</f>
         <v>5</v>
       </c>
       <c r="Y31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="AA31">
@@ -3655,14 +3684,14 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="AC31" s="3">
-        <f>+Q31</f>
+        <f>+P31</f>
         <v>0.14999999999999991</v>
       </c>
       <c r="AE31" s="2">
         <v>2003</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2004</v>
       </c>
@@ -3679,7 +3708,7 @@
         <v>52000</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="G32">
@@ -3693,42 +3722,42 @@
         <v>1648.3200000000002</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23.78528138528139</v>
       </c>
-      <c r="K32" s="21">
-        <v>2004</v>
-      </c>
-      <c r="L32" s="22">
+      <c r="K32" s="22">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="M32" s="1">
+      <c r="L32" s="1">
         <f>SUM($B$3:B32)/$B$3</f>
         <v>58.34</v>
       </c>
-      <c r="N32" s="2">
-        <f>+N31+B32</f>
+      <c r="M32" s="2">
+        <f>+M31+B32</f>
         <v>2917000</v>
       </c>
-      <c r="O32" s="1">
+      <c r="N32" s="1">
         <f>D32/$D$3</f>
         <v>10</v>
       </c>
-      <c r="P32" s="1">
-        <f t="shared" si="5"/>
+      <c r="O32" s="1">
+        <f>E32/$E$3*1</f>
         <v>5.2</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="P32" s="3">
         <f>+D32/D31-1</f>
         <v>8.6956521739130377E-2</v>
       </c>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
+      <c r="Q32" s="2">
+        <v>155000</v>
+      </c>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
       <c r="T32" s="2">
         <v>2004</v>
       </c>
       <c r="U32" s="14">
-        <f t="shared" si="1"/>
+        <f>+F32</f>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="V32" s="14">
@@ -3739,11 +3768,11 @@
         <v>2004</v>
       </c>
       <c r="X32" s="1">
-        <f t="shared" si="6"/>
+        <f>E32/$E$3*1</f>
         <v>5.2</v>
       </c>
       <c r="Y32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AA32">
@@ -3755,14 +3784,14 @@
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="AC32" s="3">
-        <f>+Q32</f>
+        <f>+P32</f>
         <v>8.6956521739130377E-2</v>
       </c>
       <c r="AE32" s="2">
         <v>2004</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2005</v>
       </c>
@@ -3779,7 +3808,7 @@
         <v>55000</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.7692307692307709E-2</v>
       </c>
       <c r="G33">
@@ -3793,42 +3822,42 @@
         <v>1659.8400000000001</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23.951515151515153</v>
       </c>
-      <c r="K33" s="21">
-        <v>2005</v>
-      </c>
-      <c r="L33" s="22">
+      <c r="K33" s="22">
         <v>2.69E-2</v>
       </c>
-      <c r="M33" s="1">
+      <c r="L33" s="1">
         <f>SUM($B$3:B33)/$B$3</f>
         <v>61.54</v>
       </c>
-      <c r="N33" s="2">
-        <f>+N32+B33</f>
+      <c r="M33" s="2">
+        <f>+M32+B33</f>
         <v>3077000</v>
       </c>
-      <c r="O33" s="1">
+      <c r="N33" s="1">
         <f>D33/$D$3</f>
         <v>10.4</v>
       </c>
-      <c r="P33" s="1">
-        <f t="shared" si="5"/>
+      <c r="O33" s="1">
+        <f>E33/$E$3*1</f>
         <v>5.5</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="P33" s="3">
         <f>+D33/D32-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
+      <c r="Q33" s="2">
+        <v>160000</v>
+      </c>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
       <c r="T33" s="2">
         <v>2005</v>
       </c>
       <c r="U33" s="14">
-        <f t="shared" si="1"/>
+        <f>+F33</f>
         <v>5.7692307692307709E-2</v>
       </c>
       <c r="V33" s="14">
@@ -3839,11 +3868,11 @@
         <v>2005</v>
       </c>
       <c r="X33" s="1">
-        <f t="shared" si="6"/>
+        <f>E33/$E$3*1</f>
         <v>5.5</v>
       </c>
       <c r="Y33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10.4</v>
       </c>
       <c r="AA33">
@@ -3855,14 +3884,14 @@
         <v>5.5E-2</v>
       </c>
       <c r="AC33" s="3">
-        <f>+Q33</f>
+        <f>+P33</f>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AE33" s="2">
         <v>2005</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2006</v>
       </c>
@@ -3879,7 +3908,7 @@
         <v>58000</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.4545454545454453E-2</v>
       </c>
       <c r="G34">
@@ -3893,42 +3922,42 @@
         <v>1885.94</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27.214141414141416</v>
       </c>
-      <c r="K34" s="21">
-        <v>2006</v>
-      </c>
-      <c r="L34" s="22">
+      <c r="K34" s="22">
         <v>3.56E-2</v>
       </c>
-      <c r="M34" s="1">
+      <c r="L34" s="1">
         <f>SUM($B$3:B34)/$B$3</f>
         <v>65.14</v>
       </c>
-      <c r="N34" s="2">
-        <f>+N33+B34</f>
+      <c r="M34" s="2">
+        <f>+M33+B34</f>
         <v>3257000</v>
       </c>
-      <c r="O34" s="1">
+      <c r="N34" s="1">
         <f>D34/$D$3</f>
         <v>12</v>
       </c>
-      <c r="P34" s="1">
-        <f t="shared" si="5"/>
+      <c r="O34" s="1">
+        <f>E34/$E$3*1</f>
         <v>5.8</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="P34" s="3">
         <f>+D34/D33-1</f>
         <v>0.15384615384615374</v>
       </c>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
+      <c r="Q34" s="2">
+        <v>165000</v>
+      </c>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
       <c r="T34" s="2">
         <v>2006</v>
       </c>
       <c r="U34" s="14">
-        <f t="shared" si="1"/>
+        <f>+F34</f>
         <v>5.4545454545454453E-2</v>
       </c>
       <c r="V34" s="14">
@@ -3939,11 +3968,11 @@
         <v>2006</v>
       </c>
       <c r="X34" s="1">
-        <f t="shared" si="6"/>
+        <f>E34/$E$3*1</f>
         <v>5.8</v>
       </c>
       <c r="Y34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AA34">
@@ -3955,14 +3984,14 @@
         <v>0.06</v>
       </c>
       <c r="AC34" s="3">
-        <f>+Q34</f>
+        <f>+P34</f>
         <v>0.15384615384615374</v>
       </c>
       <c r="AE34" s="2">
         <v>2006</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2007</v>
       </c>
@@ -3979,7 +4008,7 @@
         <v>61000</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.1724137931034475E-2</v>
       </c>
       <c r="G35">
@@ -3993,42 +4022,42 @@
         <v>1761.6</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25.419913419913421</v>
       </c>
-      <c r="K35" s="21">
-        <v>2007</v>
-      </c>
-      <c r="L35" s="22">
+      <c r="K35" s="22">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="M35" s="1">
+      <c r="L35" s="1">
         <f>SUM($B$3:B35)/$B$3</f>
         <v>69.14</v>
       </c>
-      <c r="N35" s="2">
-        <f>+N34+B35</f>
+      <c r="M35" s="2">
+        <f>+M34+B35</f>
         <v>3457000</v>
       </c>
-      <c r="O35" s="1">
+      <c r="N35" s="1">
         <f>D35/$D$3</f>
         <v>14</v>
       </c>
-      <c r="P35" s="1">
-        <f t="shared" si="5"/>
+      <c r="O35" s="1">
+        <f>E35/$E$3*1</f>
         <v>6.1</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="P35" s="3">
         <f>+D35/D34-1</f>
         <v>0.16666666666666674</v>
       </c>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
+      <c r="Q35" s="2">
+        <v>170000</v>
+      </c>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
       <c r="T35" s="2">
         <v>2007</v>
       </c>
       <c r="U35" s="14">
-        <f t="shared" si="1"/>
+        <f>+F35</f>
         <v>5.1724137931034475E-2</v>
       </c>
       <c r="V35" s="14">
@@ -4039,11 +4068,11 @@
         <v>2007</v>
       </c>
       <c r="X35" s="1">
-        <f t="shared" si="6"/>
+        <f>E35/$E$3*1</f>
         <v>6.1</v>
       </c>
       <c r="Y35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="AA35">
@@ -4055,14 +4084,14 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="AC35" s="3">
-        <f>+Q35</f>
+        <f>+P35</f>
         <v>0.16666666666666674</v>
       </c>
       <c r="AE35" s="2">
         <v>2007</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2008</v>
       </c>
@@ -4079,7 +4108,7 @@
         <v>65000</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.5573770491803351E-2</v>
       </c>
       <c r="G36">
@@ -4093,42 +4122,42 @@
         <v>1300.32</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18.763636363636362</v>
       </c>
-      <c r="K36" s="21">
-        <v>2008</v>
-      </c>
-      <c r="L36" s="22">
+      <c r="K36" s="22">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="M36" s="1">
+      <c r="L36" s="1">
         <f>SUM($B$3:B36)/$B$3</f>
         <v>73.739999999999995</v>
       </c>
-      <c r="N36" s="2">
-        <f>+N35+B36</f>
+      <c r="M36" s="2">
+        <f>+M35+B36</f>
         <v>3687000</v>
       </c>
-      <c r="O36" s="1">
+      <c r="N36" s="1">
         <f>D36/$D$3</f>
         <v>15.2</v>
       </c>
-      <c r="P36" s="1">
-        <f t="shared" si="5"/>
+      <c r="O36" s="1">
+        <f>E36/$E$3*1</f>
         <v>6.5</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="P36" s="3">
         <f>+D36/D35-1</f>
         <v>8.5714285714285632E-2</v>
       </c>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
+      <c r="Q36" s="2">
+        <v>175000</v>
+      </c>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
       <c r="T36" s="2">
         <v>2008</v>
       </c>
       <c r="U36" s="14">
-        <f t="shared" si="1"/>
+        <f>+F36</f>
         <v>6.5573770491803351E-2</v>
       </c>
       <c r="V36" s="14">
@@ -4139,11 +4168,11 @@
         <v>2008</v>
       </c>
       <c r="X36" s="1">
-        <f t="shared" si="6"/>
+        <f>E36/$E$3*1</f>
         <v>6.5</v>
       </c>
       <c r="Y36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15.2</v>
       </c>
       <c r="AA36">
@@ -4155,14 +4184,14 @@
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC36" s="3">
-        <f>+Q36</f>
+        <f>+P36</f>
         <v>8.5714285714285632E-2</v>
       </c>
       <c r="AE36" s="2">
         <v>2008</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2009</v>
       </c>
@@ -4179,7 +4208,7 @@
         <v>68000</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.6153846153846212E-2</v>
       </c>
       <c r="G37">
@@ -4193,42 +4222,42 @@
         <v>1404.9</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20.272727272727273</v>
       </c>
-      <c r="K37" s="21">
-        <v>2009</v>
-      </c>
-      <c r="L37" s="22">
+      <c r="K37" s="22">
         <v>1.77E-2</v>
       </c>
-      <c r="M37" s="1">
+      <c r="L37" s="1">
         <f>SUM($B$3:B37)/$B$3</f>
         <v>77.739999999999995</v>
       </c>
-      <c r="N37" s="2">
-        <f>+N36+B37</f>
+      <c r="M37" s="2">
+        <f>+M36+B37</f>
         <v>3887000</v>
       </c>
-      <c r="O37" s="1">
+      <c r="N37" s="1">
         <f>D37/$D$3</f>
         <v>16</v>
       </c>
-      <c r="P37" s="1">
-        <f t="shared" si="5"/>
+      <c r="O37" s="1">
+        <f>E37/$E$3*1</f>
         <v>6.8</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="P37" s="3">
         <f>+D37/D36-1</f>
         <v>5.2631578947368363E-2</v>
       </c>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
+      <c r="Q37" s="2">
+        <v>160000</v>
+      </c>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
       <c r="T37" s="2">
         <v>2009</v>
       </c>
       <c r="U37" s="14">
-        <f t="shared" si="1"/>
+        <f>+F37</f>
         <v>4.6153846153846212E-2</v>
       </c>
       <c r="V37" s="14">
@@ -4239,11 +4268,11 @@
         <v>2009</v>
       </c>
       <c r="X37" s="1">
-        <f t="shared" si="6"/>
+        <f>E37/$E$3*1</f>
         <v>6.8</v>
       </c>
       <c r="Y37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="AA37">
@@ -4255,14 +4284,14 @@
         <v>0.03</v>
       </c>
       <c r="AC37" s="3">
-        <f>+Q37</f>
+        <f>+P37</f>
         <v>5.2631578947368363E-2</v>
       </c>
       <c r="AE37" s="2">
         <v>2009</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2010</v>
       </c>
@@ -4279,7 +4308,7 @@
         <v>71000</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.4117647058823595E-2</v>
       </c>
       <c r="G38">
@@ -4293,42 +4322,42 @@
         <v>1283.1600000000001</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18.516017316017319</v>
       </c>
-      <c r="K38" s="21">
-        <v>2010</v>
-      </c>
-      <c r="L38" s="22">
+      <c r="K38" s="22">
         <v>2.92E-2</v>
       </c>
-      <c r="M38" s="1">
+      <c r="L38" s="1">
         <f>SUM($B$3:B38)/$B$3</f>
         <v>81.34</v>
       </c>
-      <c r="N38" s="2">
-        <f>+N37+B38</f>
+      <c r="M38" s="2">
+        <f>+M37+B38</f>
         <v>4067000</v>
       </c>
-      <c r="O38" s="1">
+      <c r="N38" s="1">
         <f>D38/$D$3</f>
         <v>16.8</v>
       </c>
-      <c r="P38" s="1">
-        <f t="shared" si="5"/>
+      <c r="O38" s="1">
+        <f>E38/$E$3*1</f>
         <v>7.1</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="P38" s="3">
         <f>+D38/D37-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
+      <c r="Q38" s="2">
+        <v>170000</v>
+      </c>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
       <c r="T38" s="2">
         <v>2010</v>
       </c>
       <c r="U38" s="14">
-        <f t="shared" si="1"/>
+        <f>+F38</f>
         <v>4.4117647058823595E-2</v>
       </c>
       <c r="V38" s="14">
@@ -4339,11 +4368,11 @@
         <v>2010</v>
       </c>
       <c r="X38" s="1">
-        <f t="shared" si="6"/>
+        <f>E38/$E$3*1</f>
         <v>7.1</v>
       </c>
       <c r="Y38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16.8</v>
       </c>
       <c r="AA38">
@@ -4355,14 +4384,14 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="AC38" s="3">
-        <f>+Q38</f>
+        <f>+P38</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AE38" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2011</v>
       </c>
@@ -4379,7 +4408,7 @@
         <v>74000</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.2253521126760507E-2</v>
       </c>
       <c r="G39">
@@ -4393,42 +4422,42 @@
         <v>1295.74</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18.6975468975469</v>
       </c>
-      <c r="K39" s="21">
-        <v>2011</v>
-      </c>
-      <c r="L39" s="22">
+      <c r="K39" s="22">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="M39" s="1">
+      <c r="L39" s="1">
         <f>SUM($B$3:B39)/$B$3</f>
         <v>85.14</v>
       </c>
-      <c r="N39" s="2">
-        <f>+N38+B39</f>
+      <c r="M39" s="2">
+        <f>+M38+B39</f>
         <v>4257000</v>
       </c>
-      <c r="O39" s="1">
+      <c r="N39" s="1">
         <f>D39/$D$3</f>
         <v>17.2</v>
       </c>
-      <c r="P39" s="1">
-        <f t="shared" si="5"/>
+      <c r="O39" s="1">
+        <f>E39/$E$3*1</f>
         <v>7.4</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="P39" s="3">
         <f>+D39/D38-1</f>
         <v>2.3809523809523725E-2</v>
       </c>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
+      <c r="Q39" s="2">
+        <v>160000</v>
+      </c>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
       <c r="T39" s="2">
         <v>2011</v>
       </c>
       <c r="U39" s="14">
-        <f t="shared" si="1"/>
+        <f>+F39</f>
         <v>4.2253521126760507E-2</v>
       </c>
       <c r="V39" s="14">
@@ -4439,11 +4468,11 @@
         <v>2011</v>
       </c>
       <c r="X39" s="1">
-        <f t="shared" si="6"/>
+        <f>E39/$E$3*1</f>
         <v>7.4</v>
       </c>
       <c r="Y39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17.2</v>
       </c>
       <c r="AA39">
@@ -4455,14 +4484,14 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="AC39" s="3">
-        <f>+Q39</f>
+        <f>+P39</f>
         <v>2.3809523809523725E-2</v>
       </c>
       <c r="AE39" s="2">
         <v>2011</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2012</v>
       </c>
@@ -4479,7 +4508,7 @@
         <v>77000</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.0540540540540571E-2</v>
       </c>
       <c r="G40">
@@ -4493,42 +4522,42 @@
         <v>1383.22</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19.959884559884561</v>
       </c>
-      <c r="K40" s="21">
-        <v>2012</v>
-      </c>
-      <c r="L40" s="22">
+      <c r="K40" s="22">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="M40" s="1">
+      <c r="L40" s="1">
         <f>SUM($B$3:B40)/$B$3</f>
         <v>89.14</v>
       </c>
-      <c r="N40" s="2">
-        <f>+N39+B40</f>
+      <c r="M40" s="2">
+        <f>+M39+B40</f>
         <v>4457000</v>
       </c>
-      <c r="O40" s="1">
+      <c r="N40" s="1">
         <f>D40/$D$3</f>
         <v>18</v>
       </c>
-      <c r="P40" s="1">
-        <f t="shared" si="5"/>
+      <c r="O40" s="1">
+        <f>E40/$E$3*1</f>
         <v>7.7</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="P40" s="3">
         <f>+D40/D39-1</f>
         <v>4.6511627906976827E-2</v>
       </c>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
+      <c r="Q40" s="2">
+        <v>155000</v>
+      </c>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
       <c r="T40" s="2">
         <v>2012</v>
       </c>
       <c r="U40" s="14">
-        <f t="shared" si="1"/>
+        <f>+F40</f>
         <v>4.0540540540540571E-2</v>
       </c>
       <c r="V40" s="14">
@@ -4539,11 +4568,11 @@
         <v>2012</v>
       </c>
       <c r="X40" s="1">
-        <f t="shared" si="6"/>
+        <f>E40/$E$3*1</f>
         <v>7.7</v>
       </c>
       <c r="Y40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="AA40">
@@ -4555,14 +4584,14 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="AC40" s="3">
-        <f>+Q40</f>
+        <f>+P40</f>
         <v>4.6511627906976827E-2</v>
       </c>
       <c r="AE40" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2013</v>
       </c>
@@ -4579,7 +4608,7 @@
         <v>80000</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.8961038961038863E-2</v>
       </c>
       <c r="G41">
@@ -4593,42 +4622,42 @@
         <v>1921.92</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27.733333333333334</v>
       </c>
-      <c r="K41" s="21">
-        <v>2013</v>
-      </c>
-      <c r="L41" s="22">
+      <c r="K41" s="22">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="M41" s="1">
+      <c r="L41" s="1">
         <f>SUM($B$3:B41)/$B$3</f>
         <v>92.94</v>
       </c>
-      <c r="N41" s="2">
-        <f>+N40+B41</f>
+      <c r="M41" s="2">
+        <f>+M40+B41</f>
         <v>4647000</v>
       </c>
-      <c r="O41" s="1">
+      <c r="N41" s="1">
         <f>D41/$D$3</f>
         <v>19.2</v>
       </c>
-      <c r="P41" s="1">
-        <f t="shared" si="5"/>
+      <c r="O41" s="1">
+        <f>E41/$E$3*1</f>
         <v>8</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="P41" s="3">
         <f>+D41/D40-1</f>
         <v>6.6666666666666652E-2</v>
       </c>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
+      <c r="Q41" s="2">
+        <v>160000</v>
+      </c>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
       <c r="T41" s="2">
         <v>2013</v>
       </c>
       <c r="U41" s="14">
-        <f t="shared" si="1"/>
+        <f>+F41</f>
         <v>3.8961038961038863E-2</v>
       </c>
       <c r="V41" s="14">
@@ -4639,11 +4668,11 @@
         <v>2013</v>
       </c>
       <c r="X41" s="1">
-        <f t="shared" si="6"/>
+        <f>E41/$E$3*1</f>
         <v>8</v>
       </c>
       <c r="Y41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19.2</v>
       </c>
       <c r="AA41">
@@ -4655,14 +4684,14 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AC41" s="3">
-        <f>+Q41</f>
+        <f>+P41</f>
         <v>6.6666666666666652E-2</v>
       </c>
       <c r="AE41" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2014</v>
       </c>
@@ -4679,7 +4708,7 @@
         <v>83000</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.7500000000000089E-2</v>
       </c>
       <c r="G42">
@@ -4693,42 +4722,42 @@
         <v>2285.4900000000002</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32.979653679653687</v>
       </c>
-      <c r="K42" s="21">
-        <v>2014</v>
-      </c>
-      <c r="L42" s="22">
+      <c r="K42" s="22">
         <v>2.4899999999999999E-2</v>
       </c>
-      <c r="M42" s="1">
+      <c r="L42" s="1">
         <f>SUM($B$3:B42)/$B$3</f>
         <v>96.54</v>
       </c>
-      <c r="N42" s="2">
-        <f>+N41+B42</f>
+      <c r="M42" s="2">
+        <f>+M41+B42</f>
         <v>4827000</v>
       </c>
-      <c r="O42" s="1">
+      <c r="N42" s="1">
         <f>D42/$D$3</f>
         <v>20.399999999999999</v>
       </c>
-      <c r="P42" s="1">
-        <f t="shared" si="5"/>
+      <c r="O42" s="1">
+        <f>E42/$E$3*1</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="P42" s="3">
         <f>+D42/D41-1</f>
         <v>6.25E-2</v>
       </c>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
+      <c r="Q42" s="2">
+        <v>185000</v>
+      </c>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
       <c r="T42" s="2">
         <v>2014</v>
       </c>
       <c r="U42" s="14">
-        <f t="shared" si="1"/>
+        <f>+F42</f>
         <v>3.7500000000000089E-2</v>
       </c>
       <c r="V42" s="14">
@@ -4739,11 +4768,11 @@
         <v>2014</v>
       </c>
       <c r="X42" s="1">
-        <f t="shared" si="6"/>
+        <f>E42/$E$3*1</f>
         <v>8.3000000000000007</v>
       </c>
       <c r="Y42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20.399999999999999</v>
       </c>
       <c r="AA42">
@@ -4755,14 +4784,14 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AC42" s="3">
-        <f>+Q42</f>
+        <f>+P42</f>
         <v>6.25E-2</v>
       </c>
       <c r="AE42" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>2015</v>
       </c>
@@ -4779,7 +4808,7 @@
         <v>85000</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.4096385542168752E-2</v>
       </c>
       <c r="G43">
@@ -4793,42 +4822,42 @@
         <v>2718.52</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>39.228282828282829</v>
       </c>
-      <c r="K43" s="21">
-        <v>2015</v>
-      </c>
-      <c r="L43" s="22">
+      <c r="K43" s="22">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="M43" s="1">
+      <c r="L43" s="1">
         <f>SUM($B$3:B43)/$B$3</f>
         <v>100.12</v>
       </c>
-      <c r="N43" s="2">
-        <f>+N42+B43</f>
+      <c r="M43" s="2">
+        <f>+M42+B43</f>
         <v>5006000</v>
       </c>
-      <c r="O43" s="1">
+      <c r="N43" s="1">
         <f>D43/$D$3</f>
         <v>22</v>
       </c>
-      <c r="P43" s="1">
-        <f t="shared" si="5"/>
+      <c r="O43" s="1">
+        <f>E43/$E$3*1</f>
         <v>8.5</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="P43" s="3">
         <f>+D43/D42-1</f>
         <v>7.8431372549019551E-2</v>
       </c>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
+      <c r="Q43" s="2">
+        <v>210000</v>
+      </c>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
       <c r="T43" s="2">
         <v>2015</v>
       </c>
       <c r="U43" s="14">
-        <f t="shared" si="1"/>
+        <f>+F43</f>
         <v>2.4096385542168752E-2</v>
       </c>
       <c r="V43" s="14">
@@ -4839,11 +4868,11 @@
         <v>2015</v>
       </c>
       <c r="X43" s="1">
-        <f t="shared" si="6"/>
+        <f>E43/$E$3*1</f>
         <v>8.5</v>
       </c>
       <c r="Y43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="AA43">
@@ -4855,14 +4884,14 @@
         <v>0.02</v>
       </c>
       <c r="AC43" s="3">
-        <f>+Q43</f>
+        <f>+P43</f>
         <v>7.8431372549019551E-2</v>
       </c>
       <c r="AE43" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>2016</v>
       </c>
@@ -4879,7 +4908,7 @@
         <v>87000</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.3529411764705799E-2</v>
       </c>
       <c r="G44">
@@ -4893,42 +4922,42 @@
         <v>3022.65</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43.616883116883123</v>
       </c>
-      <c r="K44" s="21">
-        <v>2016</v>
-      </c>
-      <c r="L44" s="22">
+      <c r="K44" s="22">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="M44" s="1">
+      <c r="L44" s="1">
         <f>SUM($B$3:B44)/$B$3</f>
         <v>103.92</v>
       </c>
-      <c r="N44" s="2">
-        <f>+N43+B44</f>
+      <c r="M44" s="2">
+        <f>+M43+B44</f>
         <v>5196000</v>
       </c>
-      <c r="O44" s="1">
+      <c r="N44" s="1">
         <f>D44/$D$3</f>
         <v>23.2</v>
       </c>
-      <c r="P44" s="1">
-        <f t="shared" si="5"/>
+      <c r="O44" s="1">
+        <f>E44/$E$3*1</f>
         <v>8.6999999999999993</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="P44" s="3">
         <f>+D44/D43-1</f>
         <v>5.4545454545454453E-2</v>
       </c>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
+      <c r="Q44" s="2">
+        <v>220000</v>
+      </c>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
       <c r="T44" s="2">
         <v>2016</v>
       </c>
       <c r="U44" s="14">
-        <f t="shared" si="1"/>
+        <f>+F44</f>
         <v>2.3529411764705799E-2</v>
       </c>
       <c r="V44" s="14">
@@ -4939,11 +4968,11 @@
         <v>2016</v>
       </c>
       <c r="X44" s="1">
-        <f t="shared" si="6"/>
+        <f>E44/$E$3*1</f>
         <v>8.6999999999999993</v>
       </c>
       <c r="Y44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23.2</v>
       </c>
       <c r="AA44">
@@ -4955,14 +4984,14 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AC44" s="3">
-        <f>+Q44</f>
+        <f>+P44</f>
         <v>5.4545454545454453E-2</v>
       </c>
       <c r="AE44" s="2">
         <v>2016</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>2017</v>
       </c>
@@ -4979,7 +5008,7 @@
         <v>89000</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.2988505747126409E-2</v>
       </c>
       <c r="G45">
@@ -4993,42 +5022,42 @@
         <v>3476.2000000000003</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>50.161616161616166</v>
       </c>
-      <c r="K45" s="21">
-        <v>2017</v>
-      </c>
-      <c r="L45" s="22">
+      <c r="K45" s="22">
         <v>1.95E-2</v>
       </c>
-      <c r="M45" s="1">
+      <c r="L45" s="1">
         <f>SUM($B$3:B45)/$B$3</f>
         <v>107.92</v>
       </c>
-      <c r="N45" s="2">
-        <f>+N44+B45</f>
+      <c r="M45" s="2">
+        <f>+M44+B45</f>
         <v>5396000</v>
       </c>
-      <c r="O45" s="1">
+      <c r="N45" s="1">
         <f>D45/$D$3</f>
         <v>24.8</v>
       </c>
-      <c r="P45" s="1">
-        <f t="shared" si="5"/>
+      <c r="O45" s="1">
+        <f>E45/$E$3*1</f>
         <v>8.9</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="P45" s="3">
         <f>+D45/D44-1</f>
         <v>6.8965517241379226E-2</v>
       </c>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
+      <c r="Q45" s="2">
+        <v>225000</v>
+      </c>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
       <c r="T45" s="2">
         <v>2017</v>
       </c>
       <c r="U45" s="14">
-        <f t="shared" si="1"/>
+        <f>+F45</f>
         <v>2.2988505747126409E-2</v>
       </c>
       <c r="V45" s="14">
@@ -5039,11 +5068,11 @@
         <v>2017</v>
       </c>
       <c r="X45" s="1">
-        <f t="shared" si="6"/>
+        <f>E45/$E$3*1</f>
         <v>8.9</v>
       </c>
       <c r="Y45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24.8</v>
       </c>
       <c r="AA45">
@@ -5055,14 +5084,14 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AC45" s="3">
-        <f>+Q45</f>
+        <f>+P45</f>
         <v>6.8965517241379226E-2</v>
       </c>
       <c r="AE45" s="2">
         <v>2017</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>2018</v>
       </c>
@@ -5079,7 +5108,7 @@
         <v>91000</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.2471910112359605E-2</v>
       </c>
       <c r="G46">
@@ -5093,42 +5122,42 @@
         <v>3359.38</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>48.475901875901883</v>
       </c>
-      <c r="K46" s="21">
-        <v>2018</v>
-      </c>
-      <c r="L46" s="22">
+      <c r="K46" s="22">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="M46" s="1">
+      <c r="L46" s="1">
         <f>SUM($B$3:B46)/$B$3</f>
         <v>112.12</v>
       </c>
-      <c r="N46" s="2">
-        <f>+N45+B46</f>
+      <c r="M46" s="2">
+        <f>+M45+B46</f>
         <v>5606000</v>
       </c>
-      <c r="O46" s="1">
+      <c r="N46" s="1">
         <f>D46/$D$3</f>
         <v>24.4</v>
       </c>
-      <c r="P46" s="1">
-        <f t="shared" si="5"/>
+      <c r="O46" s="1">
+        <f>E46/$E$3*1</f>
         <v>9.1</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="P46" s="3">
         <f>+D46/D45-1</f>
         <v>-1.6129032258064502E-2</v>
       </c>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
+      <c r="Q46" s="2">
+        <v>220000</v>
+      </c>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
       <c r="T46" s="2">
         <v>2018</v>
       </c>
       <c r="U46" s="14">
-        <f t="shared" si="1"/>
+        <f>+F46</f>
         <v>2.2471910112359605E-2</v>
       </c>
       <c r="V46" s="14">
@@ -5139,11 +5168,11 @@
         <v>2018</v>
       </c>
       <c r="X46" s="1">
-        <f t="shared" si="6"/>
+        <f>E46/$E$3*1</f>
         <v>9.1</v>
       </c>
       <c r="Y46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24.4</v>
       </c>
       <c r="AA46">
@@ -5155,14 +5184,14 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AC46" s="3">
-        <f>+Q46</f>
+        <f>+P46</f>
         <v>-1.6129032258064502E-2</v>
       </c>
       <c r="AE46" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>2019</v>
       </c>
@@ -5179,7 +5208,7 @@
         <v>93000</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.19780219780219E-2</v>
       </c>
       <c r="G47">
@@ -5193,42 +5222,42 @@
         <v>4652.6399999999994</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>67.137662337662334</v>
       </c>
-      <c r="K47" s="21">
-        <v>2019</v>
-      </c>
-      <c r="L47" s="22">
+      <c r="K47" s="22">
         <v>1.61E-2</v>
       </c>
-      <c r="M47" s="1">
+      <c r="L47" s="1">
         <f>SUM($B$3:B47)/$B$3</f>
         <v>116</v>
       </c>
-      <c r="N47" s="2">
-        <f>+N46+B47</f>
+      <c r="M47" s="2">
+        <f>+M46+B47</f>
         <v>5800000</v>
       </c>
-      <c r="O47" s="1">
+      <c r="N47" s="1">
         <f>D47/$D$3</f>
         <v>24</v>
       </c>
-      <c r="P47" s="1">
-        <f t="shared" si="5"/>
+      <c r="O47" s="1">
+        <f>E47/$E$3*1</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="P47" s="3">
         <f>+D47/D46-1</f>
         <v>-1.6393442622950838E-2</v>
       </c>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
+      <c r="Q47" s="2">
+        <v>175000</v>
+      </c>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
       <c r="T47" s="2">
         <v>2019</v>
       </c>
       <c r="U47" s="14">
-        <f t="shared" si="1"/>
+        <f>+F47</f>
         <v>2.19780219780219E-2</v>
       </c>
       <c r="V47" s="14">
@@ -5239,11 +5268,11 @@
         <v>2019</v>
       </c>
       <c r="X47" s="1">
-        <f t="shared" si="6"/>
+        <f>E47/$E$3*1</f>
         <v>9.3000000000000007</v>
       </c>
       <c r="Y47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="AA47">
@@ -5255,14 +5284,14 @@
         <v>0.01</v>
       </c>
       <c r="AC47" s="3">
-        <f>+Q47</f>
+        <f>+P47</f>
         <v>-1.6393442622950838E-2</v>
       </c>
       <c r="AE47" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>2020</v>
       </c>
@@ -5279,7 +5308,7 @@
         <v>95000</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.1505376344086002E-2</v>
       </c>
       <c r="G48">
@@ -5293,42 +5322,42 @@
         <v>5446.2</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>78.588744588744589</v>
       </c>
-      <c r="K48" s="21">
-        <v>2020</v>
-      </c>
-      <c r="L48" s="22">
+      <c r="K48" s="22">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="M48" s="1">
+      <c r="L48" s="1">
         <f>SUM($B$3:B48)/$B$3</f>
         <v>114.3</v>
       </c>
-      <c r="N48" s="2">
-        <f>+N47+B48</f>
+      <c r="M48" s="2">
+        <f>+M47+B48</f>
         <v>5715000</v>
       </c>
-      <c r="O48" s="1">
+      <c r="N48" s="1">
         <f>D48/$D$3</f>
         <v>26</v>
       </c>
-      <c r="P48" s="1">
-        <f t="shared" si="5"/>
+      <c r="O48" s="1">
+        <f>E48/$E$3*1</f>
         <v>9.5</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="P48" s="3">
         <f>+D48/D47-1</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
+      <c r="Q48" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
       <c r="T48" s="2">
         <v>2020</v>
       </c>
       <c r="U48" s="14">
-        <f t="shared" si="1"/>
+        <f>+F48</f>
         <v>2.1505376344086002E-2</v>
       </c>
       <c r="V48" s="14">
@@ -5339,11 +5368,11 @@
         <v>2020</v>
       </c>
       <c r="X48" s="1">
-        <f t="shared" si="6"/>
+        <f>E48/$E$3*1</f>
         <v>9.5</v>
       </c>
       <c r="Y48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="AA48">
@@ -5355,14 +5384,14 @@
         <v>1E-3</v>
       </c>
       <c r="AC48" s="3">
-        <f>+Q48</f>
+        <f>+P48</f>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="AE48" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>2021</v>
       </c>
@@ -5379,7 +5408,7 @@
         <v>97000</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.1052631578947434E-2</v>
       </c>
       <c r="G49">
@@ -5393,42 +5422,42 @@
         <v>6338.7800000000007</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>91.468686868686888</v>
       </c>
-      <c r="K49" s="21">
-        <v>2021</v>
-      </c>
-      <c r="L49" s="22">
+      <c r="K49" s="22">
         <v>2.86E-2</v>
       </c>
-      <c r="M49" s="1">
+      <c r="L49" s="1">
         <f>SUM($B$3:B49)/$B$3</f>
         <v>117.72</v>
       </c>
-      <c r="N49" s="2">
-        <f>+N48+B49</f>
+      <c r="M49" s="2">
+        <f>+M48+B49</f>
         <v>5886000</v>
       </c>
-      <c r="O49" s="1">
+      <c r="N49" s="1">
         <f>D49/$D$3</f>
         <v>30</v>
       </c>
-      <c r="P49" s="1">
-        <f t="shared" si="5"/>
+      <c r="O49" s="1">
+        <f>E49/$E$3*1</f>
         <v>9.6999999999999993</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="P49" s="3">
         <f>+D49/D48-1</f>
         <v>0.15384615384615374</v>
       </c>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
+      <c r="Q49" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
       <c r="T49" s="2">
         <v>2021</v>
       </c>
       <c r="U49" s="14">
-        <f t="shared" si="1"/>
+        <f>+F49</f>
         <v>2.1052631578947434E-2</v>
       </c>
       <c r="V49" s="14">
@@ -5439,11 +5468,11 @@
         <v>2021</v>
       </c>
       <c r="X49" s="1">
-        <f t="shared" si="6"/>
+        <f>E49/$E$3*1</f>
         <v>9.6999999999999993</v>
       </c>
       <c r="Y49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AA49">
@@ -5455,14 +5484,14 @@
         <v>1E-3</v>
       </c>
       <c r="AC49" s="3">
-        <f>+Q49</f>
+        <f>+P49</f>
         <v>0.15384615384615374</v>
       </c>
       <c r="AE49" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>2022</v>
       </c>
@@ -5479,7 +5508,7 @@
         <v>99000</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.0618556701030855E-2</v>
       </c>
       <c r="G50">
@@ -5493,42 +5522,42 @@
         <v>5566.55</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>80.325396825396837</v>
       </c>
-      <c r="K50" s="21">
-        <v>2022</v>
-      </c>
-      <c r="L50" s="23">
+      <c r="K50" s="23">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="M50" s="1">
+      <c r="L50" s="1">
         <f>SUM($B$3:B50)/$B$3</f>
         <v>128.44</v>
       </c>
-      <c r="N50" s="2">
-        <f>+N49+B50</f>
+      <c r="M50" s="2">
+        <f>+M49+B50</f>
         <v>6422000</v>
       </c>
-      <c r="O50" s="1">
+      <c r="N50" s="1">
         <f>D50/$D$3</f>
         <v>32</v>
       </c>
-      <c r="P50" s="1">
-        <f t="shared" si="5"/>
+      <c r="O50" s="1">
+        <f>E50/$E$3*1</f>
         <v>9.9</v>
       </c>
-      <c r="Q50" s="3">
+      <c r="P50" s="3">
         <f>+D50/D49-1</f>
         <v>6.6666666666666652E-2</v>
       </c>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
+      <c r="Q50" s="2">
+        <v>190000</v>
+      </c>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
       <c r="T50" s="2">
         <v>2022</v>
       </c>
       <c r="U50" s="14">
-        <f t="shared" si="1"/>
+        <f>+F50</f>
         <v>2.0618556701030855E-2</v>
       </c>
       <c r="V50" s="14">
@@ -5539,11 +5568,11 @@
         <v>2022</v>
       </c>
       <c r="X50" s="1">
-        <f t="shared" si="6"/>
+        <f>E50/$E$3*1</f>
         <v>9.9</v>
       </c>
       <c r="Y50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="AA50">
@@ -5555,14 +5584,14 @@
         <v>2.35E-2</v>
       </c>
       <c r="AC50" s="3">
-        <f>+Q50</f>
+        <f>+P50</f>
         <v>6.6666666666666652E-2</v>
       </c>
       <c r="AE50" s="2">
         <v>2022</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>2023</v>
       </c>
@@ -5579,7 +5608,7 @@
         <v>100000</v>
       </c>
       <c r="F51" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0101010101010166E-2</v>
       </c>
       <c r="G51">
@@ -5593,42 +5622,42 @@
         <v>7155</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>103.24675324675326</v>
       </c>
-      <c r="K51" s="21">
-        <v>2023</v>
-      </c>
-      <c r="L51" s="23">
+      <c r="K51" s="23">
         <v>5.6300000000000003E-2</v>
       </c>
-      <c r="M51" s="1">
+      <c r="L51" s="1">
         <f>SUM($B$3:B51)/$B$3</f>
         <v>137.36000000000001</v>
       </c>
-      <c r="N51" s="2">
-        <f>+N50+B51</f>
+      <c r="M51" s="2">
+        <f>+M50+B51</f>
         <v>6868000</v>
       </c>
-      <c r="O51" s="1">
+      <c r="N51" s="1">
         <f>D51/$D$3</f>
         <v>34</v>
       </c>
-      <c r="P51" s="1">
-        <f t="shared" si="5"/>
+      <c r="O51" s="1">
+        <f>E51/$E$3*1</f>
         <v>10</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="P51" s="3">
         <f>+D51/D50-1</f>
         <v>6.25E-2</v>
       </c>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
+      <c r="Q51" s="2">
+        <v>0</v>
+      </c>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
       <c r="T51" s="2">
         <v>2023</v>
       </c>
       <c r="U51" s="14">
-        <f t="shared" si="1"/>
+        <f>+F51</f>
         <v>1.0101010101010166E-2</v>
       </c>
       <c r="V51" s="14">
@@ -5639,11 +5668,11 @@
         <v>2023</v>
       </c>
       <c r="X51" s="1">
-        <f t="shared" si="6"/>
+        <f>E51/$E$3*1</f>
         <v>10</v>
       </c>
       <c r="Y51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="AA51">
@@ -5655,14 +5684,14 @@
         <v>4.0999999999999995E-2</v>
       </c>
       <c r="AC51" s="3">
-        <f>+Q51</f>
+        <f>+P51</f>
         <v>6.25E-2</v>
       </c>
       <c r="AE51" s="2">
         <v>2023</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>2024</v>
       </c>
@@ -5679,7 +5708,7 @@
         <v>103000</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="G52">
@@ -5693,42 +5722,42 @@
         <v>9076.5</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>130.97402597402598</v>
       </c>
-      <c r="K52" s="21">
-        <v>2024</v>
-      </c>
-      <c r="L52" s="23">
+      <c r="K52" s="23">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="M52" s="1">
+      <c r="L52" s="1">
         <f>SUM($B$3:B52)/$B$3</f>
         <v>146.28</v>
       </c>
-      <c r="N52" s="2">
-        <f>+N51+B52</f>
+      <c r="M52" s="2">
+        <f>+M51+B52</f>
         <v>7314000</v>
       </c>
-      <c r="O52" s="1">
+      <c r="N52" s="1">
         <f>D52/$D$3</f>
         <v>36.72</v>
       </c>
-      <c r="P52" s="1">
-        <f t="shared" si="5"/>
+      <c r="O52" s="1">
+        <f>E52/$E$3*1</f>
         <v>10.3</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="P52" s="3">
         <f>+D52/D51-1</f>
         <v>8.0000000000000071E-2</v>
       </c>
+      <c r="Q52" s="2">
+        <v>0</v>
+      </c>
       <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
+      <c r="S52" s="25"/>
       <c r="T52" s="2">
         <v>2024</v>
       </c>
       <c r="U52" s="14">
-        <f t="shared" si="1"/>
+        <f>+F52</f>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="V52" s="14">
@@ -5739,11 +5768,11 @@
         <v>2024</v>
       </c>
       <c r="X52" s="1">
-        <f t="shared" si="6"/>
+        <f>E52/$E$3*1</f>
         <v>10.3</v>
       </c>
       <c r="Y52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36.72</v>
       </c>
       <c r="AA52">
@@ -5755,14 +5784,14 @@
         <v>4.3499999999999997E-2</v>
       </c>
       <c r="AC52" s="3">
-        <f>+Q52</f>
+        <f>+P52</f>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="AE52" s="2">
         <v>2024</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>2025</v>
       </c>
@@ -5779,7 +5808,7 @@
         <v>105000</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.9417475728155331E-2</v>
       </c>
       <c r="G53">
@@ -5793,42 +5822,42 @@
         <v>9264.7999999999993</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>133.69119769119769</v>
       </c>
-      <c r="K53" s="21">
-        <v>2025</v>
-      </c>
-      <c r="L53" s="23">
+      <c r="K53" s="23">
         <v>2.4E-2</v>
       </c>
-      <c r="M53" s="1">
+      <c r="L53" s="1">
         <f>SUM($B$3:B53)/$B$3</f>
         <v>146.28</v>
       </c>
-      <c r="N53" s="2" t="e">
-        <f>+N52+B53</f>
+      <c r="M53" s="2" t="e">
+        <f>+M52+B53</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O53" s="1">
+      <c r="N53" s="1">
         <f>D53/$D$3</f>
         <v>47.96</v>
       </c>
-      <c r="P53" s="1">
-        <f t="shared" si="5"/>
+      <c r="O53" s="1">
+        <f>E53/$E$3*1</f>
         <v>10.5</v>
       </c>
-      <c r="Q53" s="3">
+      <c r="P53" s="3">
         <f>+D53/D52-1</f>
         <v>0.3061002178649237</v>
       </c>
+      <c r="Q53" s="2">
+        <v>0</v>
+      </c>
       <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
+      <c r="S53" s="25"/>
       <c r="T53" s="2">
         <v>2025</v>
       </c>
       <c r="U53" s="14">
-        <f t="shared" si="1"/>
+        <f>+F53</f>
         <v>1.9417475728155331E-2</v>
       </c>
       <c r="V53" s="14">
@@ -5839,11 +5868,11 @@
         <v>2025</v>
       </c>
       <c r="X53" s="1">
-        <f t="shared" si="6"/>
+        <f>E53/$E$3*1</f>
         <v>10.5</v>
       </c>
       <c r="Y53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47.96</v>
       </c>
       <c r="AA53">
@@ -5855,7 +5884,7 @@
         <v>3.85E-2</v>
       </c>
       <c r="AC53" s="3">
-        <f>+Q53</f>
+        <f>+P53</f>
         <v>0.3061002178649237</v>
       </c>
       <c r="AE53" s="2">

--- a/blog/data for charts.xlsx
+++ b/blog/data for charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Luis\Business folder\tepuy_site\blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6762B6-68FD-4B3B-AB4D-48E45478F91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15324FC-EB96-4329-B1E4-080342A523D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B159E2E-8423-4A54-869A-CB7D220BCCE4}"/>
   </bookViews>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA479CF-F01B-46D5-BB9B-5EE2BF069812}">
   <dimension ref="A1:AE53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5348,8 +5348,8 @@
         <f>+D48/D47-1</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="Q48" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="Q48" s="2">
+        <v>160000</v>
       </c>
       <c r="R48" s="25"/>
       <c r="S48" s="25"/>
@@ -5448,8 +5448,8 @@
         <f>+D49/D48-1</f>
         <v>0.15384615384615374</v>
       </c>
-      <c r="Q49" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="Q49" s="2">
+        <v>200000</v>
       </c>
       <c r="R49" s="25"/>
       <c r="S49" s="25"/>
@@ -5649,7 +5649,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="Q51" s="2">
-        <v>0</v>
+        <v>170000</v>
       </c>
       <c r="R51" s="25"/>
       <c r="S51" s="25"/>
